--- a/task01.31/Сессия 1/Орг.структура.xlsx
+++ b/task01.31/Сессия 1/Орг.структура.xlsx
@@ -2304,7 +2304,7 @@
     <t>отделы</t>
   </si>
   <si>
-    <t xml:space="preserve">  </t>
+    <t>подразделения</t>
   </si>
 </sst>
 </file>
@@ -2415,7 +2415,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="26">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2465,10 +2465,6 @@
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
       <protection hidden="0" locked="1"/>
@@ -2481,9 +2477,6 @@
     </xf>
     <xf fontId="6" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
-      <protection hidden="0" locked="1"/>
     </xf>
     <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -9574,10 +9567,10 @@
       <c r="A2" s="18">
         <v>2</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="19"/>
+      <c r="C2" s="14"/>
       <c r="D2">
         <v>1</v>
       </c>
@@ -9592,10 +9585,10 @@
       <c r="A3" s="18">
         <v>3</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="19"/>
+      <c r="C3" s="14"/>
       <c r="D3">
         <v>1</v>
       </c>
@@ -9610,10 +9603,10 @@
       <c r="A4" s="18">
         <v>4</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="19"/>
+      <c r="C4" s="14"/>
       <c r="D4">
         <v>1</v>
       </c>
@@ -9628,10 +9621,10 @@
       <c r="A5" s="18">
         <v>5</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="19"/>
+      <c r="C5" s="14"/>
       <c r="D5">
         <v>1</v>
       </c>
@@ -9646,10 +9639,10 @@
       <c r="A6" s="18">
         <v>6</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="19"/>
+      <c r="C6" s="14"/>
       <c r="D6">
         <v>1</v>
       </c>
@@ -11162,13 +11155,13 @@
       <c r="A1" t="s">
         <v>454</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="19" t="s">
         <v>455</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="19" t="s">
         <v>456</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="19" t="s">
         <v>457</v>
       </c>
       <c r="E1" t="s">
@@ -11183,15 +11176,15 @@
       <c r="H1" t="s">
         <v>461</v>
       </c>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
     </row>
     <row r="2" ht="10.5">
-      <c r="A2" s="22">
+      <c r="A2" s="20">
         <v>1</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="21" t="s">
         <v>462</v>
       </c>
       <c r="C2" s="14" t="s">
@@ -11200,38 +11193,38 @@
       <c r="D2" s="14" t="s">
         <v>464</v>
       </c>
-      <c r="E2" s="24">
+      <c r="E2" s="22">
         <v>26048</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>15</v>
       </c>
       <c r="G2" s="13">
-        <f>_xlfn.XLOOKUP(M:M,O:O,N:N)</f>
+        <f t="shared" ref="G2:G65" si="0">_xlfn.XLOOKUP(M:M,O:O,N:N)</f>
         <v>1</v>
       </c>
       <c r="H2" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
       <c r="M2" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="22">
+      <c r="N2" s="20">
         <v>1</v>
       </c>
-      <c r="O2" s="25" t="s">
+      <c r="O2" s="23" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" ht="10.5">
-      <c r="A3" s="22">
+      <c r="A3" s="20">
         <v>2</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="21" t="s">
         <v>465</v>
       </c>
       <c r="C3" s="14" t="s">
@@ -11240,38 +11233,38 @@
       <c r="D3" s="14" t="s">
         <v>467</v>
       </c>
-      <c r="E3" s="24">
+      <c r="E3" s="22">
         <v>32679</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>20</v>
       </c>
       <c r="G3" s="13">
-        <f>_xlfn.XLOOKUP(M:M,O:O,N:N)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H3" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
       <c r="M3" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="N3" s="22">
+      <c r="N3" s="20">
         <v>2</v>
       </c>
-      <c r="O3" s="25">
+      <c r="O3" s="23">
         <v>482</v>
       </c>
     </row>
     <row r="4" ht="10.5">
-      <c r="A4" s="22">
+      <c r="A4" s="20">
         <v>3</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="21" t="s">
         <v>468</v>
       </c>
       <c r="C4" s="14" t="s">
@@ -11280,38 +11273,38 @@
       <c r="D4" s="14" t="s">
         <v>470</v>
       </c>
-      <c r="E4" s="24">
+      <c r="E4" s="22">
         <v>28959</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>26</v>
       </c>
       <c r="G4" s="13">
-        <f>_xlfn.XLOOKUP(M:M,O:O,N:N)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="H4" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
       <c r="M4" s="13">
         <v>482</v>
       </c>
-      <c r="N4" s="22">
+      <c r="N4" s="20">
         <v>3</v>
       </c>
-      <c r="O4" s="25">
+      <c r="O4" s="23">
         <v>479</v>
       </c>
     </row>
     <row r="5" ht="10.5">
-      <c r="A5" s="26">
+      <c r="A5" s="20">
         <v>4</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="21" t="s">
         <v>471</v>
       </c>
       <c r="C5" s="14" t="s">
@@ -11320,38 +11313,38 @@
       <c r="D5" s="14" t="s">
         <v>473</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="22">
         <v>24610</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>30</v>
       </c>
       <c r="G5" s="13">
-        <f>_xlfn.XLOOKUP(M:M,O:O,N:N)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="H5" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
       <c r="M5" s="13">
         <v>482</v>
       </c>
-      <c r="N5" s="22">
+      <c r="N5" s="20">
         <v>4</v>
       </c>
-      <c r="O5" s="25">
+      <c r="O5" s="23">
         <v>483</v>
       </c>
     </row>
     <row r="6" ht="10.5">
-      <c r="A6" s="26">
+      <c r="A6" s="20">
         <v>5</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="21" t="s">
         <v>474</v>
       </c>
       <c r="C6" s="14" t="s">
@@ -11360,38 +11353,38 @@
       <c r="D6" s="14" t="s">
         <v>476</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="22">
         <v>26166</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>33</v>
       </c>
       <c r="G6" s="13">
-        <f>_xlfn.XLOOKUP(M:M,O:O,N:N)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="H6" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
       <c r="M6" s="13">
         <v>482</v>
       </c>
-      <c r="N6" s="22">
+      <c r="N6" s="20">
         <v>5</v>
       </c>
-      <c r="O6" s="25">
+      <c r="O6" s="23">
         <v>525</v>
       </c>
     </row>
     <row r="7" ht="10.5">
-      <c r="A7" s="22">
+      <c r="A7" s="20">
         <v>6</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="21" t="s">
         <v>477</v>
       </c>
       <c r="C7" s="14" t="s">
@@ -11400,38 +11393,38 @@
       <c r="D7" s="14" t="s">
         <v>479</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7" s="22">
         <v>25218</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>37</v>
       </c>
       <c r="G7" s="13">
-        <f>_xlfn.XLOOKUP(M:M,O:O,N:N)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="H7" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
       <c r="M7" s="13">
         <v>479</v>
       </c>
-      <c r="N7" s="22">
+      <c r="N7" s="20">
         <v>6</v>
       </c>
-      <c r="O7" s="25">
+      <c r="O7" s="23">
         <v>489</v>
       </c>
     </row>
     <row r="8" ht="10.5">
-      <c r="A8" s="26">
+      <c r="A8" s="20">
         <v>7</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="21" t="s">
         <v>480</v>
       </c>
       <c r="C8" s="14" t="s">
@@ -11440,38 +11433,38 @@
       <c r="D8" s="14" t="s">
         <v>482</v>
       </c>
-      <c r="E8" s="24">
+      <c r="E8" s="22">
         <v>23740</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>41</v>
       </c>
       <c r="G8" s="13">
-        <f>_xlfn.XLOOKUP(M:M,O:O,N:N)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="H8" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
       <c r="M8" s="13">
         <v>479</v>
       </c>
-      <c r="N8" s="22">
+      <c r="N8" s="20">
         <v>7</v>
       </c>
-      <c r="O8" s="25">
+      <c r="O8" s="23">
         <v>527</v>
       </c>
     </row>
     <row r="9" ht="10.5">
-      <c r="A9" s="26">
+      <c r="A9" s="20">
         <v>8</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="21" t="s">
         <v>483</v>
       </c>
       <c r="C9" s="14" t="s">
@@ -11480,118 +11473,118 @@
       <c r="D9" s="14" t="s">
         <v>485</v>
       </c>
-      <c r="E9" s="24">
+      <c r="E9" s="22">
         <v>30825</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>45</v>
       </c>
       <c r="G9" s="13">
-        <f>_xlfn.XLOOKUP(M:M,O:O,N:N)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="H9" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
       <c r="M9" s="13">
         <v>479</v>
       </c>
-      <c r="N9" s="22">
+      <c r="N9" s="20">
         <v>8</v>
       </c>
-      <c r="O9" s="25">
+      <c r="O9" s="23">
         <v>477</v>
       </c>
     </row>
     <row r="10" ht="10.5">
-      <c r="A10" s="22">
+      <c r="A10" s="20">
         <v>9</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="21" t="s">
         <v>486</v>
       </c>
       <c r="C10" t="s">
         <v>487</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="20" t="s">
         <v>488</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E10" s="22">
         <v>28474</v>
       </c>
       <c r="F10" s="12" t="s">
         <v>48</v>
       </c>
       <c r="G10" s="13">
-        <f>_xlfn.XLOOKUP(M:M,O:O,N:N)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="H10" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
       <c r="M10" s="13">
         <v>479</v>
       </c>
-      <c r="N10" s="22">
+      <c r="N10" s="20">
         <v>9</v>
       </c>
-      <c r="O10" s="25">
+      <c r="O10" s="23">
         <v>404</v>
       </c>
     </row>
     <row r="11" ht="10.5">
-      <c r="A11" s="26">
+      <c r="A11" s="20">
         <v>10</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="21" t="s">
         <v>489</v>
       </c>
       <c r="C11" t="s">
         <v>490</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="20" t="s">
         <v>491</v>
       </c>
-      <c r="E11" s="24">
+      <c r="E11" s="22">
         <v>35198</v>
       </c>
       <c r="F11" s="12" t="s">
         <v>51</v>
       </c>
       <c r="G11" s="13">
-        <f>_xlfn.XLOOKUP(M:M,O:O,N:N)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="H11" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
       <c r="M11" s="13">
         <v>479</v>
       </c>
-      <c r="N11" s="22">
+      <c r="N11" s="20">
         <v>10</v>
       </c>
-      <c r="O11" s="25">
+      <c r="O11" s="23">
         <v>415</v>
       </c>
     </row>
     <row r="12" ht="10.5">
-      <c r="A12" s="26">
+      <c r="A12" s="20">
         <v>11</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="21" t="s">
         <v>492</v>
       </c>
       <c r="C12" t="s">
@@ -11600,14 +11593,14 @@
       <c r="D12" t="s">
         <v>494</v>
       </c>
-      <c r="E12" s="24">
+      <c r="E12" s="22">
         <v>32930</v>
       </c>
       <c r="F12" s="12" t="s">
         <v>55</v>
       </c>
       <c r="G12" s="13">
-        <f>_xlfn.XLOOKUP(M:M,O:O,N:N)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="H12" s="12" t="s">
@@ -11616,18 +11609,18 @@
       <c r="M12" s="13">
         <v>482</v>
       </c>
-      <c r="N12" s="22">
+      <c r="N12" s="20">
         <v>11</v>
       </c>
-      <c r="O12" s="25" t="s">
+      <c r="O12" s="23" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="13" ht="10.5">
-      <c r="A13" s="22">
+      <c r="A13" s="20">
         <v>12</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="21" t="s">
         <v>495</v>
       </c>
       <c r="C13" t="s">
@@ -11636,14 +11629,14 @@
       <c r="D13" t="s">
         <v>497</v>
       </c>
-      <c r="E13" s="24">
+      <c r="E13" s="22">
         <v>27698</v>
       </c>
       <c r="F13" s="12" t="s">
         <v>58</v>
       </c>
       <c r="G13" s="13">
-        <f>_xlfn.XLOOKUP(M:M,O:O,N:N)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="H13" s="12" t="s">
@@ -11652,18 +11645,18 @@
       <c r="M13" s="13">
         <v>482</v>
       </c>
-      <c r="N13" s="22">
+      <c r="N13" s="20">
         <v>12</v>
       </c>
-      <c r="O13" s="25" t="s">
+      <c r="O13" s="23" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="14" ht="10.5">
-      <c r="A14" s="26">
+      <c r="A14" s="20">
         <v>13</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="21" t="s">
         <v>498</v>
       </c>
       <c r="C14" t="s">
@@ -11672,14 +11665,14 @@
       <c r="D14" t="s">
         <v>488</v>
       </c>
-      <c r="E14" s="24">
+      <c r="E14" s="22">
         <v>36379</v>
       </c>
       <c r="F14" s="12" t="s">
         <v>63</v>
       </c>
       <c r="G14" s="13">
-        <f>_xlfn.XLOOKUP(M:M,O:O,N:N)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="H14" s="12" t="s">
@@ -11688,18 +11681,18 @@
       <c r="M14" s="13">
         <v>483</v>
       </c>
-      <c r="N14" s="22">
+      <c r="N14" s="20">
         <v>13</v>
       </c>
-      <c r="O14" s="25">
+      <c r="O14" s="23">
         <v>406</v>
       </c>
     </row>
     <row r="15" ht="10.5">
-      <c r="A15" s="26">
+      <c r="A15" s="20">
         <v>14</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="21" t="s">
         <v>500</v>
       </c>
       <c r="C15" t="s">
@@ -11708,14 +11701,14 @@
       <c r="D15" t="s">
         <v>485</v>
       </c>
-      <c r="E15" s="24">
+      <c r="E15" s="22">
         <v>23402</v>
       </c>
       <c r="F15" s="12" t="s">
         <v>67</v>
       </c>
       <c r="G15" s="13">
-        <f>_xlfn.XLOOKUP(M:M,O:O,N:N)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="H15" s="12" t="s">
@@ -11724,18 +11717,18 @@
       <c r="M15" s="13">
         <v>483</v>
       </c>
-      <c r="N15" s="22">
+      <c r="N15" s="20">
         <v>14</v>
       </c>
-      <c r="O15" s="25" t="s">
+      <c r="O15" s="23" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="16" ht="10.5">
-      <c r="A16" s="22">
+      <c r="A16" s="20">
         <v>15</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="21" t="s">
         <v>502</v>
       </c>
       <c r="C16" t="s">
@@ -11744,14 +11737,14 @@
       <c r="D16" t="s">
         <v>503</v>
       </c>
-      <c r="E16" s="24">
+      <c r="E16" s="22">
         <v>35345</v>
       </c>
       <c r="F16" s="12" t="s">
         <v>72</v>
       </c>
       <c r="G16" s="13">
-        <f>_xlfn.XLOOKUP(M:M,O:O,N:N)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="H16" s="12" t="s">
@@ -11760,18 +11753,18 @@
       <c r="M16" s="13">
         <v>483</v>
       </c>
-      <c r="N16" s="22">
+      <c r="N16" s="20">
         <v>15</v>
       </c>
-      <c r="O16" s="25" t="s">
+      <c r="O16" s="23" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="17" ht="10.5">
-      <c r="A17" s="26">
+      <c r="A17" s="20">
         <v>16</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="21" t="s">
         <v>504</v>
       </c>
       <c r="C17" t="s">
@@ -11780,14 +11773,14 @@
       <c r="D17" t="s">
         <v>506</v>
       </c>
-      <c r="E17" s="24">
+      <c r="E17" s="22">
         <v>26055</v>
       </c>
       <c r="F17" s="12" t="s">
         <v>75</v>
       </c>
       <c r="G17" s="13">
-        <f>_xlfn.XLOOKUP(M:M,O:O,N:N)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="H17" s="12" t="s">
@@ -11796,18 +11789,18 @@
       <c r="M17" s="13">
         <v>483</v>
       </c>
-      <c r="N17" s="22">
+      <c r="N17" s="20">
         <v>16</v>
       </c>
-      <c r="O17" s="25" t="s">
+      <c r="O17" s="23" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="18" ht="10.5">
-      <c r="A18" s="26">
+      <c r="A18" s="20">
         <v>17</v>
       </c>
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="21" t="s">
         <v>507</v>
       </c>
       <c r="C18" t="s">
@@ -11816,14 +11809,14 @@
       <c r="D18" t="s">
         <v>509</v>
       </c>
-      <c r="E18" s="24">
+      <c r="E18" s="22">
         <v>30970</v>
       </c>
       <c r="F18" s="12" t="s">
         <v>80</v>
       </c>
       <c r="G18" s="13">
-        <f>_xlfn.XLOOKUP(M:M,O:O,N:N)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="H18" s="12" t="s">
@@ -11832,18 +11825,18 @@
       <c r="M18" s="13">
         <v>525</v>
       </c>
-      <c r="N18" s="22">
+      <c r="N18" s="20">
         <v>17</v>
       </c>
-      <c r="O18" s="25">
+      <c r="O18" s="23">
         <v>411</v>
       </c>
     </row>
     <row r="19" ht="10.5">
-      <c r="A19" s="22">
+      <c r="A19" s="20">
         <v>18</v>
       </c>
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="21" t="s">
         <v>510</v>
       </c>
       <c r="C19" t="s">
@@ -11852,14 +11845,14 @@
       <c r="D19" t="s">
         <v>512</v>
       </c>
-      <c r="E19" s="24">
+      <c r="E19" s="22">
         <v>24955</v>
       </c>
       <c r="F19" s="12" t="s">
         <v>84</v>
       </c>
       <c r="G19" s="13">
-        <f>_xlfn.XLOOKUP(M:M,O:O,N:N)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="H19" s="12" t="s">
@@ -11868,18 +11861,18 @@
       <c r="M19" s="13">
         <v>525</v>
       </c>
-      <c r="N19" s="22">
+      <c r="N19" s="20">
         <v>18</v>
       </c>
-      <c r="O19" s="25">
+      <c r="O19" s="23">
         <v>401</v>
       </c>
     </row>
     <row r="20" ht="10.5">
-      <c r="A20" s="26">
+      <c r="A20" s="20">
         <v>19</v>
       </c>
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="21" t="s">
         <v>513</v>
       </c>
       <c r="C20" t="s">
@@ -11888,14 +11881,14 @@
       <c r="D20" t="s">
         <v>515</v>
       </c>
-      <c r="E20" s="24">
+      <c r="E20" s="22">
         <v>22093</v>
       </c>
       <c r="F20" s="12" t="s">
         <v>87</v>
       </c>
       <c r="G20" s="13">
-        <f>_xlfn.XLOOKUP(M:M,O:O,N:N)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="H20" s="12" t="s">
@@ -11904,18 +11897,18 @@
       <c r="M20" s="13">
         <v>525</v>
       </c>
-      <c r="N20" s="22">
+      <c r="N20" s="20">
         <v>19</v>
       </c>
-      <c r="O20" s="25">
+      <c r="O20" s="23">
         <v>487</v>
       </c>
     </row>
     <row r="21" ht="10.5">
-      <c r="A21" s="26">
+      <c r="A21" s="20">
         <v>20</v>
       </c>
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="21" t="s">
         <v>516</v>
       </c>
       <c r="C21" t="s">
@@ -11924,14 +11917,14 @@
       <c r="D21" t="s">
         <v>494</v>
       </c>
-      <c r="E21" s="24">
+      <c r="E21" s="22">
         <v>29228</v>
       </c>
       <c r="F21" s="12" t="s">
         <v>90</v>
       </c>
       <c r="G21" s="13">
-        <f>_xlfn.XLOOKUP(M:M,O:O,N:N)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="H21" s="12" t="s">
@@ -11940,18 +11933,18 @@
       <c r="M21" s="13">
         <v>525</v>
       </c>
-      <c r="N21" s="22">
+      <c r="N21" s="20">
         <v>20</v>
       </c>
-      <c r="O21" s="25">
+      <c r="O21" s="23">
         <v>421</v>
       </c>
     </row>
     <row r="22" ht="10.5">
-      <c r="A22" s="22">
+      <c r="A22" s="20">
         <v>21</v>
       </c>
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="21" t="s">
         <v>518</v>
       </c>
       <c r="C22" t="s">
@@ -11960,14 +11953,14 @@
       <c r="D22" t="s">
         <v>520</v>
       </c>
-      <c r="E22" s="24">
+      <c r="E22" s="22">
         <v>32316</v>
       </c>
       <c r="F22" s="12" t="s">
         <v>94</v>
       </c>
       <c r="G22" s="13">
-        <f>_xlfn.XLOOKUP(M:M,O:O,N:N)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="H22" s="12" t="s">
@@ -11976,18 +11969,18 @@
       <c r="M22" s="13">
         <v>525</v>
       </c>
-      <c r="N22" s="22">
+      <c r="N22" s="20">
         <v>21</v>
       </c>
-      <c r="O22" s="25">
+      <c r="O22" s="23">
         <v>488</v>
       </c>
     </row>
     <row r="23" ht="10.5">
-      <c r="A23" s="26">
+      <c r="A23" s="20">
         <v>22</v>
       </c>
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="21" t="s">
         <v>504</v>
       </c>
       <c r="C23" t="s">
@@ -11996,14 +11989,14 @@
       <c r="D23" t="s">
         <v>522</v>
       </c>
-      <c r="E23" s="24">
+      <c r="E23" s="22">
         <v>36063</v>
       </c>
       <c r="F23" s="12" t="s">
         <v>98</v>
       </c>
       <c r="G23" s="13">
-        <f>_xlfn.XLOOKUP(M:M,O:O,N:N)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="H23" s="12" t="s">
@@ -12012,18 +12005,18 @@
       <c r="M23" s="13">
         <v>525</v>
       </c>
-      <c r="N23" s="22">
+      <c r="N23" s="20">
         <v>22</v>
       </c>
-      <c r="O23" s="25">
+      <c r="O23" s="23">
         <v>524</v>
       </c>
     </row>
     <row r="24" ht="10.5">
-      <c r="A24" s="26">
+      <c r="A24" s="20">
         <v>23</v>
       </c>
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="21" t="s">
         <v>523</v>
       </c>
       <c r="C24" t="s">
@@ -12032,14 +12025,14 @@
       <c r="D24" t="s">
         <v>524</v>
       </c>
-      <c r="E24" s="24">
+      <c r="E24" s="22">
         <v>24220</v>
       </c>
       <c r="F24" s="12" t="s">
         <v>101</v>
       </c>
       <c r="G24" s="13">
-        <f>_xlfn.XLOOKUP(M:M,O:O,N:N)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="H24" s="12" t="s">
@@ -12048,18 +12041,18 @@
       <c r="M24" s="13">
         <v>525</v>
       </c>
-      <c r="N24" s="22">
+      <c r="N24" s="20">
         <v>23</v>
       </c>
-      <c r="O24" s="25">
+      <c r="O24" s="23">
         <v>523</v>
       </c>
     </row>
     <row r="25" ht="10.5">
-      <c r="A25" s="22">
+      <c r="A25" s="20">
         <v>24</v>
       </c>
-      <c r="B25" s="23" t="s">
+      <c r="B25" s="21" t="s">
         <v>525</v>
       </c>
       <c r="C25" t="s">
@@ -12068,14 +12061,14 @@
       <c r="D25" t="s">
         <v>527</v>
       </c>
-      <c r="E25" s="24">
+      <c r="E25" s="22">
         <v>37040</v>
       </c>
       <c r="F25" s="12" t="s">
         <v>104</v>
       </c>
       <c r="G25" s="13">
-        <f>_xlfn.XLOOKUP(M:M,O:O,N:N)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="H25" s="12" t="s">
@@ -12086,10 +12079,10 @@
       </c>
     </row>
     <row r="26" ht="10.5">
-      <c r="A26" s="26">
+      <c r="A26" s="20">
         <v>25</v>
       </c>
-      <c r="B26" s="23" t="s">
+      <c r="B26" s="21" t="s">
         <v>528</v>
       </c>
       <c r="C26" t="s">
@@ -12098,14 +12091,14 @@
       <c r="D26" t="s">
         <v>530</v>
       </c>
-      <c r="E26" s="24">
+      <c r="E26" s="22">
         <v>35450</v>
       </c>
       <c r="F26" s="12" t="s">
         <v>108</v>
       </c>
       <c r="G26" s="13">
-        <f>_xlfn.XLOOKUP(M:M,O:O,N:N)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="H26" s="12" t="s">
@@ -12116,10 +12109,10 @@
       </c>
     </row>
     <row r="27" ht="10.5">
-      <c r="A27" s="26">
+      <c r="A27" s="20">
         <v>26</v>
       </c>
-      <c r="B27" s="23" t="s">
+      <c r="B27" s="21" t="s">
         <v>531</v>
       </c>
       <c r="C27" t="s">
@@ -12128,14 +12121,14 @@
       <c r="D27" t="s">
         <v>533</v>
       </c>
-      <c r="E27" s="24">
+      <c r="E27" s="22">
         <v>30431</v>
       </c>
       <c r="F27" s="12" t="s">
         <v>112</v>
       </c>
       <c r="G27" s="13">
-        <f>_xlfn.XLOOKUP(M:M,O:O,N:N)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="H27" s="12" t="s">
@@ -12146,10 +12139,10 @@
       </c>
     </row>
     <row r="28" ht="10.5">
-      <c r="A28" s="22">
+      <c r="A28" s="20">
         <v>27</v>
       </c>
-      <c r="B28" s="23" t="s">
+      <c r="B28" s="21" t="s">
         <v>534</v>
       </c>
       <c r="C28" t="s">
@@ -12158,14 +12151,14 @@
       <c r="D28" t="s">
         <v>536</v>
       </c>
-      <c r="E28" s="24">
+      <c r="E28" s="22">
         <v>24568</v>
       </c>
       <c r="F28" s="12" t="s">
         <v>115</v>
       </c>
       <c r="G28" s="13">
-        <f>_xlfn.XLOOKUP(M:M,O:O,N:N)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="H28" s="12" t="s">
@@ -12176,10 +12169,10 @@
       </c>
     </row>
     <row r="29" ht="10.5">
-      <c r="A29" s="26">
+      <c r="A29" s="20">
         <v>28</v>
       </c>
-      <c r="B29" s="23" t="s">
+      <c r="B29" s="21" t="s">
         <v>537</v>
       </c>
       <c r="C29" t="s">
@@ -12188,14 +12181,14 @@
       <c r="D29" t="s">
         <v>539</v>
       </c>
-      <c r="E29" s="24">
+      <c r="E29" s="22">
         <v>37475</v>
       </c>
       <c r="F29" s="12" t="s">
         <v>119</v>
       </c>
       <c r="G29" s="13">
-        <f>_xlfn.XLOOKUP(M:M,O:O,N:N)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="H29" s="12" t="s">
@@ -12206,10 +12199,10 @@
       </c>
     </row>
     <row r="30" ht="10.5">
-      <c r="A30" s="26">
+      <c r="A30" s="20">
         <v>29</v>
       </c>
-      <c r="B30" s="23" t="s">
+      <c r="B30" s="21" t="s">
         <v>540</v>
       </c>
       <c r="C30" t="s">
@@ -12218,14 +12211,14 @@
       <c r="D30" t="s">
         <v>542</v>
       </c>
-      <c r="E30" s="24">
+      <c r="E30" s="22">
         <v>36710</v>
       </c>
       <c r="F30" s="12" t="s">
         <v>123</v>
       </c>
       <c r="G30" s="13">
-        <f>_xlfn.XLOOKUP(M:M,O:O,N:N)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="H30" s="12" t="s">
@@ -12236,10 +12229,10 @@
       </c>
     </row>
     <row r="31" ht="10.5">
-      <c r="A31" s="22">
+      <c r="A31" s="20">
         <v>30</v>
       </c>
-      <c r="B31" s="23" t="s">
+      <c r="B31" s="21" t="s">
         <v>543</v>
       </c>
       <c r="C31" t="s">
@@ -12248,14 +12241,14 @@
       <c r="D31" t="s">
         <v>545</v>
       </c>
-      <c r="E31" s="24">
+      <c r="E31" s="22">
         <v>24936</v>
       </c>
       <c r="F31" s="12" t="s">
         <v>126</v>
       </c>
       <c r="G31" s="13">
-        <f>_xlfn.XLOOKUP(M:M,O:O,N:N)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="H31" s="12" t="s">
@@ -12266,10 +12259,10 @@
       </c>
     </row>
     <row r="32" ht="10.5">
-      <c r="A32" s="26">
+      <c r="A32" s="20">
         <v>31</v>
       </c>
-      <c r="B32" s="23" t="s">
+      <c r="B32" s="21" t="s">
         <v>546</v>
       </c>
       <c r="C32" t="s">
@@ -12278,14 +12271,14 @@
       <c r="D32" t="s">
         <v>548</v>
       </c>
-      <c r="E32" s="24">
+      <c r="E32" s="22">
         <v>33026</v>
       </c>
       <c r="F32" s="12" t="s">
         <v>129</v>
       </c>
       <c r="G32" s="13">
-        <f>_xlfn.XLOOKUP(M:M,O:O,N:N)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="H32" s="12" t="s">
@@ -12296,10 +12289,10 @@
       </c>
     </row>
     <row r="33" ht="10.5">
-      <c r="A33" s="26">
+      <c r="A33" s="20">
         <v>32</v>
       </c>
-      <c r="B33" s="23" t="s">
+      <c r="B33" s="21" t="s">
         <v>549</v>
       </c>
       <c r="C33" t="s">
@@ -12308,14 +12301,14 @@
       <c r="D33" t="s">
         <v>551</v>
       </c>
-      <c r="E33" s="24">
+      <c r="E33" s="22">
         <v>24957</v>
       </c>
       <c r="F33" s="12" t="s">
         <v>132</v>
       </c>
       <c r="G33" s="13">
-        <f>_xlfn.XLOOKUP(M:M,O:O,N:N)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="H33" s="12" t="s">
@@ -12326,10 +12319,10 @@
       </c>
     </row>
     <row r="34" ht="10.5">
-      <c r="A34" s="22">
+      <c r="A34" s="20">
         <v>33</v>
       </c>
-      <c r="B34" s="23" t="s">
+      <c r="B34" s="21" t="s">
         <v>552</v>
       </c>
       <c r="C34" t="s">
@@ -12338,14 +12331,14 @@
       <c r="D34" t="s">
         <v>554</v>
       </c>
-      <c r="E34" s="24">
+      <c r="E34" s="22">
         <v>27340</v>
       </c>
       <c r="F34" s="12" t="s">
         <v>135</v>
       </c>
       <c r="G34" s="13">
-        <f>_xlfn.XLOOKUP(M:M,O:O,N:N)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="H34" s="12" t="s">
@@ -12356,10 +12349,10 @@
       </c>
     </row>
     <row r="35" ht="10.5">
-      <c r="A35" s="26">
+      <c r="A35" s="20">
         <v>34</v>
       </c>
-      <c r="B35" s="23" t="s">
+      <c r="B35" s="21" t="s">
         <v>555</v>
       </c>
       <c r="C35" t="s">
@@ -12368,14 +12361,14 @@
       <c r="D35" t="s">
         <v>494</v>
       </c>
-      <c r="E35" s="24">
+      <c r="E35" s="22">
         <v>37087</v>
       </c>
       <c r="F35" s="12" t="s">
         <v>138</v>
       </c>
       <c r="G35" s="13">
-        <f>_xlfn.XLOOKUP(M:M,O:O,N:N)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="H35" s="12" t="s">
@@ -12386,10 +12379,10 @@
       </c>
     </row>
     <row r="36" ht="10.5">
-      <c r="A36" s="26">
+      <c r="A36" s="20">
         <v>35</v>
       </c>
-      <c r="B36" s="23" t="s">
+      <c r="B36" s="21" t="s">
         <v>557</v>
       </c>
       <c r="C36" t="s">
@@ -12398,14 +12391,14 @@
       <c r="D36" t="s">
         <v>559</v>
       </c>
-      <c r="E36" s="24">
+      <c r="E36" s="22">
         <v>37612</v>
       </c>
       <c r="F36" s="12" t="s">
         <v>144</v>
       </c>
       <c r="G36" s="13">
-        <f>_xlfn.XLOOKUP(M:M,O:O,N:N)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="H36" s="12" t="s">
@@ -12416,10 +12409,10 @@
       </c>
     </row>
     <row r="37" ht="10.5">
-      <c r="A37" s="22">
+      <c r="A37" s="20">
         <v>36</v>
       </c>
-      <c r="B37" s="23" t="s">
+      <c r="B37" s="21" t="s">
         <v>560</v>
       </c>
       <c r="C37" t="s">
@@ -12428,14 +12421,14 @@
       <c r="D37" t="s">
         <v>562</v>
       </c>
-      <c r="E37" s="24">
+      <c r="E37" s="22">
         <v>32651</v>
       </c>
       <c r="F37" s="12" t="s">
         <v>148</v>
       </c>
       <c r="G37" s="13">
-        <f>_xlfn.XLOOKUP(M:M,O:O,N:N)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="H37" s="12" t="s">
@@ -12446,10 +12439,10 @@
       </c>
     </row>
     <row r="38" ht="10.5">
-      <c r="A38" s="26">
+      <c r="A38" s="20">
         <v>37</v>
       </c>
-      <c r="B38" s="23" t="s">
+      <c r="B38" s="21" t="s">
         <v>563</v>
       </c>
       <c r="C38" t="s">
@@ -12458,14 +12451,14 @@
       <c r="D38" t="s">
         <v>565</v>
       </c>
-      <c r="E38" s="24">
+      <c r="E38" s="22">
         <v>25533</v>
       </c>
       <c r="F38" s="12" t="s">
         <v>152</v>
       </c>
       <c r="G38" s="13">
-        <f>_xlfn.XLOOKUP(M:M,O:O,N:N)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="H38" s="12" t="s">
@@ -12476,10 +12469,10 @@
       </c>
     </row>
     <row r="39" ht="10.5">
-      <c r="A39" s="26">
+      <c r="A39" s="20">
         <v>38</v>
       </c>
-      <c r="B39" s="23" t="s">
+      <c r="B39" s="21" t="s">
         <v>566</v>
       </c>
       <c r="C39" t="s">
@@ -12488,14 +12481,14 @@
       <c r="D39" t="s">
         <v>568</v>
       </c>
-      <c r="E39" s="24">
+      <c r="E39" s="22">
         <v>33211</v>
       </c>
       <c r="F39" s="12" t="s">
         <v>155</v>
       </c>
       <c r="G39" s="13">
-        <f>_xlfn.XLOOKUP(M:M,O:O,N:N)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="H39" s="12" t="s">
@@ -12506,10 +12499,10 @@
       </c>
     </row>
     <row r="40" ht="10.5">
-      <c r="A40" s="22">
+      <c r="A40" s="20">
         <v>39</v>
       </c>
-      <c r="B40" s="23" t="s">
+      <c r="B40" s="21" t="s">
         <v>569</v>
       </c>
       <c r="C40" t="s">
@@ -12518,14 +12511,14 @@
       <c r="D40" t="s">
         <v>571</v>
       </c>
-      <c r="E40" s="24">
+      <c r="E40" s="22">
         <v>25744</v>
       </c>
       <c r="F40" s="12" t="s">
         <v>158</v>
       </c>
       <c r="G40" s="13">
-        <f>_xlfn.XLOOKUP(M:M,O:O,N:N)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="H40" s="12" t="s">
@@ -12536,10 +12529,10 @@
       </c>
     </row>
     <row r="41" ht="10.5">
-      <c r="A41" s="26">
+      <c r="A41" s="20">
         <v>40</v>
       </c>
-      <c r="B41" s="23" t="s">
+      <c r="B41" s="21" t="s">
         <v>572</v>
       </c>
       <c r="C41" t="s">
@@ -12548,14 +12541,14 @@
       <c r="D41" t="s">
         <v>574</v>
       </c>
-      <c r="E41" s="24">
+      <c r="E41" s="22">
         <v>30157</v>
       </c>
       <c r="F41" s="12" t="s">
         <v>161</v>
       </c>
       <c r="G41" s="13">
-        <f>_xlfn.XLOOKUP(M:M,O:O,N:N)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="H41" s="12" t="s">
@@ -12566,10 +12559,10 @@
       </c>
     </row>
     <row r="42" ht="10.5">
-      <c r="A42" s="26">
+      <c r="A42" s="20">
         <v>41</v>
       </c>
-      <c r="B42" s="23" t="s">
+      <c r="B42" s="21" t="s">
         <v>575</v>
       </c>
       <c r="C42" t="s">
@@ -12578,14 +12571,14 @@
       <c r="D42" t="s">
         <v>467</v>
       </c>
-      <c r="E42" s="24">
+      <c r="E42" s="22">
         <v>33948</v>
       </c>
       <c r="F42" s="12" t="s">
         <v>165</v>
       </c>
       <c r="G42" s="13">
-        <f>_xlfn.XLOOKUP(M:M,O:O,N:N)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="H42" s="12" t="s">
@@ -12596,10 +12589,10 @@
       </c>
     </row>
     <row r="43" ht="10.5">
-      <c r="A43" s="22">
+      <c r="A43" s="20">
         <v>42</v>
       </c>
-      <c r="B43" s="23" t="s">
+      <c r="B43" s="21" t="s">
         <v>577</v>
       </c>
       <c r="C43" t="s">
@@ -12608,14 +12601,14 @@
       <c r="D43" t="s">
         <v>579</v>
       </c>
-      <c r="E43" s="24">
+      <c r="E43" s="22">
         <v>30985</v>
       </c>
       <c r="F43" s="12" t="s">
         <v>169</v>
       </c>
       <c r="G43" s="13">
-        <f>_xlfn.XLOOKUP(M:M,O:O,N:N)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="H43" s="12" t="s">
@@ -12626,10 +12619,10 @@
       </c>
     </row>
     <row r="44" ht="10.5">
-      <c r="A44" s="26">
+      <c r="A44" s="20">
         <v>43</v>
       </c>
-      <c r="B44" s="23" t="s">
+      <c r="B44" s="21" t="s">
         <v>580</v>
       </c>
       <c r="C44" t="s">
@@ -12638,14 +12631,14 @@
       <c r="D44" t="s">
         <v>582</v>
       </c>
-      <c r="E44" s="24">
+      <c r="E44" s="22">
         <v>28939</v>
       </c>
       <c r="F44" s="12" t="s">
         <v>172</v>
       </c>
       <c r="G44" s="13">
-        <f>_xlfn.XLOOKUP(M:M,O:O,N:N)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="H44" s="12" t="s">
@@ -12656,10 +12649,10 @@
       </c>
     </row>
     <row r="45" ht="10.5">
-      <c r="A45" s="26">
+      <c r="A45" s="20">
         <v>44</v>
       </c>
-      <c r="B45" s="23" t="s">
+      <c r="B45" s="21" t="s">
         <v>583</v>
       </c>
       <c r="C45" t="s">
@@ -12668,14 +12661,14 @@
       <c r="D45" t="s">
         <v>585</v>
       </c>
-      <c r="E45" s="24">
+      <c r="E45" s="22">
         <v>37040</v>
       </c>
       <c r="F45" s="12" t="s">
         <v>175</v>
       </c>
       <c r="G45" s="13">
-        <f>_xlfn.XLOOKUP(M:M,O:O,N:N)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="H45" s="12" t="s">
@@ -12686,10 +12679,10 @@
       </c>
     </row>
     <row r="46" ht="10.5">
-      <c r="A46" s="22">
+      <c r="A46" s="20">
         <v>45</v>
       </c>
-      <c r="B46" s="23" t="s">
+      <c r="B46" s="21" t="s">
         <v>586</v>
       </c>
       <c r="C46" t="s">
@@ -12698,14 +12691,14 @@
       <c r="D46" t="s">
         <v>588</v>
       </c>
-      <c r="E46" s="24">
+      <c r="E46" s="22">
         <v>34829</v>
       </c>
       <c r="F46" s="12" t="s">
         <v>180</v>
       </c>
       <c r="G46" s="13">
-        <f>_xlfn.XLOOKUP(M:M,O:O,N:N)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="H46" s="12" t="s">
@@ -12716,10 +12709,10 @@
       </c>
     </row>
     <row r="47" ht="10.5">
-      <c r="A47" s="26">
+      <c r="A47" s="20">
         <v>46</v>
       </c>
-      <c r="B47" s="23" t="s">
+      <c r="B47" s="21" t="s">
         <v>589</v>
       </c>
       <c r="C47" t="s">
@@ -12728,14 +12721,14 @@
       <c r="D47" t="s">
         <v>591</v>
       </c>
-      <c r="E47" s="24">
+      <c r="E47" s="22">
         <v>32534</v>
       </c>
       <c r="F47" s="12" t="s">
         <v>183</v>
       </c>
       <c r="G47" s="13">
-        <f>_xlfn.XLOOKUP(M:M,O:O,N:N)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="H47" s="12" t="s">
@@ -12746,10 +12739,10 @@
       </c>
     </row>
     <row r="48" ht="10.5">
-      <c r="A48" s="26">
+      <c r="A48" s="20">
         <v>47</v>
       </c>
-      <c r="B48" s="23" t="s">
+      <c r="B48" s="21" t="s">
         <v>592</v>
       </c>
       <c r="C48" t="s">
@@ -12758,14 +12751,14 @@
       <c r="D48" t="s">
         <v>594</v>
       </c>
-      <c r="E48" s="24">
+      <c r="E48" s="22">
         <v>31087</v>
       </c>
       <c r="F48" s="12" t="s">
         <v>186</v>
       </c>
       <c r="G48" s="13">
-        <f>_xlfn.XLOOKUP(M:M,O:O,N:N)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="H48" s="12" t="s">
@@ -12776,10 +12769,10 @@
       </c>
     </row>
     <row r="49" ht="10.5">
-      <c r="A49" s="22">
+      <c r="A49" s="20">
         <v>48</v>
       </c>
-      <c r="B49" s="23" t="s">
+      <c r="B49" s="21" t="s">
         <v>595</v>
       </c>
       <c r="C49" t="s">
@@ -12788,14 +12781,14 @@
       <c r="D49" t="s">
         <v>597</v>
       </c>
-      <c r="E49" s="24">
+      <c r="E49" s="22">
         <v>22481</v>
       </c>
       <c r="F49" s="12" t="s">
         <v>189</v>
       </c>
       <c r="G49" s="13">
-        <f>_xlfn.XLOOKUP(M:M,O:O,N:N)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="H49" s="12" t="s">
@@ -12806,10 +12799,10 @@
       </c>
     </row>
     <row r="50" ht="10.5">
-      <c r="A50" s="26">
+      <c r="A50" s="20">
         <v>49</v>
       </c>
-      <c r="B50" s="23" t="s">
+      <c r="B50" s="21" t="s">
         <v>598</v>
       </c>
       <c r="C50" t="s">
@@ -12818,14 +12811,14 @@
       <c r="D50" t="s">
         <v>600</v>
       </c>
-      <c r="E50" s="24">
+      <c r="E50" s="22">
         <v>36231</v>
       </c>
       <c r="F50" s="12" t="s">
         <v>194</v>
       </c>
       <c r="G50" s="13">
-        <f>_xlfn.XLOOKUP(M:M,O:O,N:N)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="H50" s="12" t="s">
@@ -12836,10 +12829,10 @@
       </c>
     </row>
     <row r="51" ht="10.5">
-      <c r="A51" s="26">
+      <c r="A51" s="20">
         <v>50</v>
       </c>
-      <c r="B51" s="23" t="s">
+      <c r="B51" s="21" t="s">
         <v>601</v>
       </c>
       <c r="C51" t="s">
@@ -12848,14 +12841,14 @@
       <c r="D51" t="s">
         <v>602</v>
       </c>
-      <c r="E51" s="24">
+      <c r="E51" s="22">
         <v>36988</v>
       </c>
       <c r="F51" s="12" t="s">
         <v>199</v>
       </c>
       <c r="G51" s="13">
-        <f>_xlfn.XLOOKUP(M:M,O:O,N:N)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="H51" s="12" t="s">
@@ -12866,10 +12859,10 @@
       </c>
     </row>
     <row r="52" ht="10.5">
-      <c r="A52" s="22">
+      <c r="A52" s="20">
         <v>51</v>
       </c>
-      <c r="B52" s="23" t="s">
+      <c r="B52" s="21" t="s">
         <v>603</v>
       </c>
       <c r="C52" t="s">
@@ -12878,14 +12871,14 @@
       <c r="D52" t="s">
         <v>605</v>
       </c>
-      <c r="E52" s="24">
+      <c r="E52" s="22">
         <v>33664</v>
       </c>
       <c r="F52" s="12" t="s">
         <v>204</v>
       </c>
       <c r="G52" s="13">
-        <f>_xlfn.XLOOKUP(M:M,O:O,N:N)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="H52" s="12" t="s">
@@ -12896,10 +12889,10 @@
       </c>
     </row>
     <row r="53" ht="10.5">
-      <c r="A53" s="26">
+      <c r="A53" s="20">
         <v>52</v>
       </c>
-      <c r="B53" s="23" t="s">
+      <c r="B53" s="21" t="s">
         <v>606</v>
       </c>
       <c r="C53" t="s">
@@ -12908,14 +12901,14 @@
       <c r="D53" t="s">
         <v>608</v>
       </c>
-      <c r="E53" s="24">
+      <c r="E53" s="22">
         <v>25011</v>
       </c>
       <c r="F53" s="12" t="s">
         <v>208</v>
       </c>
       <c r="G53" s="13">
-        <f>_xlfn.XLOOKUP(M:M,O:O,N:N)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="H53" s="12" t="s">
@@ -12926,10 +12919,10 @@
       </c>
     </row>
     <row r="54" ht="10.5">
-      <c r="A54" s="26">
+      <c r="A54" s="20">
         <v>53</v>
       </c>
-      <c r="B54" s="23" t="s">
+      <c r="B54" s="21" t="s">
         <v>609</v>
       </c>
       <c r="C54" t="s">
@@ -12938,14 +12931,14 @@
       <c r="D54" t="s">
         <v>611</v>
       </c>
-      <c r="E54" s="24">
+      <c r="E54" s="22">
         <v>27891</v>
       </c>
       <c r="F54" s="12" t="s">
         <v>212</v>
       </c>
       <c r="G54" s="13">
-        <f>_xlfn.XLOOKUP(M:M,O:O,N:N)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="H54" s="12" t="s">
@@ -12956,10 +12949,10 @@
       </c>
     </row>
     <row r="55" ht="10.5">
-      <c r="A55" s="22">
+      <c r="A55" s="20">
         <v>54</v>
       </c>
-      <c r="B55" s="23" t="s">
+      <c r="B55" s="21" t="s">
         <v>612</v>
       </c>
       <c r="C55" t="s">
@@ -12968,14 +12961,14 @@
       <c r="D55" t="s">
         <v>614</v>
       </c>
-      <c r="E55" s="24">
+      <c r="E55" s="22">
         <v>32415</v>
       </c>
       <c r="F55" s="12" t="s">
         <v>216</v>
       </c>
       <c r="G55" s="13">
-        <f>_xlfn.XLOOKUP(M:M,O:O,N:N)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="H55" s="12" t="s">
@@ -12986,10 +12979,10 @@
       </c>
     </row>
     <row r="56" ht="10.5">
-      <c r="A56" s="26">
+      <c r="A56" s="20">
         <v>55</v>
       </c>
-      <c r="B56" s="23" t="s">
+      <c r="B56" s="21" t="s">
         <v>615</v>
       </c>
       <c r="C56" t="s">
@@ -12998,14 +12991,14 @@
       <c r="D56" t="s">
         <v>617</v>
       </c>
-      <c r="E56" s="24">
+      <c r="E56" s="22">
         <v>27351</v>
       </c>
       <c r="F56" s="12" t="s">
         <v>220</v>
       </c>
       <c r="G56" s="13">
-        <f>_xlfn.XLOOKUP(M:M,O:O,N:N)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="H56" s="12" t="s">
@@ -13016,10 +13009,10 @@
       </c>
     </row>
     <row r="57" ht="10.5">
-      <c r="A57" s="26">
+      <c r="A57" s="20">
         <v>56</v>
       </c>
-      <c r="B57" s="23" t="s">
+      <c r="B57" s="21" t="s">
         <v>618</v>
       </c>
       <c r="C57" t="s">
@@ -13028,14 +13021,14 @@
       <c r="D57" t="s">
         <v>494</v>
       </c>
-      <c r="E57" s="24">
+      <c r="E57" s="22">
         <v>31180</v>
       </c>
       <c r="F57" s="12" t="s">
         <v>224</v>
       </c>
       <c r="G57" s="13">
-        <f>_xlfn.XLOOKUP(M:M,O:O,N:N)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="H57" s="12" t="s">
@@ -13046,10 +13039,10 @@
       </c>
     </row>
     <row r="58" ht="10.5">
-      <c r="A58" s="22">
+      <c r="A58" s="20">
         <v>57</v>
       </c>
-      <c r="B58" s="23" t="s">
+      <c r="B58" s="21" t="s">
         <v>620</v>
       </c>
       <c r="C58" t="s">
@@ -13058,14 +13051,14 @@
       <c r="D58" t="s">
         <v>622</v>
       </c>
-      <c r="E58" s="24">
+      <c r="E58" s="22">
         <v>28357</v>
       </c>
       <c r="F58" s="12" t="s">
         <v>228</v>
       </c>
       <c r="G58" s="13">
-        <f>_xlfn.XLOOKUP(M:M,O:O,N:N)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="H58" s="12" t="s">
@@ -13076,10 +13069,10 @@
       </c>
     </row>
     <row r="59" ht="10.5">
-      <c r="A59" s="26">
+      <c r="A59" s="20">
         <v>58</v>
       </c>
-      <c r="B59" s="23" t="s">
+      <c r="B59" s="21" t="s">
         <v>623</v>
       </c>
       <c r="C59" t="s">
@@ -13088,14 +13081,14 @@
       <c r="D59" t="s">
         <v>625</v>
       </c>
-      <c r="E59" s="24">
+      <c r="E59" s="22">
         <v>28587</v>
       </c>
       <c r="F59" s="12" t="s">
         <v>232</v>
       </c>
       <c r="G59" s="13">
-        <f>_xlfn.XLOOKUP(M:M,O:O,N:N)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="H59" s="12" t="s">
@@ -13106,10 +13099,10 @@
       </c>
     </row>
     <row r="60" ht="10.5">
-      <c r="A60" s="26">
+      <c r="A60" s="20">
         <v>59</v>
       </c>
-      <c r="B60" s="23" t="s">
+      <c r="B60" s="21" t="s">
         <v>626</v>
       </c>
       <c r="C60" t="s">
@@ -13118,14 +13111,14 @@
       <c r="D60" t="s">
         <v>627</v>
       </c>
-      <c r="E60" s="24">
+      <c r="E60" s="22">
         <v>22385</v>
       </c>
       <c r="F60" s="12" t="s">
         <v>236</v>
       </c>
       <c r="G60" s="13">
-        <f>_xlfn.XLOOKUP(M:M,O:O,N:N)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="H60" s="12" t="s">
@@ -13136,10 +13129,10 @@
       </c>
     </row>
     <row r="61" ht="10.5">
-      <c r="A61" s="22">
+      <c r="A61" s="20">
         <v>60</v>
       </c>
-      <c r="B61" s="23" t="s">
+      <c r="B61" s="21" t="s">
         <v>628</v>
       </c>
       <c r="C61" t="s">
@@ -13148,14 +13141,14 @@
       <c r="D61" t="s">
         <v>591</v>
       </c>
-      <c r="E61" s="24">
+      <c r="E61" s="22">
         <v>24524</v>
       </c>
       <c r="F61" s="12" t="s">
         <v>242</v>
       </c>
       <c r="G61" s="13">
-        <f>_xlfn.XLOOKUP(M:M,O:O,N:N)</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="H61" s="12" t="s">
@@ -13166,10 +13159,10 @@
       </c>
     </row>
     <row r="62" ht="10.5">
-      <c r="A62" s="26">
+      <c r="A62" s="20">
         <v>61</v>
       </c>
-      <c r="B62" s="23" t="s">
+      <c r="B62" s="21" t="s">
         <v>630</v>
       </c>
       <c r="C62" t="s">
@@ -13178,14 +13171,14 @@
       <c r="D62" t="s">
         <v>632</v>
       </c>
-      <c r="E62" s="24">
+      <c r="E62" s="22">
         <v>23761</v>
       </c>
       <c r="F62" s="12" t="s">
         <v>247</v>
       </c>
       <c r="G62" s="13">
-        <f>_xlfn.XLOOKUP(M:M,O:O,N:N)</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="H62" s="12" t="s">
@@ -13196,10 +13189,10 @@
       </c>
     </row>
     <row r="63" ht="10.5">
-      <c r="A63" s="26">
+      <c r="A63" s="20">
         <v>62</v>
       </c>
-      <c r="B63" s="23" t="s">
+      <c r="B63" s="21" t="s">
         <v>569</v>
       </c>
       <c r="C63" t="s">
@@ -13208,14 +13201,14 @@
       <c r="D63" t="s">
         <v>634</v>
       </c>
-      <c r="E63" s="24">
+      <c r="E63" s="22">
         <v>26360</v>
       </c>
       <c r="F63" s="12" t="s">
         <v>252</v>
       </c>
       <c r="G63" s="13">
-        <f>_xlfn.XLOOKUP(M:M,O:O,N:N)</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="H63" s="12" t="s">
@@ -13226,10 +13219,10 @@
       </c>
     </row>
     <row r="64" ht="10.5">
-      <c r="A64" s="22">
+      <c r="A64" s="20">
         <v>63</v>
       </c>
-      <c r="B64" s="23" t="s">
+      <c r="B64" s="21" t="s">
         <v>635</v>
       </c>
       <c r="C64" t="s">
@@ -13238,14 +13231,14 @@
       <c r="D64" t="s">
         <v>617</v>
       </c>
-      <c r="E64" s="24">
+      <c r="E64" s="22">
         <v>28209</v>
       </c>
       <c r="F64" s="12" t="s">
         <v>256</v>
       </c>
       <c r="G64" s="13">
-        <f>_xlfn.XLOOKUP(M:M,O:O,N:N)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="H64" s="12" t="s">
@@ -13256,10 +13249,10 @@
       </c>
     </row>
     <row r="65" ht="10.5">
-      <c r="A65" s="26">
+      <c r="A65" s="20">
         <v>64</v>
       </c>
-      <c r="B65" s="23" t="s">
+      <c r="B65" s="21" t="s">
         <v>637</v>
       </c>
       <c r="C65" t="s">
@@ -13268,14 +13261,14 @@
       <c r="D65" t="s">
         <v>639</v>
       </c>
-      <c r="E65" s="24">
+      <c r="E65" s="22">
         <v>23874</v>
       </c>
       <c r="F65" s="12" t="s">
         <v>259</v>
       </c>
       <c r="G65" s="13">
-        <f>_xlfn.XLOOKUP(M:M,O:O,N:N)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="H65" s="12" t="s">
@@ -13286,10 +13279,10 @@
       </c>
     </row>
     <row r="66" ht="10.5">
-      <c r="A66" s="26">
+      <c r="A66" s="20">
         <v>65</v>
       </c>
-      <c r="B66" s="23" t="s">
+      <c r="B66" s="21" t="s">
         <v>640</v>
       </c>
       <c r="C66" t="s">
@@ -13298,14 +13291,14 @@
       <c r="D66" t="s">
         <v>642</v>
       </c>
-      <c r="E66" s="24">
+      <c r="E66" s="22">
         <v>29164</v>
       </c>
       <c r="F66" s="12" t="s">
         <v>263</v>
       </c>
       <c r="G66" s="13">
-        <f>_xlfn.XLOOKUP(M:M,O:O,N:N)</f>
+        <f t="shared" ref="G66:G119" si="1">_xlfn.XLOOKUP(M:M,O:O,N:N)</f>
         <v>14</v>
       </c>
       <c r="H66" s="12" t="s">
@@ -13316,10 +13309,10 @@
       </c>
     </row>
     <row r="67" ht="10.5">
-      <c r="A67" s="22">
+      <c r="A67" s="20">
         <v>66</v>
       </c>
-      <c r="B67" s="23" t="s">
+      <c r="B67" s="21" t="s">
         <v>643</v>
       </c>
       <c r="C67" t="s">
@@ -13328,14 +13321,14 @@
       <c r="D67" t="s">
         <v>645</v>
       </c>
-      <c r="E67" s="24">
+      <c r="E67" s="22">
         <v>24613</v>
       </c>
       <c r="F67" s="12" t="s">
         <v>266</v>
       </c>
       <c r="G67" s="13">
-        <f>_xlfn.XLOOKUP(M:M,O:O,N:N)</f>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="H67" s="12" t="s">
@@ -13346,10 +13339,10 @@
       </c>
     </row>
     <row r="68" ht="10.5">
-      <c r="A68" s="26">
+      <c r="A68" s="20">
         <v>67</v>
       </c>
-      <c r="B68" s="23" t="s">
+      <c r="B68" s="21" t="s">
         <v>646</v>
       </c>
       <c r="C68" t="s">
@@ -13358,14 +13351,14 @@
       <c r="D68" t="s">
         <v>634</v>
       </c>
-      <c r="E68" s="24">
+      <c r="E68" s="22">
         <v>30619</v>
       </c>
       <c r="F68" s="12" t="s">
         <v>270</v>
       </c>
       <c r="G68" s="13">
-        <f>_xlfn.XLOOKUP(M:M,O:O,N:N)</f>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="H68" s="12" t="s">
@@ -13376,10 +13369,10 @@
       </c>
     </row>
     <row r="69" ht="10.5">
-      <c r="A69" s="26">
+      <c r="A69" s="20">
         <v>68</v>
       </c>
-      <c r="B69" s="23" t="s">
+      <c r="B69" s="21" t="s">
         <v>640</v>
       </c>
       <c r="C69" t="s">
@@ -13388,14 +13381,14 @@
       <c r="D69" t="s">
         <v>648</v>
       </c>
-      <c r="E69" s="24">
+      <c r="E69" s="22">
         <v>29358</v>
       </c>
       <c r="F69" s="12" t="s">
         <v>275</v>
       </c>
       <c r="G69" s="13">
-        <f>_xlfn.XLOOKUP(M:M,O:O,N:N)</f>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="H69" s="12" t="s">
@@ -13406,10 +13399,10 @@
       </c>
     </row>
     <row r="70" ht="10.5">
-      <c r="A70" s="22">
+      <c r="A70" s="20">
         <v>69</v>
       </c>
-      <c r="B70" s="23" t="s">
+      <c r="B70" s="21" t="s">
         <v>560</v>
       </c>
       <c r="C70" t="s">
@@ -13418,14 +13411,14 @@
       <c r="D70" t="s">
         <v>650</v>
       </c>
-      <c r="E70" s="24">
+      <c r="E70" s="22">
         <v>37349</v>
       </c>
       <c r="F70" s="12" t="s">
         <v>279</v>
       </c>
       <c r="G70" s="13">
-        <f>_xlfn.XLOOKUP(M:M,O:O,N:N)</f>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="H70" s="12" t="s">
@@ -13436,10 +13429,10 @@
       </c>
     </row>
     <row r="71" ht="10.5">
-      <c r="A71" s="26">
+      <c r="A71" s="20">
         <v>70</v>
       </c>
-      <c r="B71" s="23" t="s">
+      <c r="B71" s="21" t="s">
         <v>651</v>
       </c>
       <c r="C71" t="s">
@@ -13448,14 +13441,14 @@
       <c r="D71" t="s">
         <v>653</v>
       </c>
-      <c r="E71" s="24">
+      <c r="E71" s="22">
         <v>23920</v>
       </c>
       <c r="F71" s="12" t="s">
         <v>283</v>
       </c>
       <c r="G71" s="13">
-        <f>_xlfn.XLOOKUP(M:M,O:O,N:N)</f>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="H71" s="12" t="s">
@@ -13466,10 +13459,10 @@
       </c>
     </row>
     <row r="72" ht="10.5">
-      <c r="A72" s="26">
+      <c r="A72" s="20">
         <v>71</v>
       </c>
-      <c r="B72" s="23" t="s">
+      <c r="B72" s="21" t="s">
         <v>654</v>
       </c>
       <c r="C72" t="s">
@@ -13478,14 +13471,14 @@
       <c r="D72" t="s">
         <v>655</v>
       </c>
-      <c r="E72" s="24">
+      <c r="E72" s="22">
         <v>23735</v>
       </c>
       <c r="F72" s="12" t="s">
         <v>288</v>
       </c>
       <c r="G72" s="13">
-        <f>_xlfn.XLOOKUP(M:M,O:O,N:N)</f>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="H72" s="12" t="s">
@@ -13496,10 +13489,10 @@
       </c>
     </row>
     <row r="73" ht="10.5">
-      <c r="A73" s="22">
+      <c r="A73" s="20">
         <v>72</v>
       </c>
-      <c r="B73" s="23" t="s">
+      <c r="B73" s="21" t="s">
         <v>656</v>
       </c>
       <c r="C73" t="s">
@@ -13508,14 +13501,14 @@
       <c r="D73" t="s">
         <v>658</v>
       </c>
-      <c r="E73" s="24">
+      <c r="E73" s="22">
         <v>28343</v>
       </c>
       <c r="F73" s="12" t="s">
         <v>293</v>
       </c>
       <c r="G73" s="13">
-        <f>_xlfn.XLOOKUP(M:M,O:O,N:N)</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="H73" s="12" t="s">
@@ -13526,10 +13519,10 @@
       </c>
     </row>
     <row r="74" ht="10.5">
-      <c r="A74" s="26">
+      <c r="A74" s="20">
         <v>73</v>
       </c>
-      <c r="B74" s="23" t="s">
+      <c r="B74" s="21" t="s">
         <v>630</v>
       </c>
       <c r="C74" t="s">
@@ -13538,14 +13531,14 @@
       <c r="D74" t="s">
         <v>660</v>
       </c>
-      <c r="E74" s="24">
+      <c r="E74" s="22">
         <v>30526</v>
       </c>
       <c r="F74" s="12" t="s">
         <v>298</v>
       </c>
       <c r="G74" s="13">
-        <f>_xlfn.XLOOKUP(M:M,O:O,N:N)</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="H74" s="12" t="s">
@@ -13556,10 +13549,10 @@
       </c>
     </row>
     <row r="75" ht="10.5">
-      <c r="A75" s="26">
+      <c r="A75" s="20">
         <v>74</v>
       </c>
-      <c r="B75" s="23" t="s">
+      <c r="B75" s="21" t="s">
         <v>661</v>
       </c>
       <c r="C75" t="s">
@@ -13568,14 +13561,14 @@
       <c r="D75" t="s">
         <v>663</v>
       </c>
-      <c r="E75" s="24">
+      <c r="E75" s="22">
         <v>32441</v>
       </c>
       <c r="F75" s="12" t="s">
         <v>300</v>
       </c>
       <c r="G75" s="13">
-        <f>_xlfn.XLOOKUP(M:M,O:O,N:N)</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="H75" s="12" t="s">
@@ -13586,10 +13579,10 @@
       </c>
     </row>
     <row r="76" ht="10.5">
-      <c r="A76" s="22">
+      <c r="A76" s="20">
         <v>75</v>
       </c>
-      <c r="B76" s="23" t="s">
+      <c r="B76" s="21" t="s">
         <v>664</v>
       </c>
       <c r="C76" t="s">
@@ -13598,14 +13591,14 @@
       <c r="D76" t="s">
         <v>594</v>
       </c>
-      <c r="E76" s="24">
+      <c r="E76" s="22">
         <v>34165</v>
       </c>
       <c r="F76" s="12" t="s">
         <v>304</v>
       </c>
       <c r="G76" s="13">
-        <f>_xlfn.XLOOKUP(M:M,O:O,N:N)</f>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="H76" s="12" t="s">
@@ -13616,10 +13609,10 @@
       </c>
     </row>
     <row r="77" ht="10.5">
-      <c r="A77" s="26">
+      <c r="A77" s="20">
         <v>76</v>
       </c>
-      <c r="B77" s="23" t="s">
+      <c r="B77" s="21" t="s">
         <v>666</v>
       </c>
       <c r="C77" t="s">
@@ -13628,14 +13621,14 @@
       <c r="D77" t="s">
         <v>515</v>
       </c>
-      <c r="E77" s="24">
+      <c r="E77" s="22">
         <v>32961</v>
       </c>
       <c r="F77" s="12" t="s">
         <v>309</v>
       </c>
       <c r="G77" s="13">
-        <f>_xlfn.XLOOKUP(M:M,O:O,N:N)</f>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="H77" s="12" t="s">
@@ -13646,10 +13639,10 @@
       </c>
     </row>
     <row r="78" ht="10.5">
-      <c r="A78" s="26">
+      <c r="A78" s="20">
         <v>77</v>
       </c>
-      <c r="B78" s="23" t="s">
+      <c r="B78" s="21" t="s">
         <v>630</v>
       </c>
       <c r="C78" t="s">
@@ -13658,14 +13651,14 @@
       <c r="D78" t="s">
         <v>668</v>
       </c>
-      <c r="E78" s="24">
+      <c r="E78" s="22">
         <v>24652</v>
       </c>
       <c r="F78" s="12" t="s">
         <v>312</v>
       </c>
       <c r="G78" s="13">
-        <f>_xlfn.XLOOKUP(M:M,O:O,N:N)</f>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="H78" s="12" t="s">
@@ -13676,10 +13669,10 @@
       </c>
     </row>
     <row r="79" ht="10.5">
-      <c r="A79" s="22">
+      <c r="A79" s="20">
         <v>78</v>
       </c>
-      <c r="B79" s="23" t="s">
+      <c r="B79" s="21" t="s">
         <v>669</v>
       </c>
       <c r="C79" t="s">
@@ -13688,14 +13681,14 @@
       <c r="D79" t="s">
         <v>671</v>
       </c>
-      <c r="E79" s="24">
+      <c r="E79" s="22">
         <v>27498</v>
       </c>
       <c r="F79" s="12" t="s">
         <v>315</v>
       </c>
       <c r="G79" s="13">
-        <f>_xlfn.XLOOKUP(M:M,O:O,N:N)</f>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="H79" s="12" t="s">
@@ -13706,10 +13699,10 @@
       </c>
     </row>
     <row r="80" ht="10.5">
-      <c r="A80" s="26">
+      <c r="A80" s="20">
         <v>79</v>
       </c>
-      <c r="B80" s="23" t="s">
+      <c r="B80" s="21" t="s">
         <v>672</v>
       </c>
       <c r="C80" t="s">
@@ -13718,14 +13711,14 @@
       <c r="D80" t="s">
         <v>673</v>
       </c>
-      <c r="E80" s="24">
+      <c r="E80" s="22">
         <v>22357</v>
       </c>
       <c r="F80" s="12" t="s">
         <v>318</v>
       </c>
       <c r="G80" s="13">
-        <f>_xlfn.XLOOKUP(M:M,O:O,N:N)</f>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="H80" s="12" t="s">
@@ -13736,10 +13729,10 @@
       </c>
     </row>
     <row r="81" ht="10.5">
-      <c r="A81" s="26">
+      <c r="A81" s="20">
         <v>80</v>
       </c>
-      <c r="B81" s="23" t="s">
+      <c r="B81" s="21" t="s">
         <v>674</v>
       </c>
       <c r="C81" t="s">
@@ -13748,14 +13741,14 @@
       <c r="D81" t="s">
         <v>676</v>
       </c>
-      <c r="E81" s="24">
+      <c r="E81" s="22">
         <v>25491</v>
       </c>
       <c r="F81" s="12" t="s">
         <v>321</v>
       </c>
       <c r="G81" s="13">
-        <f>_xlfn.XLOOKUP(M:M,O:O,N:N)</f>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="H81" s="12" t="s">
@@ -13766,10 +13759,10 @@
       </c>
     </row>
     <row r="82" ht="10.5">
-      <c r="A82" s="22">
+      <c r="A82" s="20">
         <v>81</v>
       </c>
-      <c r="B82" s="23" t="s">
+      <c r="B82" s="21" t="s">
         <v>677</v>
       </c>
       <c r="C82" t="s">
@@ -13778,14 +13771,14 @@
       <c r="D82" t="s">
         <v>660</v>
       </c>
-      <c r="E82" s="24">
+      <c r="E82" s="22">
         <v>24160</v>
       </c>
       <c r="F82" s="12" t="s">
         <v>325</v>
       </c>
       <c r="G82" s="13">
-        <f>_xlfn.XLOOKUP(M:M,O:O,N:N)</f>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="H82" s="12" t="s">
@@ -13796,10 +13789,10 @@
       </c>
     </row>
     <row r="83" ht="10.5">
-      <c r="A83" s="26">
+      <c r="A83" s="20">
         <v>82</v>
       </c>
-      <c r="B83" s="23" t="s">
+      <c r="B83" s="21" t="s">
         <v>679</v>
       </c>
       <c r="C83" t="s">
@@ -13808,14 +13801,14 @@
       <c r="D83" t="s">
         <v>681</v>
       </c>
-      <c r="E83" s="24">
+      <c r="E83" s="22">
         <v>28946</v>
       </c>
       <c r="F83" s="12" t="s">
         <v>329</v>
       </c>
       <c r="G83" s="13">
-        <f>_xlfn.XLOOKUP(M:M,O:O,N:N)</f>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="H83" s="12" t="s">
@@ -13826,10 +13819,10 @@
       </c>
     </row>
     <row r="84" ht="10.5">
-      <c r="A84" s="26">
+      <c r="A84" s="20">
         <v>83</v>
       </c>
-      <c r="B84" s="23" t="s">
+      <c r="B84" s="21" t="s">
         <v>682</v>
       </c>
       <c r="C84" t="s">
@@ -13838,14 +13831,14 @@
       <c r="D84" t="s">
         <v>683</v>
       </c>
-      <c r="E84" s="24">
+      <c r="E84" s="22">
         <v>30500</v>
       </c>
       <c r="F84" s="12" t="s">
         <v>332</v>
       </c>
       <c r="G84" s="13">
-        <f>_xlfn.XLOOKUP(M:M,O:O,N:N)</f>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="H84" s="12" t="s">
@@ -13856,10 +13849,10 @@
       </c>
     </row>
     <row r="85" ht="10.5">
-      <c r="A85" s="22">
+      <c r="A85" s="20">
         <v>84</v>
       </c>
-      <c r="B85" s="23" t="s">
+      <c r="B85" s="21" t="s">
         <v>684</v>
       </c>
       <c r="C85" t="s">
@@ -13868,14 +13861,14 @@
       <c r="D85" t="s">
         <v>685</v>
       </c>
-      <c r="E85" s="24">
+      <c r="E85" s="22">
         <v>26081</v>
       </c>
       <c r="F85" s="12" t="s">
         <v>335</v>
       </c>
       <c r="G85" s="13">
-        <f>_xlfn.XLOOKUP(M:M,O:O,N:N)</f>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="H85" s="12" t="s">
@@ -13886,10 +13879,10 @@
       </c>
     </row>
     <row r="86" ht="10.5">
-      <c r="A86" s="26">
+      <c r="A86" s="20">
         <v>85</v>
       </c>
-      <c r="B86" s="23" t="s">
+      <c r="B86" s="21" t="s">
         <v>686</v>
       </c>
       <c r="C86" t="s">
@@ -13898,14 +13891,14 @@
       <c r="D86" t="s">
         <v>688</v>
       </c>
-      <c r="E86" s="24">
+      <c r="E86" s="22">
         <v>31440</v>
       </c>
       <c r="F86" s="12" t="s">
         <v>338</v>
       </c>
       <c r="G86" s="13">
-        <f>_xlfn.XLOOKUP(M:M,O:O,N:N)</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="H86" s="12" t="s">
@@ -13916,10 +13909,10 @@
       </c>
     </row>
     <row r="87" ht="10.5">
-      <c r="A87" s="26">
+      <c r="A87" s="20">
         <v>86</v>
       </c>
-      <c r="B87" s="23" t="s">
+      <c r="B87" s="21" t="s">
         <v>669</v>
       </c>
       <c r="C87" t="s">
@@ -13928,14 +13921,14 @@
       <c r="D87" t="s">
         <v>690</v>
       </c>
-      <c r="E87" s="24">
+      <c r="E87" s="22">
         <v>23827</v>
       </c>
       <c r="F87" s="12" t="s">
         <v>341</v>
       </c>
       <c r="G87" s="13">
-        <f>_xlfn.XLOOKUP(M:M,O:O,N:N)</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="H87" s="12" t="s">
@@ -13946,10 +13939,10 @@
       </c>
     </row>
     <row r="88" ht="10.5">
-      <c r="A88" s="22">
+      <c r="A88" s="20">
         <v>87</v>
       </c>
-      <c r="B88" s="23" t="s">
+      <c r="B88" s="21" t="s">
         <v>691</v>
       </c>
       <c r="C88" t="s">
@@ -13958,14 +13951,14 @@
       <c r="D88" t="s">
         <v>562</v>
       </c>
-      <c r="E88" s="24">
+      <c r="E88" s="22">
         <v>22279</v>
       </c>
       <c r="F88" s="12" t="s">
         <v>344</v>
       </c>
       <c r="G88" s="13">
-        <f>_xlfn.XLOOKUP(M:M,O:O,N:N)</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="H88" s="12" t="s">
@@ -13976,10 +13969,10 @@
       </c>
     </row>
     <row r="89" ht="10.5">
-      <c r="A89" s="26">
+      <c r="A89" s="20">
         <v>88</v>
       </c>
-      <c r="B89" s="23" t="s">
+      <c r="B89" s="21" t="s">
         <v>693</v>
       </c>
       <c r="C89" t="s">
@@ -13988,14 +13981,14 @@
       <c r="D89" t="s">
         <v>695</v>
       </c>
-      <c r="E89" s="24">
+      <c r="E89" s="22">
         <v>22896</v>
       </c>
       <c r="F89" s="12" t="s">
         <v>346</v>
       </c>
       <c r="G89" s="13">
-        <f>_xlfn.XLOOKUP(M:M,O:O,N:N)</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="H89" s="12" t="s">
@@ -14006,10 +13999,10 @@
       </c>
     </row>
     <row r="90" ht="10.5">
-      <c r="A90" s="26">
+      <c r="A90" s="20">
         <v>89</v>
       </c>
-      <c r="B90" s="23" t="s">
+      <c r="B90" s="21" t="s">
         <v>696</v>
       </c>
       <c r="C90" t="s">
@@ -14018,14 +14011,14 @@
       <c r="D90" t="s">
         <v>698</v>
       </c>
-      <c r="E90" s="24">
+      <c r="E90" s="22">
         <v>27320</v>
       </c>
       <c r="F90" s="12" t="s">
         <v>349</v>
       </c>
       <c r="G90" s="13">
-        <f>_xlfn.XLOOKUP(M:M,O:O,N:N)</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="H90" s="12" t="s">
@@ -14036,10 +14029,10 @@
       </c>
     </row>
     <row r="91" ht="10.5">
-      <c r="A91" s="22">
+      <c r="A91" s="20">
         <v>90</v>
       </c>
-      <c r="B91" s="23" t="s">
+      <c r="B91" s="21" t="s">
         <v>699</v>
       </c>
       <c r="C91" t="s">
@@ -14048,14 +14041,14 @@
       <c r="D91" t="s">
         <v>645</v>
       </c>
-      <c r="E91" s="24">
+      <c r="E91" s="22">
         <v>30313</v>
       </c>
       <c r="F91" s="12" t="s">
         <v>354</v>
       </c>
       <c r="G91" s="13">
-        <f>_xlfn.XLOOKUP(M:M,O:O,N:N)</f>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="H91" s="12" t="s">
@@ -14066,10 +14059,10 @@
       </c>
     </row>
     <row r="92" ht="10.5">
-      <c r="A92" s="26">
+      <c r="A92" s="20">
         <v>91</v>
       </c>
-      <c r="B92" s="23" t="s">
+      <c r="B92" s="21" t="s">
         <v>701</v>
       </c>
       <c r="C92" t="s">
@@ -14078,14 +14071,14 @@
       <c r="D92" t="s">
         <v>597</v>
       </c>
-      <c r="E92" s="24">
+      <c r="E92" s="22">
         <v>28283</v>
       </c>
       <c r="F92" s="12" t="s">
         <v>357</v>
       </c>
       <c r="G92" s="13">
-        <f>_xlfn.XLOOKUP(M:M,O:O,N:N)</f>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="H92" s="12" t="s">
@@ -14096,10 +14089,10 @@
       </c>
     </row>
     <row r="93" ht="10.5">
-      <c r="A93" s="26">
+      <c r="A93" s="20">
         <v>92</v>
       </c>
-      <c r="B93" s="23" t="s">
+      <c r="B93" s="21" t="s">
         <v>677</v>
       </c>
       <c r="C93" t="s">
@@ -14108,14 +14101,14 @@
       <c r="D93" t="s">
         <v>648</v>
       </c>
-      <c r="E93" s="24">
+      <c r="E93" s="22">
         <v>28852</v>
       </c>
       <c r="F93" s="12" t="s">
         <v>360</v>
       </c>
       <c r="G93" s="13">
-        <f>_xlfn.XLOOKUP(M:M,O:O,N:N)</f>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="H93" s="12" t="s">
@@ -14126,10 +14119,10 @@
       </c>
     </row>
     <row r="94" ht="10.5">
-      <c r="A94" s="22">
+      <c r="A94" s="20">
         <v>93</v>
       </c>
-      <c r="B94" s="23" t="s">
+      <c r="B94" s="21" t="s">
         <v>704</v>
       </c>
       <c r="C94" t="s">
@@ -14138,14 +14131,14 @@
       <c r="D94" t="s">
         <v>479</v>
       </c>
-      <c r="E94" s="24">
+      <c r="E94" s="22">
         <v>31825</v>
       </c>
       <c r="F94" s="12" t="s">
         <v>364</v>
       </c>
       <c r="G94" s="13">
-        <f>_xlfn.XLOOKUP(M:M,O:O,N:N)</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="H94" s="12" t="s">
@@ -14156,10 +14149,10 @@
       </c>
     </row>
     <row r="95" ht="10.5">
-      <c r="A95" s="26">
+      <c r="A95" s="20">
         <v>94</v>
       </c>
-      <c r="B95" s="23" t="s">
+      <c r="B95" s="21" t="s">
         <v>706</v>
       </c>
       <c r="C95" t="s">
@@ -14168,14 +14161,14 @@
       <c r="D95" t="s">
         <v>708</v>
       </c>
-      <c r="E95" s="24">
+      <c r="E95" s="22">
         <v>29199</v>
       </c>
       <c r="F95" s="12" t="s">
         <v>366</v>
       </c>
       <c r="G95" s="13">
-        <f>_xlfn.XLOOKUP(M:M,O:O,N:N)</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="H95" s="12" t="s">
@@ -14186,10 +14179,10 @@
       </c>
     </row>
     <row r="96" ht="10.5">
-      <c r="A96" s="26">
+      <c r="A96" s="20">
         <v>95</v>
       </c>
-      <c r="B96" s="23" t="s">
+      <c r="B96" s="21" t="s">
         <v>709</v>
       </c>
       <c r="C96" t="s">
@@ -14198,14 +14191,14 @@
       <c r="D96" t="s">
         <v>710</v>
       </c>
-      <c r="E96" s="24">
+      <c r="E96" s="22">
         <v>34879</v>
       </c>
       <c r="F96" s="12" t="s">
         <v>370</v>
       </c>
       <c r="G96" s="13">
-        <f>_xlfn.XLOOKUP(M:M,O:O,N:N)</f>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="H96" s="12" t="s">
@@ -14216,10 +14209,10 @@
       </c>
     </row>
     <row r="97" ht="10.5">
-      <c r="A97" s="22">
+      <c r="A97" s="20">
         <v>96</v>
       </c>
-      <c r="B97" s="23" t="s">
+      <c r="B97" s="21" t="s">
         <v>711</v>
       </c>
       <c r="C97" t="s">
@@ -14228,14 +14221,14 @@
       <c r="D97" t="s">
         <v>713</v>
       </c>
-      <c r="E97" s="24">
+      <c r="E97" s="22">
         <v>32536</v>
       </c>
       <c r="F97" s="12" t="s">
         <v>373</v>
       </c>
       <c r="G97" s="13">
-        <f>_xlfn.XLOOKUP(M:M,O:O,N:N)</f>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="H97" s="12" t="s">
@@ -14246,10 +14239,10 @@
       </c>
     </row>
     <row r="98" ht="10.5">
-      <c r="A98" s="26">
+      <c r="A98" s="20">
         <v>97</v>
       </c>
-      <c r="B98" s="23" t="s">
+      <c r="B98" s="21" t="s">
         <v>714</v>
       </c>
       <c r="C98" t="s">
@@ -14258,14 +14251,14 @@
       <c r="D98" t="s">
         <v>716</v>
       </c>
-      <c r="E98" s="24">
+      <c r="E98" s="22">
         <v>36475</v>
       </c>
       <c r="F98" s="12" t="s">
         <v>376</v>
       </c>
       <c r="G98" s="13">
-        <f>_xlfn.XLOOKUP(M:M,O:O,N:N)</f>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="H98" s="12" t="s">
@@ -14276,10 +14269,10 @@
       </c>
     </row>
     <row r="99" ht="10.5">
-      <c r="A99" s="26">
+      <c r="A99" s="20">
         <v>98</v>
       </c>
-      <c r="B99" s="23" t="s">
+      <c r="B99" s="21" t="s">
         <v>693</v>
       </c>
       <c r="C99" t="s">
@@ -14288,14 +14281,14 @@
       <c r="D99" t="s">
         <v>718</v>
       </c>
-      <c r="E99" s="24">
+      <c r="E99" s="22">
         <v>24721</v>
       </c>
       <c r="F99" s="12" t="s">
         <v>380</v>
       </c>
       <c r="G99" s="13">
-        <f>_xlfn.XLOOKUP(M:M,O:O,N:N)</f>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="H99" s="12" t="s">
@@ -14306,10 +14299,10 @@
       </c>
     </row>
     <row r="100" ht="10.5">
-      <c r="A100" s="22">
+      <c r="A100" s="20">
         <v>99</v>
       </c>
-      <c r="B100" s="23" t="s">
+      <c r="B100" s="21" t="s">
         <v>719</v>
       </c>
       <c r="C100" t="s">
@@ -14318,14 +14311,14 @@
       <c r="D100" t="s">
         <v>721</v>
       </c>
-      <c r="E100" s="24">
+      <c r="E100" s="22">
         <v>25505</v>
       </c>
       <c r="F100" s="12" t="s">
         <v>386</v>
       </c>
       <c r="G100" s="13">
-        <f>_xlfn.XLOOKUP(M:M,O:O,N:N)</f>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="H100" s="12" t="s">
@@ -14336,10 +14329,10 @@
       </c>
     </row>
     <row r="101" ht="10.5">
-      <c r="A101" s="26">
+      <c r="A101" s="20">
         <v>100</v>
       </c>
-      <c r="B101" s="23" t="s">
+      <c r="B101" s="21" t="s">
         <v>722</v>
       </c>
       <c r="C101" t="s">
@@ -14348,14 +14341,14 @@
       <c r="D101" t="s">
         <v>724</v>
       </c>
-      <c r="E101" s="24">
+      <c r="E101" s="22">
         <v>35578</v>
       </c>
       <c r="F101" s="12" t="s">
         <v>388</v>
       </c>
       <c r="G101" s="13">
-        <f>_xlfn.XLOOKUP(M:M,O:O,N:N)</f>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="H101" s="12" t="s">
@@ -14366,10 +14359,10 @@
       </c>
     </row>
     <row r="102" ht="10.5">
-      <c r="A102" s="26">
+      <c r="A102" s="20">
         <v>101</v>
       </c>
-      <c r="B102" s="23" t="s">
+      <c r="B102" s="21" t="s">
         <v>725</v>
       </c>
       <c r="C102" t="s">
@@ -14378,14 +14371,14 @@
       <c r="D102" t="s">
         <v>681</v>
       </c>
-      <c r="E102" s="24">
+      <c r="E102" s="22">
         <v>22106</v>
       </c>
       <c r="F102" s="12" t="s">
         <v>391</v>
       </c>
       <c r="G102" s="13">
-        <f>_xlfn.XLOOKUP(M:M,O:O,N:N)</f>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="H102" s="12" t="s">
@@ -14396,10 +14389,10 @@
       </c>
     </row>
     <row r="103" ht="10.5">
-      <c r="A103" s="22">
+      <c r="A103" s="20">
         <v>102</v>
       </c>
-      <c r="B103" s="23" t="s">
+      <c r="B103" s="21" t="s">
         <v>727</v>
       </c>
       <c r="C103" t="s">
@@ -14408,14 +14401,14 @@
       <c r="D103" t="s">
         <v>688</v>
       </c>
-      <c r="E103" s="24">
+      <c r="E103" s="22">
         <v>25555</v>
       </c>
       <c r="F103" s="12" t="s">
         <v>394</v>
       </c>
       <c r="G103" s="13">
-        <f>_xlfn.XLOOKUP(M:M,O:O,N:N)</f>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="H103" s="12" t="s">
@@ -14426,10 +14419,10 @@
       </c>
     </row>
     <row r="104" ht="10.5">
-      <c r="A104" s="26">
+      <c r="A104" s="20">
         <v>103</v>
       </c>
-      <c r="B104" s="23" t="s">
+      <c r="B104" s="21" t="s">
         <v>729</v>
       </c>
       <c r="C104" t="s">
@@ -14438,14 +14431,14 @@
       <c r="D104" t="s">
         <v>645</v>
       </c>
-      <c r="E104" s="24">
+      <c r="E104" s="22">
         <v>33728</v>
       </c>
       <c r="F104" s="12" t="s">
         <v>398</v>
       </c>
       <c r="G104" s="13">
-        <f>_xlfn.XLOOKUP(M:M,O:O,N:N)</f>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="H104" s="12" t="s">
@@ -14456,10 +14449,10 @@
       </c>
     </row>
     <row r="105" ht="10.5">
-      <c r="A105" s="26">
+      <c r="A105" s="20">
         <v>104</v>
       </c>
-      <c r="B105" s="23" t="s">
+      <c r="B105" s="21" t="s">
         <v>730</v>
       </c>
       <c r="C105" t="s">
@@ -14468,14 +14461,14 @@
       <c r="D105" t="s">
         <v>732</v>
       </c>
-      <c r="E105" s="24">
+      <c r="E105" s="22">
         <v>30469</v>
       </c>
       <c r="F105" s="12" t="s">
         <v>402</v>
       </c>
       <c r="G105" s="13">
-        <f>_xlfn.XLOOKUP(M:M,O:O,N:N)</f>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="H105" s="12" t="s">
@@ -14486,10 +14479,10 @@
       </c>
     </row>
     <row r="106" ht="10.5">
-      <c r="A106" s="22">
+      <c r="A106" s="20">
         <v>105</v>
       </c>
-      <c r="B106" s="23" t="s">
+      <c r="B106" s="21" t="s">
         <v>563</v>
       </c>
       <c r="C106" t="s">
@@ -14498,14 +14491,14 @@
       <c r="D106" t="s">
         <v>734</v>
       </c>
-      <c r="E106" s="24">
+      <c r="E106" s="22">
         <v>22946</v>
       </c>
       <c r="F106" s="12" t="s">
         <v>406</v>
       </c>
       <c r="G106" s="13">
-        <f>_xlfn.XLOOKUP(M:M,O:O,N:N)</f>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="H106" s="12" t="s">
@@ -14516,10 +14509,10 @@
       </c>
     </row>
     <row r="107" ht="10.5">
-      <c r="A107" s="26">
+      <c r="A107" s="20">
         <v>106</v>
       </c>
-      <c r="B107" s="23" t="s">
+      <c r="B107" s="21" t="s">
         <v>735</v>
       </c>
       <c r="C107" t="s">
@@ -14528,14 +14521,14 @@
       <c r="D107" t="s">
         <v>737</v>
       </c>
-      <c r="E107" s="24">
+      <c r="E107" s="22">
         <v>27119</v>
       </c>
       <c r="F107" s="12" t="s">
         <v>410</v>
       </c>
       <c r="G107" s="13">
-        <f>_xlfn.XLOOKUP(M:M,O:O,N:N)</f>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="H107" s="12" t="s">
@@ -14546,10 +14539,10 @@
       </c>
     </row>
     <row r="108" ht="10.5">
-      <c r="A108" s="26">
+      <c r="A108" s="20">
         <v>107</v>
       </c>
-      <c r="B108" s="23" t="s">
+      <c r="B108" s="21" t="s">
         <v>738</v>
       </c>
       <c r="C108" t="s">
@@ -14558,14 +14551,14 @@
       <c r="D108" t="s">
         <v>740</v>
       </c>
-      <c r="E108" s="24">
+      <c r="E108" s="22">
         <v>24551</v>
       </c>
       <c r="F108" s="12" t="s">
         <v>412</v>
       </c>
       <c r="G108" s="13">
-        <f>_xlfn.XLOOKUP(M:M,O:O,N:N)</f>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="H108" s="12" t="s">
@@ -14576,10 +14569,10 @@
       </c>
     </row>
     <row r="109" ht="10.5">
-      <c r="A109" s="22">
+      <c r="A109" s="20">
         <v>108</v>
       </c>
-      <c r="B109" s="23" t="s">
+      <c r="B109" s="21" t="s">
         <v>480</v>
       </c>
       <c r="C109" t="s">
@@ -14588,14 +14581,14 @@
       <c r="D109" t="s">
         <v>476</v>
       </c>
-      <c r="E109" s="24">
+      <c r="E109" s="22">
         <v>26492</v>
       </c>
       <c r="F109" s="12" t="s">
         <v>418</v>
       </c>
       <c r="G109" s="13">
-        <f>_xlfn.XLOOKUP(M:M,O:O,N:N)</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="H109" s="12" t="s">
@@ -14606,10 +14599,10 @@
       </c>
     </row>
     <row r="110" ht="10.5">
-      <c r="A110" s="26">
+      <c r="A110" s="20">
         <v>109</v>
       </c>
-      <c r="B110" s="23" t="s">
+      <c r="B110" s="21" t="s">
         <v>704</v>
       </c>
       <c r="C110" t="s">
@@ -14618,14 +14611,14 @@
       <c r="D110" t="s">
         <v>574</v>
       </c>
-      <c r="E110" s="24">
+      <c r="E110" s="22">
         <v>23839</v>
       </c>
       <c r="F110" s="12" t="s">
         <v>421</v>
       </c>
       <c r="G110" s="13">
-        <f>_xlfn.XLOOKUP(M:M,O:O,N:N)</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="H110" s="12" t="s">
@@ -14636,10 +14629,10 @@
       </c>
     </row>
     <row r="111" ht="10.5">
-      <c r="A111" s="26">
+      <c r="A111" s="20">
         <v>110</v>
       </c>
-      <c r="B111" s="23" t="s">
+      <c r="B111" s="21" t="s">
         <v>743</v>
       </c>
       <c r="C111" t="s">
@@ -14648,14 +14641,14 @@
       <c r="D111" t="s">
         <v>476</v>
       </c>
-      <c r="E111" s="24">
+      <c r="E111" s="22">
         <v>32205</v>
       </c>
       <c r="F111" s="12" t="s">
         <v>423</v>
       </c>
       <c r="G111" s="13">
-        <f>_xlfn.XLOOKUP(M:M,O:O,N:N)</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="H111" s="12" t="s">
@@ -14666,10 +14659,10 @@
       </c>
     </row>
     <row r="112" ht="10.5">
-      <c r="A112" s="22">
+      <c r="A112" s="20">
         <v>111</v>
       </c>
-      <c r="B112" s="23" t="s">
+      <c r="B112" s="21" t="s">
         <v>727</v>
       </c>
       <c r="C112" t="s">
@@ -14678,14 +14671,14 @@
       <c r="D112" t="s">
         <v>653</v>
       </c>
-      <c r="E112" s="24">
+      <c r="E112" s="22">
         <v>25344</v>
       </c>
       <c r="F112" s="12" t="s">
         <v>426</v>
       </c>
       <c r="G112" s="13">
-        <f>_xlfn.XLOOKUP(M:M,O:O,N:N)</f>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="H112" s="12" t="s">
@@ -14696,10 +14689,10 @@
       </c>
     </row>
     <row r="113" ht="10.5">
-      <c r="A113" s="26">
+      <c r="A113" s="20">
         <v>112</v>
       </c>
-      <c r="B113" s="23" t="s">
+      <c r="B113" s="21" t="s">
         <v>672</v>
       </c>
       <c r="C113" t="s">
@@ -14708,14 +14701,14 @@
       <c r="D113" t="s">
         <v>660</v>
       </c>
-      <c r="E113" s="24">
+      <c r="E113" s="22">
         <v>24872</v>
       </c>
       <c r="F113" s="12" t="s">
         <v>430</v>
       </c>
       <c r="G113" s="13">
-        <f>_xlfn.XLOOKUP(M:M,O:O,N:N)</f>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="H113" s="12" t="s">
@@ -14726,10 +14719,10 @@
       </c>
     </row>
     <row r="114" ht="10.5">
-      <c r="A114" s="26">
+      <c r="A114" s="20">
         <v>113</v>
       </c>
-      <c r="B114" s="23" t="s">
+      <c r="B114" s="21" t="s">
         <v>609</v>
       </c>
       <c r="C114" t="s">
@@ -14738,14 +14731,14 @@
       <c r="D114" t="s">
         <v>597</v>
       </c>
-      <c r="E114" s="24">
+      <c r="E114" s="22">
         <v>30554</v>
       </c>
       <c r="F114" s="12" t="s">
         <v>432</v>
       </c>
       <c r="G114" s="13">
-        <f>_xlfn.XLOOKUP(M:M,O:O,N:N)</f>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="H114" s="12" t="s">
@@ -14756,10 +14749,10 @@
       </c>
     </row>
     <row r="115" ht="10.5">
-      <c r="A115" s="22">
+      <c r="A115" s="20">
         <v>114</v>
       </c>
-      <c r="B115" s="23" t="s">
+      <c r="B115" s="21" t="s">
         <v>747</v>
       </c>
       <c r="C115" t="s">
@@ -14768,14 +14761,14 @@
       <c r="D115" t="s">
         <v>749</v>
       </c>
-      <c r="E115" s="24">
+      <c r="E115" s="22">
         <v>37588</v>
       </c>
       <c r="F115" s="12" t="s">
         <v>434</v>
       </c>
       <c r="G115" s="13">
-        <f>_xlfn.XLOOKUP(M:M,O:O,N:N)</f>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="H115" s="12" t="s">
@@ -14786,10 +14779,10 @@
       </c>
     </row>
     <row r="116" ht="10.5">
-      <c r="A116" s="26">
+      <c r="A116" s="20">
         <v>115</v>
       </c>
-      <c r="B116" s="23" t="s">
+      <c r="B116" s="21" t="s">
         <v>750</v>
       </c>
       <c r="C116" t="s">
@@ -14798,14 +14791,14 @@
       <c r="D116" t="s">
         <v>591</v>
       </c>
-      <c r="E116" s="24">
+      <c r="E116" s="22">
         <v>29368</v>
       </c>
       <c r="F116" s="12" t="s">
         <v>438</v>
       </c>
       <c r="G116" s="13">
-        <f>_xlfn.XLOOKUP(M:M,O:O,N:N)</f>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="H116" s="12" t="s">
@@ -14816,10 +14809,10 @@
       </c>
     </row>
     <row r="117" ht="10.5">
-      <c r="A117" s="26">
+      <c r="A117" s="20">
         <v>116</v>
       </c>
-      <c r="B117" s="23" t="s">
+      <c r="B117" s="21" t="s">
         <v>513</v>
       </c>
       <c r="C117" t="s">
@@ -14828,14 +14821,14 @@
       <c r="D117" t="s">
         <v>753</v>
       </c>
-      <c r="E117" s="24">
+      <c r="E117" s="22">
         <v>31276</v>
       </c>
       <c r="F117" s="12" t="s">
         <v>441</v>
       </c>
       <c r="G117" s="13">
-        <f>_xlfn.XLOOKUP(M:M,O:O,N:N)</f>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="H117" s="12" t="s">
@@ -14846,10 +14839,10 @@
       </c>
     </row>
     <row r="118" ht="10.5">
-      <c r="A118" s="22">
+      <c r="A118" s="20">
         <v>117</v>
       </c>
-      <c r="B118" s="23" t="s">
+      <c r="B118" s="21" t="s">
         <v>754</v>
       </c>
       <c r="C118" t="s">
@@ -14858,14 +14851,14 @@
       <c r="D118" t="s">
         <v>522</v>
       </c>
-      <c r="E118" s="24">
+      <c r="E118" s="22">
         <v>35917</v>
       </c>
       <c r="F118" s="12" t="s">
         <v>446</v>
       </c>
       <c r="G118" s="13">
-        <f>_xlfn.XLOOKUP(M:M,O:O,N:N)</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="H118" s="12" t="s">
@@ -14876,10 +14869,10 @@
       </c>
     </row>
     <row r="119" ht="10.5">
-      <c r="A119" s="26">
+      <c r="A119" s="20">
         <v>118</v>
       </c>
-      <c r="B119" s="23" t="s">
+      <c r="B119" s="21" t="s">
         <v>691</v>
       </c>
       <c r="C119" t="s">
@@ -14888,14 +14881,14 @@
       <c r="D119" t="s">
         <v>756</v>
       </c>
-      <c r="E119" s="24">
+      <c r="E119" s="22">
         <v>27407</v>
       </c>
       <c r="F119" s="12" t="s">
         <v>449</v>
       </c>
       <c r="G119" s="13">
-        <f>_xlfn.XLOOKUP(M:M,O:O,N:N)</f>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="H119" s="12" t="s">
@@ -14906,7 +14899,7 @@
       </c>
     </row>
     <row r="120" ht="10.5">
-      <c r="E120" s="24"/>
+      <c r="E120" s="22"/>
       <c r="F120" s="12"/>
       <c r="G120" s="13"/>
       <c r="H120" s="12"/>
@@ -14994,7 +14987,7 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="23" t="s">
         <v>16</v>
       </c>
     </row>
@@ -15002,7 +14995,7 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="25">
+      <c r="B3" s="23">
         <v>482</v>
       </c>
     </row>
@@ -15010,7 +15003,7 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="25">
+      <c r="B4" s="23">
         <v>479</v>
       </c>
     </row>
@@ -15018,7 +15011,7 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="25">
+      <c r="B5" s="23">
         <v>483</v>
       </c>
     </row>
@@ -15026,7 +15019,7 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="25">
+      <c r="B6" s="23">
         <v>525</v>
       </c>
     </row>
@@ -15034,7 +15027,7 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="25">
+      <c r="B7" s="23">
         <v>489</v>
       </c>
     </row>
@@ -15042,7 +15035,7 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="25">
+      <c r="B8" s="23">
         <v>527</v>
       </c>
     </row>
@@ -15050,7 +15043,7 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="25">
+      <c r="B9" s="23">
         <v>477</v>
       </c>
     </row>
@@ -15058,7 +15051,7 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="25">
+      <c r="B10" s="23">
         <v>404</v>
       </c>
     </row>
@@ -15066,7 +15059,7 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="25">
+      <c r="B11" s="23">
         <v>415</v>
       </c>
     </row>
@@ -15074,7 +15067,7 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="23" t="s">
         <v>195</v>
       </c>
     </row>
@@ -15082,7 +15075,7 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="23" t="s">
         <v>200</v>
       </c>
     </row>
@@ -15090,7 +15083,7 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="25">
+      <c r="B14" s="23">
         <v>406</v>
       </c>
     </row>
@@ -15098,7 +15091,7 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="23" t="s">
         <v>248</v>
       </c>
     </row>
@@ -15106,7 +15099,7 @@
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="23" t="s">
         <v>294</v>
       </c>
     </row>
@@ -15114,7 +15107,7 @@
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="23" t="s">
         <v>305</v>
       </c>
     </row>
@@ -15122,7 +15115,7 @@
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="25">
+      <c r="B18" s="23">
         <v>411</v>
       </c>
     </row>
@@ -15130,7 +15123,7 @@
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="25">
+      <c r="B19" s="23">
         <v>401</v>
       </c>
     </row>
@@ -15138,7 +15131,7 @@
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="25">
+      <c r="B20" s="23">
         <v>487</v>
       </c>
     </row>
@@ -15146,7 +15139,7 @@
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="25">
+      <c r="B21" s="23">
         <v>421</v>
       </c>
     </row>
@@ -15154,7 +15147,7 @@
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="25">
+      <c r="B22" s="23">
         <v>488</v>
       </c>
     </row>
@@ -15162,7 +15155,7 @@
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="25">
+      <c r="B23" s="23">
         <v>524</v>
       </c>
     </row>
@@ -15170,7 +15163,7 @@
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="25">
+      <c r="B24" s="23">
         <v>523</v>
       </c>
     </row>
@@ -15288,8 +15281,9 @@
   <sheetFormatPr defaultRowHeight="10.5"/>
   <cols>
     <col bestFit="1" min="1" max="1" width="69.421875"/>
-    <col bestFit="1" min="2" max="2" width="12.11328125"/>
+    <col customWidth="1" min="2" max="2" width="11.66015625"/>
     <col customWidth="1" min="3" max="3" width="8"/>
+    <col bestFit="1" min="4" max="4" width="13.66015625"/>
     <col bestFit="1" min="7" max="7" width="12.11328125"/>
     <col bestFit="1" min="8" max="8" width="11.80078125"/>
     <col bestFit="1" min="9" max="9" width="9.33203125"/>
@@ -15297,3118 +15291,3146 @@
   </cols>
   <sheetData>
     <row r="1" ht="10.5">
-      <c r="A1" s="27"/>
-      <c r="B1" s="27"/>
+      <c r="A1" s="24"/>
+      <c r="B1" s="24"/>
     </row>
     <row r="2" ht="10.5">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27" t="s">
+      <c r="A2" s="24"/>
+      <c r="B2" s="24" t="s">
         <v>758</v>
       </c>
       <c r="C2" t="s">
         <v>759</v>
       </c>
+      <c r="D2" t="s">
+        <v>760</v>
+      </c>
     </row>
     <row r="3" ht="10.5">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="27">
+      <c r="B3" s="24">
         <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
         <v>1</v>
       </c>
-      <c r="C3" s="27">
+      <c r="C3" s="24">
         <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
         <v>1</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
-      <c r="F3" s="28">
+      <c r="F3" s="25">
         <v>1</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="G3" s="21" t="s">
         <v>462</v>
       </c>
-      <c r="H3" s="27" t="s">
+      <c r="H3" s="24" t="s">
         <v>462</v>
       </c>
       <c r="I3" s="18">
         <v>1</v>
       </c>
-      <c r="J3" s="23" t="s">
+      <c r="J3" s="21" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" ht="10.5">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="27">
+      <c r="B4" s="24">
         <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
         <v>2</v>
       </c>
-      <c r="C4" s="27">
+      <c r="C4" s="24">
         <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
         <v>2</v>
       </c>
       <c r="D4">
         <v>2</v>
       </c>
-      <c r="F4" s="28">
+      <c r="F4" s="25">
         <v>2</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="G4" s="21" t="s">
         <v>465</v>
       </c>
-      <c r="H4" s="27" t="s">
+      <c r="H4" s="24" t="s">
         <v>465</v>
       </c>
       <c r="I4" s="18">
         <v>2</v>
       </c>
-      <c r="J4" s="23" t="s">
+      <c r="J4" s="21" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" ht="10.5">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="27">
+      <c r="B5" s="24">
         <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
         <v>3</v>
       </c>
-      <c r="C5" s="27">
+      <c r="C5" s="24">
         <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
         <v>3</v>
       </c>
       <c r="D5">
         <v>3</v>
       </c>
-      <c r="F5" s="28">
+      <c r="F5" s="25">
         <v>3</v>
       </c>
-      <c r="G5" s="23" t="s">
+      <c r="G5" s="21" t="s">
         <v>468</v>
       </c>
-      <c r="H5" s="27" t="s">
+      <c r="H5" s="24" t="s">
         <v>468</v>
       </c>
       <c r="I5" s="18">
         <v>3</v>
       </c>
-      <c r="J5" s="23" t="s">
+      <c r="J5" s="21" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="6" ht="10.5">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="27">
+      <c r="B6" s="24">
         <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
         <v>4</v>
       </c>
-      <c r="C6" s="27">
+      <c r="C6" s="24">
         <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
         <v>4</v>
       </c>
       <c r="D6">
         <v>3</v>
       </c>
-      <c r="F6" s="28">
+      <c r="F6" s="25">
         <v>4</v>
       </c>
-      <c r="G6" s="23" t="s">
+      <c r="G6" s="21" t="s">
         <v>471</v>
       </c>
-      <c r="H6" s="27" t="s">
+      <c r="H6" s="24" t="s">
         <v>471</v>
       </c>
       <c r="I6" s="18">
         <v>4</v>
       </c>
-      <c r="J6" s="23" t="s">
+      <c r="J6" s="21" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="7" ht="10.5">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="27">
+      <c r="B7" s="24">
         <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
         <v>5</v>
       </c>
-      <c r="C7" s="27">
+      <c r="C7" s="24">
         <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
         <v>4</v>
       </c>
       <c r="D7">
         <v>3</v>
       </c>
-      <c r="F7" s="28">
+      <c r="F7" s="25">
         <v>5</v>
       </c>
-      <c r="G7" s="23" t="s">
+      <c r="G7" s="21" t="s">
         <v>474</v>
       </c>
-      <c r="H7" s="27" t="s">
+      <c r="H7" s="24" t="s">
         <v>474</v>
       </c>
       <c r="I7" s="18">
         <v>5</v>
       </c>
-      <c r="J7" s="23" t="s">
+      <c r="J7" s="21" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="8" ht="10.5">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="27">
+      <c r="B8" s="24">
         <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
         <v>6</v>
       </c>
-      <c r="C8" s="27">
+      <c r="C8" s="24">
         <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
         <v>3</v>
       </c>
       <c r="D8">
         <v>4</v>
       </c>
-      <c r="F8" s="28">
+      <c r="F8" s="25">
         <v>6</v>
       </c>
-      <c r="G8" s="23" t="s">
+      <c r="G8" s="21" t="s">
         <v>477</v>
       </c>
-      <c r="H8" s="27" t="s">
+      <c r="H8" s="24" t="s">
         <v>477</v>
       </c>
       <c r="I8" s="18">
         <v>6</v>
       </c>
-      <c r="J8" s="23" t="s">
+      <c r="J8" s="21" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="9" ht="10.5">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="27">
+      <c r="B9" s="24">
         <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
         <v>7</v>
       </c>
-      <c r="C9" s="27">
+      <c r="C9" s="24">
         <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
         <v>5</v>
       </c>
       <c r="D9">
         <v>4</v>
       </c>
-      <c r="F9" s="28">
+      <c r="F9" s="25">
         <v>7</v>
       </c>
-      <c r="G9" s="23" t="s">
+      <c r="G9" s="21" t="s">
         <v>480</v>
       </c>
-      <c r="H9" s="27" t="s">
+      <c r="H9" s="24" t="s">
         <v>480</v>
       </c>
       <c r="I9" s="18">
         <v>7</v>
       </c>
-      <c r="J9" s="23" t="s">
+      <c r="J9" s="21" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="10" ht="10.5">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="27">
+      <c r="B10" s="24">
         <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
         <v>8</v>
       </c>
-      <c r="C10" s="27">
+      <c r="C10" s="24">
         <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
         <v>6</v>
       </c>
       <c r="D10">
         <v>4</v>
       </c>
-      <c r="F10" s="28">
+      <c r="F10" s="25">
         <v>8</v>
       </c>
-      <c r="G10" s="23" t="s">
+      <c r="G10" s="21" t="s">
         <v>483</v>
       </c>
-      <c r="H10" s="27" t="s">
+      <c r="H10" s="24" t="s">
         <v>483</v>
       </c>
       <c r="I10" s="18">
         <v>8</v>
       </c>
-      <c r="J10" s="23" t="s">
+      <c r="J10" s="21" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="11" ht="10.5">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="27">
+      <c r="B11" s="24">
         <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
         <v>9</v>
       </c>
-      <c r="C11" s="27">
+      <c r="C11" s="24">
         <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
         <v>4</v>
       </c>
       <c r="D11">
         <v>4</v>
       </c>
-      <c r="F11" s="28">
+      <c r="F11" s="25">
         <v>9</v>
       </c>
-      <c r="G11" s="23" t="s">
+      <c r="G11" s="21" t="s">
         <v>486</v>
       </c>
-      <c r="H11" s="27" t="s">
+      <c r="H11" s="24" t="s">
         <v>486</v>
       </c>
       <c r="I11" s="18">
         <v>9</v>
       </c>
-      <c r="J11" s="23" t="s">
+      <c r="J11" s="21" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="12" ht="10.5">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="27">
+      <c r="B12" s="24">
         <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
         <v>10</v>
       </c>
-      <c r="C12" s="27">
+      <c r="C12" s="24">
         <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
         <v>4</v>
       </c>
       <c r="D12">
         <v>4</v>
       </c>
-      <c r="F12" s="28">
+      <c r="F12" s="25">
         <v>10</v>
       </c>
-      <c r="G12" s="23" t="s">
+      <c r="G12" s="21" t="s">
         <v>489</v>
       </c>
-      <c r="H12" s="27" t="s">
+      <c r="H12" s="24" t="s">
         <v>489</v>
       </c>
       <c r="I12" s="18">
         <v>10</v>
       </c>
-      <c r="J12" s="23" t="s">
+      <c r="J12" s="21" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="13" ht="10.5">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="27">
+      <c r="B13" s="24">
         <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
         <v>11</v>
       </c>
-      <c r="C13" s="27">
+      <c r="C13" s="24">
         <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
         <v>3</v>
       </c>
       <c r="D13">
         <v>5</v>
       </c>
-      <c r="F13" s="28">
+      <c r="F13" s="25">
         <v>11</v>
       </c>
-      <c r="G13" s="23" t="s">
+      <c r="G13" s="21" t="s">
         <v>492</v>
       </c>
-      <c r="H13" s="27" t="s">
+      <c r="H13" s="24" t="s">
         <v>492</v>
       </c>
       <c r="I13" s="18">
         <v>11</v>
       </c>
-      <c r="J13" s="23" t="s">
+      <c r="J13" s="21" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="14" ht="10.5">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="27">
+      <c r="B14" s="24">
         <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
         <v>12</v>
       </c>
-      <c r="C14" s="27">
+      <c r="C14" s="24">
         <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
         <v>4</v>
       </c>
       <c r="D14">
         <v>5</v>
       </c>
-      <c r="F14" s="28">
+      <c r="F14" s="25">
         <v>12</v>
       </c>
-      <c r="G14" s="23" t="s">
+      <c r="G14" s="21" t="s">
         <v>495</v>
       </c>
-      <c r="H14" s="27" t="s">
+      <c r="H14" s="24" t="s">
         <v>495</v>
       </c>
       <c r="I14" s="18">
         <v>12</v>
       </c>
-      <c r="J14" s="23" t="s">
+      <c r="J14" s="21" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="15" ht="10.5">
-      <c r="A15" s="27" t="s">
+      <c r="A15" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="B15" s="27">
+      <c r="B15" s="24">
         <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
         <v>13</v>
       </c>
-      <c r="C15" s="27">
+      <c r="C15" s="24">
         <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
         <v>7</v>
       </c>
       <c r="D15">
         <v>6</v>
       </c>
-      <c r="F15" s="28">
+      <c r="F15" s="25">
         <v>13</v>
       </c>
-      <c r="G15" s="23" t="s">
+      <c r="G15" s="21" t="s">
         <v>498</v>
       </c>
-      <c r="H15" s="27" t="s">
+      <c r="H15" s="24" t="s">
         <v>498</v>
       </c>
       <c r="I15" s="18">
         <v>13</v>
       </c>
-      <c r="J15" s="23" t="s">
+      <c r="J15" s="21" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="16" ht="10.5">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="27">
+      <c r="B16" s="24">
         <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
         <v>14</v>
       </c>
-      <c r="C16" s="27">
+      <c r="C16" s="24">
         <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
         <v>3</v>
       </c>
       <c r="D16">
         <v>6</v>
       </c>
-      <c r="F16" s="28">
+      <c r="F16" s="25">
         <v>14</v>
       </c>
-      <c r="G16" s="23" t="s">
+      <c r="G16" s="21" t="s">
         <v>500</v>
       </c>
-      <c r="H16" s="27" t="s">
+      <c r="H16" s="24" t="s">
         <v>500</v>
       </c>
       <c r="I16" s="18">
         <v>14</v>
       </c>
-      <c r="J16" s="23" t="s">
+      <c r="J16" s="21" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="17" ht="10.5">
-      <c r="A17" s="27" t="s">
+      <c r="A17" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="27">
+      <c r="B17" s="24">
         <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
         <v>15</v>
       </c>
-      <c r="C17" s="27">
+      <c r="C17" s="24">
         <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
         <v>3</v>
       </c>
       <c r="D17">
         <v>8</v>
       </c>
-      <c r="F17" s="28">
+      <c r="F17" s="25">
         <v>15</v>
       </c>
-      <c r="G17" s="23" t="s">
+      <c r="G17" s="21" t="s">
         <v>502</v>
       </c>
-      <c r="H17" s="27" t="s">
+      <c r="H17" s="24" t="s">
         <v>502</v>
       </c>
       <c r="I17" s="18">
         <v>15</v>
       </c>
-      <c r="J17" s="23" t="s">
+      <c r="J17" s="21" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="18" ht="10.5">
-      <c r="A18" s="27" t="s">
+      <c r="A18" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="27">
+      <c r="B18" s="24">
         <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
         <v>16</v>
       </c>
-      <c r="C18" s="27">
+      <c r="C18" s="24">
         <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
         <v>4</v>
       </c>
       <c r="D18">
         <v>8</v>
       </c>
-      <c r="F18" s="28">
+      <c r="F18" s="25">
         <v>16</v>
       </c>
-      <c r="G18" s="23" t="s">
+      <c r="G18" s="21" t="s">
         <v>504</v>
       </c>
-      <c r="H18" s="27" t="s">
+      <c r="H18" s="24" t="s">
         <v>504</v>
       </c>
       <c r="I18" s="18">
         <v>16</v>
       </c>
-      <c r="J18" s="23" t="s">
+      <c r="J18" s="21" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="19" ht="10.5">
-      <c r="A19" s="27" t="s">
+      <c r="A19" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="B19" s="27">
+      <c r="B19" s="24">
         <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
         <v>17</v>
       </c>
-      <c r="C19" s="27">
+      <c r="C19" s="24">
         <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
         <v>8</v>
       </c>
       <c r="D19">
         <v>9</v>
       </c>
-      <c r="F19" s="28">
+      <c r="F19" s="25">
         <v>17</v>
       </c>
-      <c r="G19" s="23" t="s">
+      <c r="G19" s="21" t="s">
         <v>507</v>
       </c>
-      <c r="H19" s="27" t="s">
+      <c r="H19" s="24" t="s">
         <v>507</v>
       </c>
       <c r="I19" s="18">
         <v>17</v>
       </c>
-      <c r="J19" s="23" t="s">
+      <c r="J19" s="21" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="20" ht="10.5">
-      <c r="A20" s="27" t="s">
+      <c r="A20" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="B20" s="27">
+      <c r="B20" s="24">
         <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
         <v>18</v>
       </c>
-      <c r="C20" s="27">
+      <c r="C20" s="24">
         <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
         <v>9</v>
       </c>
       <c r="D20">
         <v>9</v>
       </c>
-      <c r="F20" s="28">
+      <c r="F20" s="25">
         <v>18</v>
       </c>
-      <c r="G20" s="23" t="s">
+      <c r="G20" s="21" t="s">
         <v>510</v>
       </c>
-      <c r="H20" s="27" t="s">
+      <c r="H20" s="24" t="s">
         <v>510</v>
       </c>
       <c r="I20" s="18">
         <v>18</v>
       </c>
-      <c r="J20" s="23" t="s">
+      <c r="J20" s="21" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="21" ht="10.5">
-      <c r="A21" s="27" t="s">
+      <c r="A21" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="B21" s="27">
+      <c r="B21" s="24">
         <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
         <v>19</v>
       </c>
-      <c r="C21" s="27">
+      <c r="C21" s="24">
         <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
         <v>9</v>
       </c>
       <c r="D21">
         <v>9</v>
       </c>
-      <c r="F21" s="28">
+      <c r="F21" s="25">
         <v>19</v>
       </c>
-      <c r="G21" s="23" t="s">
+      <c r="G21" s="21" t="s">
         <v>513</v>
       </c>
-      <c r="H21" s="27" t="s">
+      <c r="H21" s="24" t="s">
         <v>513</v>
       </c>
       <c r="I21" s="18">
         <v>19</v>
       </c>
-      <c r="J21" s="23" t="s">
+      <c r="J21" s="21" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="22" ht="10.5">
-      <c r="A22" s="27" t="s">
+      <c r="A22" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="B22" s="27">
+      <c r="B22" s="24">
         <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
         <v>20</v>
       </c>
-      <c r="C22" s="27">
+      <c r="C22" s="24">
         <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
         <v>9</v>
       </c>
       <c r="D22">
         <v>9</v>
       </c>
-      <c r="F22" s="28">
+      <c r="F22" s="25">
         <v>20</v>
       </c>
-      <c r="G22" s="23" t="s">
+      <c r="G22" s="21" t="s">
         <v>516</v>
       </c>
-      <c r="H22" s="27" t="s">
+      <c r="H22" s="24" t="s">
         <v>516</v>
       </c>
       <c r="I22" s="18">
         <v>20</v>
       </c>
-      <c r="J22" s="23" t="s">
+      <c r="J22" s="21" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="23" ht="10.5">
-      <c r="A23" s="27" t="s">
+      <c r="A23" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="B23" s="27">
+      <c r="B23" s="24">
         <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
         <v>21</v>
       </c>
-      <c r="C23" s="27">
+      <c r="C23" s="24">
         <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
         <v>10</v>
       </c>
       <c r="D23">
         <v>9</v>
       </c>
-      <c r="F23" s="28">
+      <c r="F23" s="25">
         <v>21</v>
       </c>
-      <c r="G23" s="23" t="s">
+      <c r="G23" s="21" t="s">
         <v>518</v>
       </c>
-      <c r="H23" s="27" t="s">
+      <c r="H23" s="24" t="s">
         <v>518</v>
       </c>
       <c r="I23" s="18">
         <v>21</v>
       </c>
-      <c r="J23" s="23" t="s">
+      <c r="J23" s="21" t="s">
         <v>202</v>
       </c>
+      <c r="R23" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="24" ht="10.5">
-      <c r="A24" s="27" t="s">
+      <c r="A24" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="B24" s="27">
+      <c r="B24" s="24">
         <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
         <v>16</v>
       </c>
-      <c r="C24" s="27">
+      <c r="C24" s="24">
         <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
         <v>11</v>
       </c>
       <c r="D24">
         <v>9</v>
       </c>
-      <c r="F24" s="28">
+      <c r="F24" s="25">
         <v>22</v>
       </c>
-      <c r="G24" s="23" t="s">
+      <c r="G24" s="21" t="s">
         <v>504</v>
       </c>
-      <c r="H24" s="27" t="s">
+      <c r="H24" s="24" t="s">
         <v>504</v>
       </c>
       <c r="I24" s="18">
         <v>22</v>
       </c>
-      <c r="J24" s="23" t="s">
+      <c r="J24" s="21" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="25" ht="10.5">
-      <c r="A25" s="27" t="s">
+      <c r="A25" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="B25" s="27">
+      <c r="B25" s="24">
         <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
         <v>23</v>
       </c>
-      <c r="C25" s="27">
+      <c r="C25" s="24">
         <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
         <v>12</v>
       </c>
       <c r="D25">
         <v>9</v>
       </c>
-      <c r="F25" s="28">
+      <c r="F25" s="25">
         <v>23</v>
       </c>
-      <c r="G25" s="23" t="s">
+      <c r="G25" s="21" t="s">
         <v>523</v>
       </c>
-      <c r="H25" s="27" t="s">
+      <c r="H25" s="24" t="s">
         <v>523</v>
       </c>
       <c r="I25" s="18">
         <v>23</v>
       </c>
-      <c r="J25" s="23" t="s">
+      <c r="J25" s="21" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="26" ht="10.5">
-      <c r="A26" s="27" t="s">
+      <c r="A26" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="B26" s="27">
+      <c r="B26" s="24">
         <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
         <v>24</v>
       </c>
-      <c r="C26" s="27">
+      <c r="C26" s="24">
         <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
         <v>6</v>
       </c>
       <c r="D26">
         <v>9</v>
       </c>
-      <c r="F26" s="28">
+      <c r="F26" s="25">
         <v>24</v>
       </c>
-      <c r="G26" s="23" t="s">
+      <c r="G26" s="21" t="s">
         <v>525</v>
       </c>
-      <c r="H26" s="27" t="s">
+      <c r="H26" s="24" t="s">
         <v>525</v>
       </c>
       <c r="I26" s="18">
         <v>24</v>
       </c>
-      <c r="J26" s="23" t="s">
+      <c r="J26" s="21" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="27" ht="10.5">
-      <c r="A27" s="27" t="s">
+      <c r="A27" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="B27" s="27">
+      <c r="B27" s="24">
         <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
         <v>25</v>
       </c>
-      <c r="C27" s="27">
+      <c r="C27" s="24">
         <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
         <v>13</v>
       </c>
       <c r="D27">
         <v>9</v>
       </c>
-      <c r="F27" s="28">
+      <c r="F27" s="25">
         <v>25</v>
       </c>
-      <c r="G27" s="23" t="s">
+      <c r="G27" s="21" t="s">
         <v>528</v>
       </c>
-      <c r="H27" s="27" t="s">
+      <c r="H27" s="24" t="s">
         <v>528</v>
       </c>
       <c r="I27" s="18">
         <v>25</v>
       </c>
-      <c r="J27" s="23" t="s">
+      <c r="J27" s="21" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="28" ht="10.5">
-      <c r="A28" s="27" t="s">
+      <c r="A28" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="B28" s="27">
+      <c r="B28" s="24">
         <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
         <v>26</v>
       </c>
-      <c r="C28" s="27">
+      <c r="C28" s="24">
         <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
         <v>11</v>
       </c>
       <c r="D28">
         <v>10</v>
       </c>
-      <c r="F28" s="28">
+      <c r="F28" s="25">
         <v>26</v>
       </c>
-      <c r="G28" s="23" t="s">
+      <c r="G28" s="21" t="s">
         <v>531</v>
       </c>
-      <c r="H28" s="27" t="s">
+      <c r="H28" s="24" t="s">
         <v>531</v>
       </c>
       <c r="I28" s="18">
         <v>26</v>
       </c>
-      <c r="J28" s="23" t="s">
+      <c r="J28" s="21" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="29" ht="10.5">
-      <c r="A29" s="27" t="s">
+      <c r="A29" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="B29" s="27">
+      <c r="B29" s="24">
         <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
         <v>27</v>
       </c>
-      <c r="C29" s="27">
+      <c r="C29" s="24">
         <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
         <v>6</v>
       </c>
       <c r="D29">
         <v>10</v>
       </c>
-      <c r="F29" s="28">
+      <c r="F29" s="25">
         <v>27</v>
       </c>
-      <c r="G29" s="23" t="s">
+      <c r="G29" s="21" t="s">
         <v>534</v>
       </c>
-      <c r="H29" s="27" t="s">
+      <c r="H29" s="24" t="s">
         <v>534</v>
       </c>
       <c r="I29" s="18">
         <v>27</v>
       </c>
-      <c r="J29" s="23" t="s">
+      <c r="J29" s="21" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="30" ht="10.5">
-      <c r="A30" s="27" t="s">
+      <c r="A30" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="B30" s="27">
+      <c r="B30" s="24">
         <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
         <v>28</v>
       </c>
-      <c r="C30" s="27">
+      <c r="C30" s="24">
         <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
         <v>11</v>
       </c>
       <c r="D30">
         <v>11</v>
       </c>
-      <c r="F30" s="28">
+      <c r="F30" s="25">
         <v>28</v>
       </c>
-      <c r="G30" s="23" t="s">
+      <c r="G30" s="21" t="s">
         <v>537</v>
       </c>
-      <c r="H30" s="27" t="s">
+      <c r="H30" s="24" t="s">
         <v>537</v>
       </c>
       <c r="I30" s="18">
         <v>28</v>
       </c>
-      <c r="J30" s="23" t="s">
+      <c r="J30" s="21" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="31" ht="10.5">
-      <c r="A31" s="27" t="s">
+      <c r="A31" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="B31" s="27">
+      <c r="B31" s="24">
         <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
         <v>29</v>
       </c>
-      <c r="C31" s="27">
+      <c r="C31" s="24">
         <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
         <v>14</v>
       </c>
       <c r="D31">
         <v>11</v>
       </c>
-      <c r="F31" s="28">
+      <c r="F31" s="25">
         <v>29</v>
       </c>
-      <c r="G31" s="23" t="s">
+      <c r="G31" s="21" t="s">
         <v>540</v>
       </c>
-      <c r="H31" s="27" t="s">
+      <c r="H31" s="24" t="s">
         <v>540</v>
       </c>
       <c r="I31" s="18">
         <v>29</v>
       </c>
-      <c r="J31" s="23" t="s">
+      <c r="J31" s="21" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="32" ht="10.5">
-      <c r="A32" s="27" t="s">
+      <c r="A32" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="B32" s="27">
+      <c r="B32" s="24">
         <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
         <v>30</v>
       </c>
-      <c r="C32" s="27">
+      <c r="C32" s="24">
         <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
         <v>14</v>
       </c>
       <c r="D32">
         <v>11</v>
       </c>
-      <c r="F32" s="28">
+      <c r="F32" s="25">
         <v>30</v>
       </c>
-      <c r="G32" s="23" t="s">
+      <c r="G32" s="21" t="s">
         <v>543</v>
       </c>
-      <c r="H32" s="27" t="s">
+      <c r="H32" s="24" t="s">
         <v>543</v>
       </c>
       <c r="I32" s="18">
         <v>30</v>
       </c>
-      <c r="J32" s="23" t="s">
+      <c r="J32" s="21" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="33" ht="10.5">
-      <c r="A33" s="27" t="s">
+      <c r="A33" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="B33" s="27">
+      <c r="B33" s="24">
         <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
         <v>31</v>
       </c>
-      <c r="C33" s="27">
+      <c r="C33" s="24">
         <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
         <v>14</v>
       </c>
       <c r="D33">
         <v>11</v>
       </c>
-      <c r="F33" s="28">
+      <c r="F33" s="25">
         <v>31</v>
       </c>
-      <c r="G33" s="23" t="s">
+      <c r="G33" s="21" t="s">
         <v>546</v>
       </c>
-      <c r="H33" s="27" t="s">
+      <c r="H33" s="24" t="s">
         <v>546</v>
       </c>
       <c r="I33" s="18">
         <v>31</v>
       </c>
-      <c r="J33" s="23" t="s">
+      <c r="J33" s="21" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="34" ht="10.5">
-      <c r="A34" s="27" t="s">
+      <c r="A34" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="B34" s="27">
+      <c r="B34" s="24">
         <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
         <v>32</v>
       </c>
-      <c r="C34" s="27">
+      <c r="C34" s="24">
         <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
         <v>14</v>
       </c>
       <c r="D34">
         <v>11</v>
       </c>
-      <c r="F34" s="28">
+      <c r="F34" s="25">
         <v>32</v>
       </c>
-      <c r="G34" s="23" t="s">
+      <c r="G34" s="21" t="s">
         <v>549</v>
       </c>
-      <c r="H34" s="27" t="s">
+      <c r="H34" s="24" t="s">
         <v>549</v>
       </c>
       <c r="I34" s="18">
         <v>32</v>
       </c>
-      <c r="J34" s="23" t="s">
+      <c r="J34" s="21" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="35" ht="10.5">
-      <c r="A35" s="27" t="s">
+      <c r="A35" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="B35" s="27">
+      <c r="B35" s="24">
         <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
         <v>33</v>
       </c>
-      <c r="C35" s="27">
+      <c r="C35" s="24">
         <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
         <v>14</v>
       </c>
       <c r="D35">
         <v>11</v>
       </c>
-      <c r="F35" s="28">
+      <c r="F35" s="25">
         <v>33</v>
       </c>
-      <c r="G35" s="23" t="s">
+      <c r="G35" s="21" t="s">
         <v>552</v>
       </c>
-      <c r="H35" s="27" t="s">
+      <c r="H35" s="24" t="s">
         <v>552</v>
       </c>
       <c r="I35" s="18">
         <v>33</v>
       </c>
-      <c r="J35" s="23" t="s">
+      <c r="J35" s="21" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="36" ht="10.5">
-      <c r="A36" s="27" t="s">
+      <c r="A36" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="B36" s="27">
+      <c r="B36" s="24">
         <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
         <v>34</v>
       </c>
-      <c r="C36" s="27">
+      <c r="C36" s="24">
         <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
         <v>14</v>
       </c>
       <c r="D36">
         <v>11</v>
       </c>
-      <c r="F36" s="28">
+      <c r="F36" s="25">
         <v>34</v>
       </c>
-      <c r="G36" s="23" t="s">
+      <c r="G36" s="21" t="s">
         <v>555</v>
       </c>
-      <c r="H36" s="27" t="s">
+      <c r="H36" s="24" t="s">
         <v>555</v>
       </c>
       <c r="I36" s="18">
         <v>34</v>
       </c>
-      <c r="J36" s="23" t="s">
+      <c r="J36" s="21" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="37" ht="10.5">
-      <c r="A37" s="27" t="s">
+      <c r="A37" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="B37" s="27">
+      <c r="B37" s="24">
         <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
         <v>35</v>
       </c>
-      <c r="C37" s="27">
+      <c r="C37" s="24">
         <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
         <v>15</v>
       </c>
       <c r="D37">
         <v>13</v>
       </c>
-      <c r="F37" s="28">
+      <c r="F37" s="25">
         <v>35</v>
       </c>
-      <c r="G37" s="23" t="s">
+      <c r="G37" s="21" t="s">
         <v>557</v>
       </c>
-      <c r="H37" s="27" t="s">
+      <c r="H37" s="24" t="s">
         <v>557</v>
       </c>
       <c r="I37" s="18">
         <v>35</v>
       </c>
-      <c r="J37" s="23" t="s">
+      <c r="J37" s="21" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="38" ht="10.5">
-      <c r="A38" s="27" t="s">
+      <c r="A38" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="B38" s="27">
+      <c r="B38" s="24">
         <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
         <v>36</v>
       </c>
-      <c r="C38" s="27">
+      <c r="C38" s="24">
         <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
         <v>16</v>
       </c>
       <c r="D38">
         <v>13</v>
       </c>
-      <c r="F38" s="28">
+      <c r="F38" s="25">
         <v>36</v>
       </c>
-      <c r="G38" s="23" t="s">
+      <c r="G38" s="21" t="s">
         <v>560</v>
       </c>
-      <c r="H38" s="27" t="s">
+      <c r="H38" s="24" t="s">
         <v>560</v>
       </c>
       <c r="I38" s="18">
         <v>36</v>
       </c>
-      <c r="J38" s="23" t="s">
+      <c r="J38" s="21" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="39" ht="10.5">
-      <c r="A39" s="27" t="s">
+      <c r="A39" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="B39" s="27">
+      <c r="B39" s="24">
         <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
         <v>37</v>
       </c>
-      <c r="C39" s="27">
+      <c r="C39" s="24">
         <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
         <v>8</v>
       </c>
-      <c r="D39" s="20" t="s">
-        <v>760</v>
-      </c>
-      <c r="F39" s="28">
+      <c r="D39" s="19">
+        <v>13</v>
+      </c>
+      <c r="F39" s="25">
         <v>37</v>
       </c>
-      <c r="G39" s="23" t="s">
+      <c r="G39" s="21" t="s">
         <v>563</v>
       </c>
-      <c r="H39" s="27" t="s">
+      <c r="H39" s="24" t="s">
         <v>563</v>
       </c>
       <c r="I39" s="18">
         <v>37</v>
       </c>
-      <c r="J39" s="23" t="s">
+      <c r="J39" s="21" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="40" ht="10.5">
-      <c r="A40" s="27" t="s">
+      <c r="A40" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B40" s="27">
+      <c r="B40" s="24">
         <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
         <v>38</v>
       </c>
-      <c r="C40" s="27">
+      <c r="C40" s="24">
         <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
         <v>3</v>
       </c>
       <c r="D40">
         <v>14</v>
       </c>
-      <c r="F40" s="28">
+      <c r="F40" s="25">
         <v>38</v>
       </c>
-      <c r="G40" s="23" t="s">
+      <c r="G40" s="21" t="s">
         <v>566</v>
       </c>
-      <c r="H40" s="27" t="s">
+      <c r="H40" s="24" t="s">
         <v>566</v>
       </c>
       <c r="I40" s="18">
         <v>38</v>
       </c>
-      <c r="J40" s="23" t="s">
+      <c r="J40" s="21" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="41" ht="10.5">
-      <c r="A41" s="27" t="s">
+      <c r="A41" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="B41" s="27">
+      <c r="B41" s="24">
         <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
         <v>39</v>
       </c>
-      <c r="C41" s="27">
+      <c r="C41" s="24">
         <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
         <v>6</v>
       </c>
       <c r="D41">
         <v>14</v>
       </c>
-      <c r="F41" s="28">
+      <c r="F41" s="25">
         <v>39</v>
       </c>
-      <c r="G41" s="23" t="s">
+      <c r="G41" s="21" t="s">
         <v>569</v>
       </c>
-      <c r="H41" s="27" t="s">
+      <c r="H41" s="24" t="s">
         <v>569</v>
       </c>
       <c r="I41" s="18">
         <v>39</v>
       </c>
-      <c r="J41" s="23" t="s">
+      <c r="J41" s="21" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="42" ht="10.5">
-      <c r="A42" s="27" t="s">
+      <c r="A42" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="B42" s="27">
+      <c r="B42" s="24">
         <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
         <v>40</v>
       </c>
-      <c r="C42" s="27">
+      <c r="C42" s="24">
         <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
         <v>6</v>
       </c>
       <c r="D42">
         <v>14</v>
       </c>
-      <c r="F42" s="28">
+      <c r="F42" s="25">
         <v>40</v>
       </c>
-      <c r="G42" s="23" t="s">
+      <c r="G42" s="21" t="s">
         <v>572</v>
       </c>
-      <c r="H42" s="27" t="s">
+      <c r="H42" s="24" t="s">
         <v>572</v>
       </c>
       <c r="I42" s="18">
         <v>40</v>
       </c>
-      <c r="J42" s="23" t="s">
+      <c r="J42" s="21" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="43" ht="10.5">
-      <c r="A43" s="27" t="s">
+      <c r="A43" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="B43" s="27">
-        <v>34</v>
-      </c>
-      <c r="C43" s="27">
+      <c r="B43" s="24">
+        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <v>43</v>
+      </c>
+      <c r="C43" s="24">
         <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
         <v>8</v>
       </c>
       <c r="D43">
         <v>15</v>
       </c>
-      <c r="F43" s="28">
+      <c r="F43" s="25">
         <v>42</v>
       </c>
-      <c r="G43" s="23" t="s">
+      <c r="G43" s="21" t="s">
         <v>577</v>
       </c>
-      <c r="H43" s="27" t="s">
-        <v>575</v>
+      <c r="H43" s="24" t="s">
+        <v>580</v>
       </c>
       <c r="I43" s="18">
         <v>42</v>
       </c>
-      <c r="J43" s="23" t="s">
+      <c r="J43" s="21" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="44" ht="10.5">
-      <c r="A44" s="27" t="s">
+      <c r="A44" s="24" t="s">
         <v>167</v>
       </c>
-      <c r="B44" s="27">
+      <c r="B44" s="24">
         <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
         <v>42</v>
       </c>
-      <c r="C44" s="27">
+      <c r="C44" s="24">
         <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
         <v>17</v>
       </c>
       <c r="D44">
         <v>15</v>
       </c>
-      <c r="F44" s="28">
+      <c r="F44" s="25">
         <v>43</v>
       </c>
-      <c r="G44" s="23" t="s">
+      <c r="G44" s="21" t="s">
         <v>580</v>
       </c>
-      <c r="H44" s="27" t="s">
+      <c r="H44" s="24" t="s">
         <v>577</v>
       </c>
       <c r="I44" s="18">
         <v>43</v>
       </c>
-      <c r="J44" s="23" t="s">
+      <c r="J44" s="21" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="45" ht="10.5">
-      <c r="A45" s="27" t="s">
+      <c r="A45" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B45" s="27">
+      <c r="B45" s="24">
         <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
         <v>43</v>
       </c>
-      <c r="C45" s="27">
+      <c r="C45" s="24">
         <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
         <v>3</v>
       </c>
       <c r="D45">
         <v>15</v>
       </c>
-      <c r="F45" s="28">
+      <c r="F45" s="25">
         <v>44</v>
       </c>
-      <c r="G45" s="23" t="s">
+      <c r="G45" s="21" t="s">
         <v>583</v>
       </c>
-      <c r="H45" s="27" t="s">
+      <c r="H45" s="24" t="s">
         <v>580</v>
       </c>
       <c r="I45" s="18">
         <v>44</v>
       </c>
-      <c r="J45" s="23" t="s">
+      <c r="J45" s="21" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="46" ht="10.5">
-      <c r="A46" s="27" t="s">
+      <c r="A46" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="B46" s="27">
+      <c r="B46" s="24">
         <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
         <v>44</v>
       </c>
-      <c r="C46" s="27">
+      <c r="C46" s="24">
         <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
         <v>6</v>
       </c>
       <c r="D46">
         <v>15</v>
       </c>
-      <c r="F46" s="28">
+      <c r="F46" s="25">
         <v>45</v>
       </c>
-      <c r="G46" s="23" t="s">
+      <c r="G46" s="21" t="s">
         <v>586</v>
       </c>
-      <c r="H46" s="27" t="s">
+      <c r="H46" s="24" t="s">
         <v>583</v>
       </c>
       <c r="I46" s="18">
         <v>45</v>
       </c>
-      <c r="J46" s="23" t="s">
+      <c r="J46" s="21" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="47" ht="10.5">
-      <c r="A47" s="27" t="s">
+      <c r="A47" s="24" t="s">
         <v>178</v>
       </c>
-      <c r="B47" s="27">
+      <c r="B47" s="24">
         <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
         <v>45</v>
       </c>
-      <c r="C47" s="27">
+      <c r="C47" s="24">
         <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
         <v>18</v>
       </c>
       <c r="D47">
         <v>16</v>
       </c>
-      <c r="F47" s="28">
+      <c r="F47" s="25">
         <v>47</v>
       </c>
-      <c r="G47" s="23" t="s">
+      <c r="G47" s="21" t="s">
         <v>592</v>
       </c>
-      <c r="H47" s="27" t="s">
+      <c r="H47" s="24" t="s">
         <v>586</v>
       </c>
-      <c r="I47" s="28"/>
+      <c r="I47" s="25"/>
     </row>
     <row r="48" ht="10.5">
-      <c r="A48" s="27" t="s">
+      <c r="A48" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B48" s="27">
-        <v>45</v>
-      </c>
-      <c r="C48" s="27">
+      <c r="B48" s="24">
+        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <v>47</v>
+      </c>
+      <c r="C48" s="24">
         <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
         <v>3</v>
       </c>
       <c r="D48">
         <v>16</v>
       </c>
-      <c r="F48" s="28">
+      <c r="F48" s="25">
         <v>48</v>
       </c>
-      <c r="G48" s="23" t="s">
+      <c r="G48" s="21" t="s">
         <v>595</v>
       </c>
-      <c r="H48" s="27" t="s">
-        <v>589</v>
-      </c>
-      <c r="I48" s="28"/>
+      <c r="H48" s="24" t="s">
+        <v>592</v>
+      </c>
+      <c r="I48" s="25"/>
     </row>
     <row r="49" ht="10.5">
-      <c r="A49" s="27" t="s">
+      <c r="A49" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="B49" s="27">
+      <c r="B49" s="24">
         <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
         <v>47</v>
       </c>
-      <c r="C49" s="27">
+      <c r="C49" s="24">
         <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
         <v>6</v>
       </c>
       <c r="D49">
         <v>16</v>
       </c>
-      <c r="F49" s="28">
+      <c r="F49" s="25">
         <v>49</v>
       </c>
-      <c r="G49" s="23" t="s">
+      <c r="G49" s="21" t="s">
         <v>598</v>
       </c>
-      <c r="H49" s="27" t="s">
+      <c r="H49" s="24" t="s">
         <v>592</v>
       </c>
-      <c r="I49" s="28"/>
+      <c r="I49" s="25"/>
     </row>
     <row r="50" ht="10.5">
-      <c r="A50" s="27" t="s">
+      <c r="A50" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="B50" s="27">
+      <c r="B50" s="24">
         <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
         <v>48</v>
       </c>
-      <c r="C50" s="27">
+      <c r="C50" s="24">
         <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
         <v>6</v>
       </c>
       <c r="D50">
         <v>16</v>
       </c>
-      <c r="F50" s="28">
+      <c r="F50" s="25">
         <v>50</v>
       </c>
-      <c r="G50" s="23" t="s">
+      <c r="G50" s="21" t="s">
         <v>601</v>
       </c>
-      <c r="H50" s="27" t="s">
+      <c r="H50" s="24" t="s">
         <v>595</v>
       </c>
-      <c r="I50" s="28"/>
+      <c r="I50" s="25"/>
     </row>
     <row r="51" ht="10.5">
-      <c r="A51" s="27" t="s">
+      <c r="A51" s="24" t="s">
         <v>192</v>
       </c>
-      <c r="B51" s="27">
+      <c r="B51" s="24">
         <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
         <v>49</v>
       </c>
-      <c r="C51" s="27">
+      <c r="C51" s="24">
         <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
         <v>19</v>
       </c>
       <c r="D51">
         <v>17</v>
       </c>
-      <c r="F51" s="28">
+      <c r="F51" s="25">
         <v>52</v>
       </c>
-      <c r="G51" s="23" t="s">
+      <c r="G51" s="21" t="s">
         <v>606</v>
       </c>
-      <c r="H51" s="27" t="s">
+      <c r="H51" s="24" t="s">
         <v>598</v>
       </c>
-      <c r="I51" s="28"/>
+      <c r="I51" s="25"/>
     </row>
     <row r="52" ht="10.5">
-      <c r="A52" s="27" t="s">
+      <c r="A52" s="24" t="s">
         <v>197</v>
       </c>
-      <c r="B52" s="27">
+      <c r="B52" s="24">
         <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
         <v>50</v>
       </c>
-      <c r="C52" s="27">
+      <c r="C52" s="24">
         <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
         <v>20</v>
       </c>
       <c r="D52">
         <v>17</v>
       </c>
-      <c r="F52" s="28">
+      <c r="F52" s="25">
         <v>53</v>
       </c>
-      <c r="G52" s="23" t="s">
+      <c r="G52" s="21" t="s">
         <v>609</v>
       </c>
-      <c r="H52" s="27" t="s">
+      <c r="H52" s="24" t="s">
         <v>601</v>
       </c>
-      <c r="I52" s="28"/>
+      <c r="I52" s="25"/>
     </row>
     <row r="53" ht="10.5">
-      <c r="A53" s="27" t="s">
+      <c r="A53" s="24" t="s">
         <v>202</v>
       </c>
-      <c r="B53" s="27">
-        <v>38</v>
-      </c>
-      <c r="C53" s="27">
+      <c r="B53" s="24">
+        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <v>52</v>
+      </c>
+      <c r="C53" s="24">
         <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
         <v>21</v>
       </c>
       <c r="D53">
         <v>17</v>
       </c>
-      <c r="F53" s="28">
+      <c r="F53" s="25">
         <v>54</v>
       </c>
-      <c r="G53" s="23" t="s">
+      <c r="G53" s="21" t="s">
         <v>612</v>
       </c>
-      <c r="H53" s="27" t="s">
-        <v>603</v>
-      </c>
-      <c r="I53" s="28"/>
+      <c r="H53" s="24" t="s">
+        <v>606</v>
+      </c>
+      <c r="I53" s="25"/>
     </row>
     <row r="54" ht="10.5">
-      <c r="A54" s="27" t="s">
+      <c r="A54" s="24" t="s">
         <v>206</v>
       </c>
-      <c r="B54" s="27">
+      <c r="B54" s="24">
         <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
         <v>52</v>
       </c>
-      <c r="C54" s="27">
+      <c r="C54" s="24">
         <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
         <v>22</v>
       </c>
       <c r="D54">
         <v>17</v>
       </c>
-      <c r="F54" s="28">
+      <c r="F54" s="25">
         <v>55</v>
       </c>
-      <c r="G54" s="23" t="s">
+      <c r="G54" s="21" t="s">
         <v>615</v>
       </c>
-      <c r="H54" s="27" t="s">
+      <c r="H54" s="24" t="s">
         <v>606</v>
       </c>
-      <c r="I54" s="28"/>
+      <c r="I54" s="25"/>
     </row>
     <row r="55" ht="10.5">
-      <c r="A55" s="27" t="s">
+      <c r="A55" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="B55" s="27">
+      <c r="B55" s="24">
         <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
         <v>53</v>
       </c>
-      <c r="C55" s="27">
+      <c r="C55" s="24">
         <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
         <v>23</v>
       </c>
       <c r="D55">
         <v>17</v>
       </c>
-      <c r="F55" s="28">
+      <c r="F55" s="25">
         <v>56</v>
       </c>
-      <c r="G55" s="23" t="s">
+      <c r="G55" s="21" t="s">
         <v>618</v>
       </c>
-      <c r="H55" s="27" t="s">
+      <c r="H55" s="24" t="s">
         <v>609</v>
       </c>
-      <c r="I55" s="28"/>
+      <c r="I55" s="25"/>
     </row>
     <row r="56" ht="10.5">
-      <c r="A56" s="27" t="s">
+      <c r="A56" s="24" t="s">
         <v>214</v>
       </c>
-      <c r="B56" s="27">
+      <c r="B56" s="24">
         <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
         <v>54</v>
       </c>
-      <c r="C56" s="27">
+      <c r="C56" s="24">
         <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
         <v>24</v>
       </c>
       <c r="D56">
         <v>17</v>
       </c>
-      <c r="F56" s="28">
+      <c r="F56" s="25">
         <v>57</v>
       </c>
-      <c r="G56" s="23" t="s">
+      <c r="G56" s="21" t="s">
         <v>620</v>
       </c>
-      <c r="H56" s="27" t="s">
+      <c r="H56" s="24" t="s">
         <v>612</v>
       </c>
-      <c r="I56" s="28"/>
+      <c r="I56" s="25"/>
     </row>
     <row r="57" ht="10.5">
-      <c r="A57" s="27" t="s">
+      <c r="A57" s="24" t="s">
         <v>218</v>
       </c>
-      <c r="B57" s="27">
+      <c r="B57" s="24">
         <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
         <v>55</v>
       </c>
-      <c r="C57" s="27">
+      <c r="C57" s="24">
         <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
         <v>25</v>
       </c>
       <c r="D57">
         <v>17</v>
       </c>
-      <c r="F57" s="28">
+      <c r="F57" s="25">
         <v>58</v>
       </c>
-      <c r="G57" s="23" t="s">
+      <c r="G57" s="21" t="s">
         <v>623</v>
       </c>
-      <c r="H57" s="27" t="s">
+      <c r="H57" s="24" t="s">
         <v>615</v>
       </c>
-      <c r="I57" s="28"/>
+      <c r="I57" s="25"/>
     </row>
     <row r="58" ht="10.5">
-      <c r="A58" s="27" t="s">
+      <c r="A58" s="24" t="s">
         <v>222</v>
       </c>
-      <c r="B58" s="27">
+      <c r="B58" s="24">
         <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
         <v>56</v>
       </c>
-      <c r="C58" s="27">
+      <c r="C58" s="24">
         <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
         <v>26</v>
       </c>
       <c r="D58">
         <v>17</v>
       </c>
-      <c r="F58" s="28">
+      <c r="F58" s="25">
         <v>59</v>
       </c>
-      <c r="G58" s="23" t="s">
+      <c r="G58" s="21" t="s">
         <v>626</v>
       </c>
-      <c r="H58" s="27" t="s">
+      <c r="H58" s="24" t="s">
         <v>618</v>
       </c>
-      <c r="I58" s="28"/>
+      <c r="I58" s="25"/>
     </row>
     <row r="59" ht="10.5">
-      <c r="A59" s="27" t="s">
+      <c r="A59" s="24" t="s">
         <v>226</v>
       </c>
-      <c r="B59" s="27">
+      <c r="B59" s="24">
         <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
         <v>57</v>
       </c>
-      <c r="C59" s="27">
+      <c r="C59" s="24">
         <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
         <v>27</v>
       </c>
       <c r="D59">
         <v>17</v>
       </c>
-      <c r="F59" s="28">
+      <c r="F59" s="25">
         <v>60</v>
       </c>
-      <c r="G59" s="23" t="s">
+      <c r="G59" s="21" t="s">
         <v>628</v>
       </c>
-      <c r="H59" s="27" t="s">
+      <c r="H59" s="24" t="s">
         <v>620</v>
       </c>
-      <c r="I59" s="28"/>
+      <c r="I59" s="25"/>
     </row>
     <row r="60" ht="10.5">
-      <c r="A60" s="27" t="s">
+      <c r="A60" s="24" t="s">
         <v>230</v>
       </c>
-      <c r="B60" s="27">
+      <c r="B60" s="24">
         <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
         <v>58</v>
       </c>
-      <c r="C60" s="27">
+      <c r="C60" s="24">
         <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
         <v>28</v>
       </c>
       <c r="D60">
         <v>17</v>
       </c>
-      <c r="F60" s="28">
+      <c r="F60" s="25">
         <v>61</v>
       </c>
-      <c r="G60" s="23" t="s">
+      <c r="G60" s="21" t="s">
         <v>630</v>
       </c>
-      <c r="H60" s="27" t="s">
+      <c r="H60" s="24" t="s">
         <v>623</v>
       </c>
-      <c r="I60" s="28"/>
+      <c r="I60" s="25"/>
     </row>
     <row r="61" ht="10.5">
-      <c r="A61" s="27" t="s">
+      <c r="A61" s="24" t="s">
         <v>234</v>
       </c>
-      <c r="B61" s="27">
+      <c r="B61" s="24">
         <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
         <v>59</v>
       </c>
-      <c r="C61" s="27">
+      <c r="C61" s="24">
         <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
         <v>29</v>
       </c>
       <c r="D61">
         <v>17</v>
       </c>
-      <c r="F61" s="28">
+      <c r="F61" s="25">
         <v>62</v>
       </c>
-      <c r="G61" s="23" t="s">
+      <c r="G61" s="21" t="s">
         <v>569</v>
       </c>
-      <c r="H61" s="27" t="s">
+      <c r="H61" s="24" t="s">
         <v>626</v>
       </c>
-      <c r="I61" s="28"/>
+      <c r="I61" s="25"/>
     </row>
     <row r="62" ht="10.5">
-      <c r="A62" s="27" t="s">
+      <c r="A62" s="24" t="s">
         <v>240</v>
       </c>
-      <c r="B62" s="27">
+      <c r="B62" s="24">
         <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
         <v>60</v>
       </c>
-      <c r="C62" s="27">
+      <c r="C62" s="24">
         <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
         <v>30</v>
       </c>
       <c r="D62">
         <v>19</v>
       </c>
-      <c r="F62" s="28">
+      <c r="F62" s="25">
         <v>65</v>
       </c>
-      <c r="G62" s="23" t="s">
+      <c r="G62" s="21" t="s">
         <v>640</v>
       </c>
-      <c r="H62" s="27" t="s">
+      <c r="H62" s="24" t="s">
         <v>628</v>
       </c>
-      <c r="I62" s="28"/>
+      <c r="I62" s="25"/>
     </row>
     <row r="63" ht="10.5">
-      <c r="A63" s="27" t="s">
+      <c r="A63" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="B63" s="27">
+      <c r="B63" s="24">
+        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <v>13</v>
+      </c>
+      <c r="C63" s="24">
+        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <v>14</v>
+      </c>
+      <c r="D63">
+        <v>21</v>
+      </c>
+      <c r="F63" s="25">
+        <v>68</v>
+      </c>
+      <c r="G63" s="21" t="s">
+        <v>640</v>
+      </c>
+      <c r="H63" s="24" t="s">
+        <v>498</v>
+      </c>
+      <c r="I63" s="25"/>
+    </row>
+    <row r="64" ht="10.5">
+      <c r="A64" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="B64" s="24">
+        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <v>39</v>
+      </c>
+      <c r="C64" s="24">
+        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <v>14</v>
+      </c>
+      <c r="D64">
+        <v>22</v>
+      </c>
+      <c r="F64" s="25">
+        <v>70</v>
+      </c>
+      <c r="G64" s="21" t="s">
+        <v>651</v>
+      </c>
+      <c r="H64" s="24" t="s">
+        <v>569</v>
+      </c>
+      <c r="I64" s="25"/>
+    </row>
+    <row r="65" ht="10.5">
+      <c r="A65" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B65" s="24">
+        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <v>39</v>
+      </c>
+      <c r="C65" s="24">
+        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <v>3</v>
+      </c>
+      <c r="D65">
+        <v>24</v>
+      </c>
+      <c r="F65" s="25">
+        <v>73</v>
+      </c>
+      <c r="G65" s="21" t="s">
+        <v>630</v>
+      </c>
+      <c r="H65" s="24" t="s">
+        <v>569</v>
+      </c>
+      <c r="I65" s="25"/>
+    </row>
+    <row r="66" ht="10.5">
+      <c r="A66" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="B66" s="24">
+        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <v>59</v>
+      </c>
+      <c r="C66" s="24">
+        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <v>14</v>
+      </c>
+      <c r="D66">
+        <v>24</v>
+      </c>
+      <c r="F66" s="25">
+        <v>74</v>
+      </c>
+      <c r="G66" s="21" t="s">
+        <v>661</v>
+      </c>
+      <c r="H66" s="24" t="s">
+        <v>626</v>
+      </c>
+      <c r="I66" s="25"/>
+    </row>
+    <row r="67" ht="10.5">
+      <c r="A67" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="B67" s="24">
+        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <v>65</v>
+      </c>
+      <c r="C67" s="24">
+        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <v>14</v>
+      </c>
+      <c r="D67">
+        <v>25</v>
+      </c>
+      <c r="F67" s="25">
+        <v>76</v>
+      </c>
+      <c r="G67" s="21" t="s">
+        <v>666</v>
+      </c>
+      <c r="H67" s="24" t="s">
+        <v>640</v>
+      </c>
+      <c r="I67" s="25"/>
+    </row>
+    <row r="68" ht="10.5">
+      <c r="A68" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B68" s="24">
+        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <v>65</v>
+      </c>
+      <c r="C68" s="24">
+        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <v>6</v>
+      </c>
+      <c r="D68">
+        <v>25</v>
+      </c>
+      <c r="F68" s="25">
+        <v>77</v>
+      </c>
+      <c r="G68" s="21" t="s">
+        <v>630</v>
+      </c>
+      <c r="H68" s="24" t="s">
+        <v>640</v>
+      </c>
+      <c r="I68" s="25"/>
+    </row>
+    <row r="69" ht="10.5">
+      <c r="A69" s="24" t="s">
+        <v>268</v>
+      </c>
+      <c r="B69" s="24">
+        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <v>36</v>
+      </c>
+      <c r="C69" s="24">
+        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <v>31</v>
+      </c>
+      <c r="D69">
+        <v>25</v>
+      </c>
+      <c r="F69" s="25">
+        <v>78</v>
+      </c>
+      <c r="G69" s="21" t="s">
+        <v>669</v>
+      </c>
+      <c r="H69" s="24" t="s">
+        <v>560</v>
+      </c>
+      <c r="I69" s="25"/>
+    </row>
+    <row r="70" ht="10.5">
+      <c r="A70" s="24" t="s">
+        <v>273</v>
+      </c>
+      <c r="B70" s="24">
+        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <v>65</v>
+      </c>
+      <c r="C70" s="24">
+        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <v>32</v>
+      </c>
+      <c r="D70">
+        <v>26</v>
+      </c>
+      <c r="F70" s="25">
+        <v>80</v>
+      </c>
+      <c r="G70" s="21" t="s">
+        <v>674</v>
+      </c>
+      <c r="H70" s="24" t="s">
+        <v>640</v>
+      </c>
+      <c r="I70" s="25"/>
+    </row>
+    <row r="71" ht="10.5">
+      <c r="A71" s="24" t="s">
+        <v>240</v>
+      </c>
+      <c r="B71" s="24">
+        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <v>36</v>
+      </c>
+      <c r="C71" s="24">
+        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <v>30</v>
+      </c>
+      <c r="D71">
+        <v>28</v>
+      </c>
+      <c r="F71" s="25">
+        <v>83</v>
+      </c>
+      <c r="G71" s="21" t="s">
+        <v>682</v>
+      </c>
+      <c r="H71" s="24" t="s">
+        <v>560</v>
+      </c>
+      <c r="I71" s="25"/>
+    </row>
+    <row r="72" ht="10.5">
+      <c r="A72" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="B72" s="24">
+        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <v>70</v>
+      </c>
+      <c r="C72" s="24">
+        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <v>14</v>
+      </c>
+      <c r="D72">
+        <v>30</v>
+      </c>
+      <c r="F72" s="25">
+        <v>86</v>
+      </c>
+      <c r="G72" s="21" t="s">
+        <v>669</v>
+      </c>
+      <c r="H72" s="24" t="s">
+        <v>651</v>
+      </c>
+      <c r="I72" s="25"/>
+    </row>
+    <row r="73" ht="10.5">
+      <c r="A73" s="24" t="s">
+        <v>286</v>
+      </c>
+      <c r="B73" s="24">
+        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <v>70</v>
+      </c>
+      <c r="C73" s="24">
+        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <v>33</v>
+      </c>
+      <c r="D73">
+        <v>31</v>
+      </c>
+      <c r="F73" s="25">
+        <v>88</v>
+      </c>
+      <c r="G73" s="21" t="s">
+        <v>693</v>
+      </c>
+      <c r="H73" s="24" t="s">
+        <v>651</v>
+      </c>
+      <c r="I73" s="25"/>
+    </row>
+    <row r="74" ht="10.5">
+      <c r="A74" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="B74" s="24">
+        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <v>74</v>
+      </c>
+      <c r="C74" s="24">
+        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <v>14</v>
+      </c>
+      <c r="D74">
+        <v>33</v>
+      </c>
+      <c r="F74" s="25">
+        <v>91</v>
+      </c>
+      <c r="G74" s="21" t="s">
+        <v>701</v>
+      </c>
+      <c r="H74" s="24" t="s">
+        <v>661</v>
+      </c>
+      <c r="I74" s="25"/>
+    </row>
+    <row r="75" ht="10.5">
+      <c r="A75" s="24" t="s">
+        <v>296</v>
+      </c>
+      <c r="B75" s="24">
         <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
         <v>61</v>
       </c>
-      <c r="C63" s="27">
+      <c r="C75" s="24">
+        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <v>34</v>
+      </c>
+      <c r="D75">
+        <v>33</v>
+      </c>
+      <c r="F75" s="25">
+        <v>92</v>
+      </c>
+      <c r="G75" s="21" t="s">
+        <v>677</v>
+      </c>
+      <c r="H75" s="24" t="s">
+        <v>630</v>
+      </c>
+      <c r="I75" s="25"/>
+    </row>
+    <row r="76" ht="10.5">
+      <c r="A76" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="B76" s="24">
+        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <v>74</v>
+      </c>
+      <c r="C76" s="24">
+        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <v>12</v>
+      </c>
+      <c r="D76">
+        <v>33</v>
+      </c>
+      <c r="F76" s="25">
+        <v>93</v>
+      </c>
+      <c r="G76" s="21" t="s">
+        <v>704</v>
+      </c>
+      <c r="H76" s="24" t="s">
+        <v>661</v>
+      </c>
+      <c r="I76" s="25"/>
+    </row>
+    <row r="77" ht="10.5">
+      <c r="A77" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="B77" s="24">
+        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <v>9</v>
+      </c>
+      <c r="C77" s="24">
         <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
         <v>14</v>
       </c>
-      <c r="D63">
-        <v>21</v>
-      </c>
-      <c r="F63" s="28">
-        <v>68</v>
-      </c>
-      <c r="G63" s="23" t="s">
-        <v>640</v>
-      </c>
-      <c r="H63" s="27" t="s">
-        <v>630</v>
-      </c>
-      <c r="I63" s="28"/>
-    </row>
-    <row r="64" ht="10.5">
-      <c r="A64" s="27" t="s">
+      <c r="D77">
+        <v>34</v>
+      </c>
+      <c r="F77" s="25">
+        <v>95</v>
+      </c>
+      <c r="G77" s="21" t="s">
+        <v>709</v>
+      </c>
+      <c r="H77" s="24" t="s">
+        <v>486</v>
+      </c>
+      <c r="I77" s="25"/>
+    </row>
+    <row r="78" ht="10.5">
+      <c r="A78" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="B64" s="27">
+      <c r="B78" s="24">
         <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
-        <v>39</v>
-      </c>
-      <c r="C64" s="27">
+        <v>76</v>
+      </c>
+      <c r="C78" s="24">
         <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
         <v>14</v>
       </c>
-      <c r="D64">
-        <v>22</v>
-      </c>
-      <c r="F64" s="28">
-        <v>70</v>
-      </c>
-      <c r="G64" s="23" t="s">
-        <v>651</v>
-      </c>
-      <c r="H64" s="27" t="s">
-        <v>569</v>
-      </c>
-      <c r="I64" s="28"/>
-    </row>
-    <row r="65" ht="10.5">
-      <c r="A65" s="27" t="s">
+      <c r="D78">
+        <v>35</v>
+      </c>
+      <c r="F78" s="25">
+        <v>97</v>
+      </c>
+      <c r="G78" s="21" t="s">
+        <v>714</v>
+      </c>
+      <c r="H78" s="24" t="s">
+        <v>666</v>
+      </c>
+      <c r="I78" s="25"/>
+    </row>
+    <row r="79" ht="10.5">
+      <c r="A79" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="B79" s="24">
+        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <v>61</v>
+      </c>
+      <c r="C79" s="24">
+        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <v>14</v>
+      </c>
+      <c r="D79">
+        <v>35</v>
+      </c>
+      <c r="F79" s="25">
+        <v>98</v>
+      </c>
+      <c r="G79" s="21" t="s">
+        <v>693</v>
+      </c>
+      <c r="H79" s="24" t="s">
+        <v>630</v>
+      </c>
+      <c r="I79" s="25"/>
+    </row>
+    <row r="80" ht="10.5">
+      <c r="A80" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="B80" s="24">
+        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <v>78</v>
+      </c>
+      <c r="C80" s="24">
+        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <v>7</v>
+      </c>
+      <c r="D80">
+        <v>36</v>
+      </c>
+      <c r="F80" s="25">
+        <v>100</v>
+      </c>
+      <c r="G80" s="21" t="s">
+        <v>722</v>
+      </c>
+      <c r="H80" s="24" t="s">
+        <v>669</v>
+      </c>
+      <c r="I80" s="25"/>
+    </row>
+    <row r="81" ht="10.5">
+      <c r="A81" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="B81" s="24">
+        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <v>112</v>
+      </c>
+      <c r="C81" s="24">
+        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <v>12</v>
+      </c>
+      <c r="D81">
+        <v>36</v>
+      </c>
+      <c r="F81" s="25">
+        <v>101</v>
+      </c>
+      <c r="G81" s="21" t="s">
+        <v>725</v>
+      </c>
+      <c r="H81" s="24" t="s">
+        <v>672</v>
+      </c>
+      <c r="I81" s="25"/>
+    </row>
+    <row r="82" ht="10.5">
+      <c r="A82" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B82" s="24">
+        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <v>80</v>
+      </c>
+      <c r="C82" s="24">
+        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <v>6</v>
+      </c>
+      <c r="D82">
+        <v>36</v>
+      </c>
+      <c r="F82" s="25">
+        <v>102</v>
+      </c>
+      <c r="G82" s="21" t="s">
+        <v>727</v>
+      </c>
+      <c r="H82" s="24" t="s">
+        <v>674</v>
+      </c>
+      <c r="I82" s="25"/>
+    </row>
+    <row r="83" ht="10.5">
+      <c r="A83" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="B83" s="24">
+        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <v>92</v>
+      </c>
+      <c r="C83" s="24">
+        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <v>17</v>
+      </c>
+      <c r="D83">
+        <v>37</v>
+      </c>
+      <c r="F83" s="25">
+        <v>104</v>
+      </c>
+      <c r="G83" s="21" t="s">
+        <v>730</v>
+      </c>
+      <c r="H83" s="24" t="s">
+        <v>677</v>
+      </c>
+      <c r="I83" s="25"/>
+    </row>
+    <row r="84" ht="10.5">
+      <c r="A84" s="24" t="s">
+        <v>327</v>
+      </c>
+      <c r="B84" s="24">
+        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <v>92</v>
+      </c>
+      <c r="C84" s="24">
+        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <v>35</v>
+      </c>
+      <c r="D84">
+        <v>37</v>
+      </c>
+      <c r="F84" s="25">
+        <v>105</v>
+      </c>
+      <c r="G84" s="21" t="s">
+        <v>563</v>
+      </c>
+      <c r="H84" s="24" t="s">
+        <v>677</v>
+      </c>
+      <c r="I84" s="25"/>
+    </row>
+    <row r="85" ht="10.5">
+      <c r="A85" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B85" s="24">
+        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <v>83</v>
+      </c>
+      <c r="C85" s="24">
+        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <v>6</v>
+      </c>
+      <c r="D85">
+        <v>37</v>
+      </c>
+      <c r="F85" s="25">
+        <v>106</v>
+      </c>
+      <c r="G85" s="21" t="s">
+        <v>735</v>
+      </c>
+      <c r="H85" s="24" t="s">
+        <v>682</v>
+      </c>
+      <c r="I85" s="25"/>
+    </row>
+    <row r="86" ht="10.5">
+      <c r="A86" s="24" t="s">
+        <v>334</v>
+      </c>
+      <c r="B86" s="24">
+        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <v>83</v>
+      </c>
+      <c r="C86" s="24">
+        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <v>36</v>
+      </c>
+      <c r="D86">
+        <v>37</v>
+      </c>
+      <c r="F86" s="25">
+        <v>107</v>
+      </c>
+      <c r="G86" s="21" t="s">
+        <v>738</v>
+      </c>
+      <c r="H86" s="24" t="s">
+        <v>682</v>
+      </c>
+      <c r="I86" s="25"/>
+    </row>
+    <row r="87" ht="10.5">
+      <c r="A87" s="24" t="s">
+        <v>327</v>
+      </c>
+      <c r="B87" s="24">
+        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <v>83</v>
+      </c>
+      <c r="C87" s="24">
+        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <v>35</v>
+      </c>
+      <c r="D87">
+        <v>38</v>
+      </c>
+      <c r="F87" s="25">
+        <v>109</v>
+      </c>
+      <c r="G87" s="21" t="s">
+        <v>704</v>
+      </c>
+      <c r="H87" s="24" t="s">
+        <v>682</v>
+      </c>
+      <c r="I87" s="25"/>
+    </row>
+    <row r="88" ht="10.5">
+      <c r="A88" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="B88" s="24">
+        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <v>78</v>
+      </c>
+      <c r="C88" s="24">
+        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <v>14</v>
+      </c>
+      <c r="D88">
+        <v>38</v>
+      </c>
+      <c r="F88" s="25">
+        <v>110</v>
+      </c>
+      <c r="G88" s="21" t="s">
+        <v>743</v>
+      </c>
+      <c r="H88" s="24" t="s">
+        <v>669</v>
+      </c>
+      <c r="I88" s="25"/>
+    </row>
+    <row r="89" ht="10.5">
+      <c r="A89" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="B89" s="24">
+        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <v>78</v>
+      </c>
+      <c r="C89" s="24">
+        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <v>12</v>
+      </c>
+      <c r="D89">
+        <v>38</v>
+      </c>
+      <c r="F89" s="25">
+        <v>111</v>
+      </c>
+      <c r="G89" s="21" t="s">
+        <v>727</v>
+      </c>
+      <c r="H89" s="24" t="s">
+        <v>669</v>
+      </c>
+      <c r="I89" s="25"/>
+    </row>
+    <row r="90" ht="10.5">
+      <c r="A90" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="B90" s="24">
+        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <v>118</v>
+      </c>
+      <c r="C90" s="24">
+        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <v>12</v>
+      </c>
+      <c r="D90">
+        <v>38</v>
+      </c>
+      <c r="F90" s="25">
+        <v>112</v>
+      </c>
+      <c r="G90" s="21" t="s">
+        <v>672</v>
+      </c>
+      <c r="H90" s="24" t="s">
+        <v>691</v>
+      </c>
+      <c r="I90" s="25"/>
+    </row>
+    <row r="91" ht="10.5">
+      <c r="A91" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="B91" s="24">
+        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <v>88</v>
+      </c>
+      <c r="C91" s="24">
+        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <v>12</v>
+      </c>
+      <c r="D91">
+        <v>38</v>
+      </c>
+      <c r="F91" s="25">
+        <v>113</v>
+      </c>
+      <c r="G91" s="21" t="s">
+        <v>609</v>
+      </c>
+      <c r="H91" s="24" t="s">
+        <v>693</v>
+      </c>
+      <c r="I91" s="25"/>
+    </row>
+    <row r="92" ht="10.5">
+      <c r="A92" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B92" s="24">
+        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <v>118</v>
+      </c>
+      <c r="C92" s="24">
+        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <v>5</v>
+      </c>
+      <c r="D92">
+        <v>40</v>
+      </c>
+      <c r="F92" s="25">
+        <v>116</v>
+      </c>
+      <c r="G92" s="21" t="s">
+        <v>513</v>
+      </c>
+      <c r="H92" s="24" t="s">
+        <v>691</v>
+      </c>
+      <c r="I92" s="25"/>
+    </row>
+    <row r="93" ht="10.5">
+      <c r="A93" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B93" s="24">
+        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <v>91</v>
+      </c>
+      <c r="C93" s="24">
+        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <v>5</v>
+      </c>
+      <c r="D93">
+        <v>40</v>
+      </c>
+      <c r="F93" s="25">
+        <v>117</v>
+      </c>
+      <c r="G93" s="21" t="s">
+        <v>754</v>
+      </c>
+      <c r="H93" s="24" t="s">
+        <v>701</v>
+      </c>
+      <c r="I93" s="25"/>
+    </row>
+    <row r="94" ht="10.5">
+      <c r="A94" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B94" s="24">
+        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <v>91</v>
+      </c>
+      <c r="C94" s="24">
+        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <v>6</v>
+      </c>
+      <c r="D94">
+        <v>40</v>
+      </c>
+      <c r="F94" s="25">
+        <v>118</v>
+      </c>
+      <c r="G94" s="21" t="s">
+        <v>691</v>
+      </c>
+      <c r="H94" s="24" t="s">
+        <v>701</v>
+      </c>
+      <c r="I94" s="25"/>
+    </row>
+    <row r="95" ht="10.5">
+      <c r="A95" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B95" s="24">
+        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <v>92</v>
+      </c>
+      <c r="C95" s="24">
+        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <v>5</v>
+      </c>
+      <c r="D95">
+        <v>41</v>
+      </c>
+      <c r="H95" s="24" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="96" ht="10.5">
+      <c r="A96" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B96" s="24">
+        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <v>93</v>
+      </c>
+      <c r="C96" s="24">
+        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <v>5</v>
+      </c>
+      <c r="D96">
+        <v>41</v>
+      </c>
+      <c r="H96" s="24" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="97" ht="10.5">
+      <c r="A97" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="B97" s="24">
+        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <v>93</v>
+      </c>
+      <c r="C97" s="24">
+        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <v>17</v>
+      </c>
+      <c r="D97">
+        <v>42</v>
+      </c>
+      <c r="H97" s="24" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="98" ht="10.5">
+      <c r="A98" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="B98" s="24">
+        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <v>95</v>
+      </c>
+      <c r="C98" s="24">
+        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <v>11</v>
+      </c>
+      <c r="D98">
+        <v>42</v>
+      </c>
+      <c r="H98" s="24" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="99" ht="10.5">
+      <c r="A99" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B99" s="24">
+        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <v>95</v>
+      </c>
+      <c r="C99" s="24">
+        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <v>6</v>
+      </c>
+      <c r="D99">
+        <v>42</v>
+      </c>
+      <c r="H99" s="24" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="100" ht="10.5">
+      <c r="A100" s="24" t="s">
+        <v>378</v>
+      </c>
+      <c r="B100" s="24">
+        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <v>97</v>
+      </c>
+      <c r="C100" s="24">
+        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <v>37</v>
+      </c>
+      <c r="D100">
+        <v>42</v>
+      </c>
+      <c r="H100" s="24" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="101" ht="10.5">
+      <c r="A101" s="24" t="s">
+        <v>384</v>
+      </c>
+      <c r="B101" s="24">
+        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <v>88</v>
+      </c>
+      <c r="C101" s="24">
+        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <v>38</v>
+      </c>
+      <c r="D101">
+        <v>44</v>
+      </c>
+      <c r="H101" s="24" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="102" ht="10.5">
+      <c r="A102" s="24" t="s">
+        <v>384</v>
+      </c>
+      <c r="B102" s="24">
+        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <v>118</v>
+      </c>
+      <c r="C102" s="24">
+        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <v>38</v>
+      </c>
+      <c r="D102">
+        <v>44</v>
+      </c>
+      <c r="H102" s="24" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="103" ht="10.5">
+      <c r="A103" s="24" t="s">
+        <v>384</v>
+      </c>
+      <c r="B103" s="24">
+        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <v>100</v>
+      </c>
+      <c r="C103" s="24">
+        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <v>38</v>
+      </c>
+      <c r="D103">
+        <v>44</v>
+      </c>
+      <c r="H103" s="24" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="104" ht="10.5">
+      <c r="A104" s="24" t="s">
+        <v>384</v>
+      </c>
+      <c r="B104" s="24">
+        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <v>101</v>
+      </c>
+      <c r="C104" s="24">
+        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <v>38</v>
+      </c>
+      <c r="D104">
+        <v>44</v>
+      </c>
+      <c r="H104" s="24" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="105" ht="10.5">
+      <c r="A105" s="24" t="s">
+        <v>396</v>
+      </c>
+      <c r="B105" s="24">
+        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <v>102</v>
+      </c>
+      <c r="C105" s="24">
+        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <v>39</v>
+      </c>
+      <c r="D105">
+        <v>44</v>
+      </c>
+      <c r="H105" s="24" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="106" ht="10.5">
+      <c r="A106" s="24" t="s">
+        <v>400</v>
+      </c>
+      <c r="B106" s="24">
+        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <v>102</v>
+      </c>
+      <c r="C106" s="24">
+        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <v>40</v>
+      </c>
+      <c r="D106">
+        <v>44</v>
+      </c>
+      <c r="H106" s="24" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="107" ht="10.5">
+      <c r="A107" s="21" t="s">
+        <v>384</v>
+      </c>
+      <c r="B107" s="24">
+        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <v>104</v>
+      </c>
+      <c r="C107" s="24">
+        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <v>38</v>
+      </c>
+      <c r="D107">
+        <v>44</v>
+      </c>
+      <c r="H107" s="24" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="108" ht="10.5">
+      <c r="A108" s="24" t="s">
+        <v>408</v>
+      </c>
+      <c r="B108" s="24">
+        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <v>37</v>
+      </c>
+      <c r="C108" s="24">
+        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <v>42</v>
+      </c>
+      <c r="D108">
+        <v>44</v>
+      </c>
+      <c r="H108" s="24" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="109" ht="10.5">
+      <c r="A109" s="24" t="s">
+        <v>408</v>
+      </c>
+      <c r="B109" s="24">
+        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <v>106</v>
+      </c>
+      <c r="C109" s="24">
+        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <v>42</v>
+      </c>
+      <c r="D109">
+        <v>44</v>
+      </c>
+      <c r="H109" s="24" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="110" ht="10.5">
+      <c r="A110" s="24" t="s">
+        <v>416</v>
+      </c>
+      <c r="B110" s="24">
+        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <v>107</v>
+      </c>
+      <c r="C110" s="24">
+        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <v>43</v>
+      </c>
+      <c r="D110">
+        <v>46</v>
+      </c>
+      <c r="H110" s="24" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="111" ht="10.5">
+      <c r="A111" s="24" t="s">
+        <v>416</v>
+      </c>
+      <c r="B111" s="24">
+        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <v>7</v>
+      </c>
+      <c r="C111" s="24">
+        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <v>43</v>
+      </c>
+      <c r="D111">
+        <v>46</v>
+      </c>
+      <c r="H111" s="24" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="112" ht="10.5">
+      <c r="A112" s="24" t="s">
+        <v>416</v>
+      </c>
+      <c r="B112" s="24">
+        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <v>93</v>
+      </c>
+      <c r="C112" s="24">
+        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <v>43</v>
+      </c>
+      <c r="D112">
+        <v>46</v>
+      </c>
+      <c r="H112" s="24" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="113" ht="10.5">
+      <c r="A113" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B65" s="27">
-        <v>44</v>
-      </c>
-      <c r="C65" s="27">
+      <c r="B113" s="24">
+        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <v>110</v>
+      </c>
+      <c r="C113" s="24">
         <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
         <v>3</v>
       </c>
-      <c r="D65">
-        <v>24</v>
-      </c>
-      <c r="F65" s="28">
-        <v>73</v>
-      </c>
-      <c r="G65" s="23" t="s">
-        <v>630</v>
-      </c>
-      <c r="H65" s="27" t="s">
-        <v>635</v>
-      </c>
-      <c r="I65" s="28"/>
-    </row>
-    <row r="66" ht="10.5">
-      <c r="A66" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="B66" s="27">
-        <v>51</v>
-      </c>
-      <c r="C66" s="27">
+      <c r="D113">
+        <v>47</v>
+      </c>
+      <c r="H113" s="24" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="114" ht="10.5">
+      <c r="A114" s="24" t="s">
+        <v>428</v>
+      </c>
+      <c r="B114" s="24">
+        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <v>102</v>
+      </c>
+      <c r="C114" s="24">
         <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
-        <v>14</v>
-      </c>
-      <c r="D66">
-        <v>24</v>
-      </c>
-      <c r="F66" s="28">
-        <v>74</v>
-      </c>
-      <c r="G66" s="23" t="s">
-        <v>661</v>
-      </c>
-      <c r="H66" s="27" t="s">
-        <v>637</v>
-      </c>
-      <c r="I66" s="28"/>
-    </row>
-    <row r="67" ht="10.5">
-      <c r="A67" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="B67" s="27">
+        <v>44</v>
+      </c>
+      <c r="D114">
+        <v>47</v>
+      </c>
+      <c r="H114" s="24" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="115" ht="10.5">
+      <c r="A115" s="24" t="s">
+        <v>416</v>
+      </c>
+      <c r="B115" s="24">
         <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
-        <v>65</v>
-      </c>
-      <c r="C67" s="27">
+        <v>112</v>
+      </c>
+      <c r="C115" s="24">
         <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
-        <v>14</v>
-      </c>
-      <c r="D67">
-        <v>25</v>
-      </c>
-      <c r="F67" s="28">
-        <v>76</v>
-      </c>
-      <c r="G67" s="23" t="s">
-        <v>666</v>
-      </c>
-      <c r="H67" s="27" t="s">
-        <v>640</v>
-      </c>
-      <c r="I67" s="28"/>
-    </row>
-    <row r="68" ht="10.5">
-      <c r="A68" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="B68" s="27">
-        <v>36</v>
-      </c>
-      <c r="C68" s="27">
+      <c r="D115">
+        <v>47</v>
+      </c>
+      <c r="H115" s="24" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="116" ht="10.5">
+      <c r="A116" s="24" t="s">
+        <v>416</v>
+      </c>
+      <c r="B116" s="24">
+        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <v>53</v>
+      </c>
+      <c r="C116" s="24">
+        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <v>43</v>
+      </c>
+      <c r="D116">
+        <v>47</v>
+      </c>
+      <c r="H116" s="24" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="117" ht="10.5">
+      <c r="A117" s="24" t="s">
+        <v>436</v>
+      </c>
+      <c r="B117" s="24">
+        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <v>112</v>
+      </c>
+      <c r="C117" s="24">
+        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <v>45</v>
+      </c>
+      <c r="D117">
+        <v>48</v>
+      </c>
+      <c r="H117" s="24" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="118" ht="10.5">
+      <c r="A118" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B118" s="24">
+        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <v>53</v>
+      </c>
+      <c r="C118" s="24">
         <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
         <v>6</v>
       </c>
-      <c r="D68">
-        <v>25</v>
-      </c>
-      <c r="F68" s="28">
-        <v>77</v>
-      </c>
-      <c r="G68" s="23" t="s">
-        <v>630</v>
-      </c>
-      <c r="H68" s="27" t="s">
-        <v>643</v>
-      </c>
-      <c r="I68" s="28"/>
-    </row>
-    <row r="69" ht="10.5">
-      <c r="A69" s="27" t="s">
-        <v>268</v>
-      </c>
-      <c r="B69" s="27">
+      <c r="D118">
+        <v>48</v>
+      </c>
+      <c r="H118" s="24" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="119" ht="10.5">
+      <c r="A119" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="B119" s="24">
+        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <v>19</v>
+      </c>
+      <c r="C119" s="24">
+        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <v>11</v>
+      </c>
+      <c r="D119">
+        <v>50</v>
+      </c>
+      <c r="H119" s="24" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="120" ht="10.5">
+      <c r="A120" s="24" t="s">
+        <v>327</v>
+      </c>
+      <c r="B120" s="24">
+        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <v>117</v>
+      </c>
+      <c r="C120" s="24">
+        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
         <v>35</v>
       </c>
-      <c r="C69" s="27">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
-        <v>31</v>
-      </c>
-      <c r="D69">
-        <v>25</v>
-      </c>
-      <c r="F69" s="28">
-        <v>78</v>
-      </c>
-      <c r="G69" s="23" t="s">
-        <v>669</v>
-      </c>
-      <c r="H69" s="27" t="s">
-        <v>646</v>
-      </c>
-      <c r="I69" s="28"/>
-    </row>
-    <row r="70" ht="10.5">
-      <c r="A70" s="27" t="s">
-        <v>273</v>
-      </c>
-      <c r="B70" s="27">
+      <c r="D120">
+        <v>51</v>
+      </c>
+      <c r="H120" s="24" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="121" ht="10.5">
+      <c r="A121" s="24" t="s">
+        <v>240</v>
+      </c>
+      <c r="B121" s="24">
         <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
-        <v>65</v>
-      </c>
-      <c r="C70" s="27">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
-        <v>32</v>
-      </c>
-      <c r="D70">
-        <v>26</v>
-      </c>
-      <c r="F70" s="28">
-        <v>80</v>
-      </c>
-      <c r="G70" s="23" t="s">
-        <v>674</v>
-      </c>
-      <c r="H70" s="27" t="s">
-        <v>640</v>
-      </c>
-      <c r="I70" s="28"/>
-    </row>
-    <row r="71" ht="10.5">
-      <c r="A71" s="27" t="s">
-        <v>240</v>
-      </c>
-      <c r="B71" s="27">
-        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
-        <v>36</v>
-      </c>
-      <c r="C71" s="27">
+        <v>118</v>
+      </c>
+      <c r="C121" s="24">
         <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
         <v>30</v>
       </c>
-      <c r="D71">
-        <v>28</v>
-      </c>
-      <c r="F71" s="28">
-        <v>83</v>
-      </c>
-      <c r="G71" s="23" t="s">
-        <v>682</v>
-      </c>
-      <c r="H71" s="27" t="s">
-        <v>560</v>
-      </c>
-      <c r="I71" s="28"/>
-    </row>
-    <row r="72" ht="10.5">
-      <c r="A72" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="B72" s="27">
-        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
-        <v>70</v>
-      </c>
-      <c r="C72" s="27">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
-        <v>14</v>
-      </c>
-      <c r="D72">
-        <v>30</v>
-      </c>
-      <c r="F72" s="28">
-        <v>86</v>
-      </c>
-      <c r="G72" s="23" t="s">
-        <v>669</v>
-      </c>
-      <c r="H72" s="27" t="s">
-        <v>651</v>
-      </c>
-      <c r="I72" s="28"/>
-    </row>
-    <row r="73" ht="10.5">
-      <c r="A73" s="27" t="s">
-        <v>286</v>
-      </c>
-      <c r="B73" s="27">
-        <v>2</v>
-      </c>
-      <c r="C73" s="27">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
-        <v>33</v>
-      </c>
-      <c r="D73">
-        <v>31</v>
-      </c>
-      <c r="F73" s="28">
-        <v>88</v>
-      </c>
-      <c r="G73" s="23" t="s">
-        <v>693</v>
-      </c>
-      <c r="H73" s="27" t="s">
-        <v>654</v>
-      </c>
-      <c r="I73" s="28"/>
-    </row>
-    <row r="74" ht="10.5">
-      <c r="A74" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="B74" s="27">
-        <v>4</v>
-      </c>
-      <c r="C74" s="27">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
-        <v>14</v>
-      </c>
-      <c r="D74">
-        <v>33</v>
-      </c>
-      <c r="F74" s="28">
-        <v>91</v>
-      </c>
-      <c r="G74" s="23" t="s">
-        <v>701</v>
-      </c>
-      <c r="H74" s="27" t="s">
-        <v>656</v>
-      </c>
-      <c r="I74" s="28"/>
-    </row>
-    <row r="75" ht="10.5">
-      <c r="A75" s="27" t="s">
-        <v>296</v>
-      </c>
-      <c r="B75" s="27">
-        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
-        <v>61</v>
-      </c>
-      <c r="C75" s="27">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
-        <v>34</v>
-      </c>
-      <c r="D75">
-        <v>33</v>
-      </c>
-      <c r="F75" s="28">
-        <v>92</v>
-      </c>
-      <c r="G75" s="23" t="s">
-        <v>677</v>
-      </c>
-      <c r="H75" s="27" t="s">
-        <v>630</v>
-      </c>
-      <c r="I75" s="28"/>
-    </row>
-    <row r="76" ht="10.5">
-      <c r="A76" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="B76" s="27">
-        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
-        <v>74</v>
-      </c>
-      <c r="C76" s="27">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
-        <v>12</v>
-      </c>
-      <c r="D76">
-        <v>33</v>
-      </c>
-      <c r="F76" s="28">
-        <v>93</v>
-      </c>
-      <c r="G76" s="23" t="s">
-        <v>704</v>
-      </c>
-      <c r="H76" s="27" t="s">
-        <v>661</v>
-      </c>
-      <c r="I76" s="28"/>
-    </row>
-    <row r="77" ht="10.5">
-      <c r="A77" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="B77" s="27">
-        <v>5</v>
-      </c>
-      <c r="C77" s="27">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
-        <v>14</v>
-      </c>
-      <c r="D77">
-        <v>34</v>
-      </c>
-      <c r="F77" s="28">
-        <v>95</v>
-      </c>
-      <c r="G77" s="23" t="s">
-        <v>709</v>
-      </c>
-      <c r="H77" s="27" t="s">
-        <v>664</v>
-      </c>
-      <c r="I77" s="28"/>
-    </row>
-    <row r="78" ht="10.5">
-      <c r="A78" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="B78" s="27">
-        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
-        <v>76</v>
-      </c>
-      <c r="C78" s="27">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
-        <v>14</v>
-      </c>
-      <c r="D78">
-        <v>35</v>
-      </c>
-      <c r="F78" s="28">
-        <v>97</v>
-      </c>
-      <c r="G78" s="23" t="s">
-        <v>714</v>
-      </c>
-      <c r="H78" s="27" t="s">
-        <v>666</v>
-      </c>
-      <c r="I78" s="28"/>
-    </row>
-    <row r="79" ht="10.5">
-      <c r="A79" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="B79" s="27">
-        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
-        <v>61</v>
-      </c>
-      <c r="C79" s="27">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
-        <v>14</v>
-      </c>
-      <c r="D79">
-        <v>35</v>
-      </c>
-      <c r="F79" s="28">
-        <v>98</v>
-      </c>
-      <c r="G79" s="23" t="s">
-        <v>693</v>
-      </c>
-      <c r="H79" s="27" t="s">
-        <v>630</v>
-      </c>
-      <c r="I79" s="28"/>
-    </row>
-    <row r="80" ht="10.5">
-      <c r="A80" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="B80" s="27">
-        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
-        <v>78</v>
-      </c>
-      <c r="C80" s="27">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
-        <v>7</v>
-      </c>
-      <c r="D80">
-        <v>36</v>
-      </c>
-      <c r="F80" s="28">
-        <v>100</v>
-      </c>
-      <c r="G80" s="23" t="s">
-        <v>722</v>
-      </c>
-      <c r="H80" s="27" t="s">
-        <v>669</v>
-      </c>
-      <c r="I80" s="28"/>
-    </row>
-    <row r="81" ht="10.5">
-      <c r="A81" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="B81" s="27">
-        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
-        <v>112</v>
-      </c>
-      <c r="C81" s="27">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
-        <v>12</v>
-      </c>
-      <c r="D81">
-        <v>36</v>
-      </c>
-      <c r="F81" s="28">
-        <v>101</v>
-      </c>
-      <c r="G81" s="23" t="s">
-        <v>725</v>
-      </c>
-      <c r="H81" s="27" t="s">
-        <v>672</v>
-      </c>
-      <c r="I81" s="28"/>
-    </row>
-    <row r="82" ht="10.5">
-      <c r="A82" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="B82" s="27">
-        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
-        <v>80</v>
-      </c>
-      <c r="C82" s="27">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
-        <v>6</v>
-      </c>
-      <c r="D82">
-        <v>36</v>
-      </c>
-      <c r="F82" s="28">
-        <v>102</v>
-      </c>
-      <c r="G82" s="23" t="s">
-        <v>727</v>
-      </c>
-      <c r="H82" s="27" t="s">
-        <v>674</v>
-      </c>
-      <c r="I82" s="28"/>
-    </row>
-    <row r="83" ht="10.5">
-      <c r="A83" s="27" t="s">
-        <v>167</v>
-      </c>
-      <c r="B83" s="27">
-        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
-        <v>92</v>
-      </c>
-      <c r="C83" s="27">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
-        <v>17</v>
-      </c>
-      <c r="D83">
-        <v>37</v>
-      </c>
-      <c r="F83" s="28">
-        <v>104</v>
-      </c>
-      <c r="G83" s="23" t="s">
-        <v>730</v>
-      </c>
-      <c r="H83" s="27" t="s">
-        <v>677</v>
-      </c>
-      <c r="I83" s="28"/>
-    </row>
-    <row r="84" ht="10.5">
-      <c r="A84" s="27" t="s">
-        <v>327</v>
-      </c>
-      <c r="B84" s="27">
-        <v>65</v>
-      </c>
-      <c r="C84" s="27">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
-        <v>35</v>
-      </c>
-      <c r="D84">
-        <v>37</v>
-      </c>
-      <c r="F84" s="28">
-        <v>105</v>
-      </c>
-      <c r="G84" s="23" t="s">
-        <v>563</v>
-      </c>
-      <c r="H84" s="27" t="s">
-        <v>679</v>
-      </c>
-      <c r="I84" s="28"/>
-    </row>
-    <row r="85" ht="10.5">
-      <c r="A85" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="B85" s="27">
-        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
-        <v>83</v>
-      </c>
-      <c r="C85" s="27">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
-        <v>6</v>
-      </c>
-      <c r="D85">
-        <v>37</v>
-      </c>
-      <c r="F85" s="28">
-        <v>106</v>
-      </c>
-      <c r="G85" s="23" t="s">
-        <v>735</v>
-      </c>
-      <c r="H85" s="27" t="s">
-        <v>682</v>
-      </c>
-      <c r="I85" s="28"/>
-    </row>
-    <row r="86" ht="10.5">
-      <c r="A86" s="27" t="s">
-        <v>334</v>
-      </c>
-      <c r="B86" s="27">
-        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
-        <v>83</v>
-      </c>
-      <c r="C86" s="27">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
-        <v>36</v>
-      </c>
-      <c r="D86">
-        <v>37</v>
-      </c>
-      <c r="F86" s="28">
-        <v>107</v>
-      </c>
-      <c r="G86" s="23" t="s">
-        <v>738</v>
-      </c>
-      <c r="H86" s="27" t="s">
-        <v>682</v>
-      </c>
-      <c r="I86" s="28"/>
-    </row>
-    <row r="87" ht="10.5">
-      <c r="A87" s="27" t="s">
-        <v>327</v>
-      </c>
-      <c r="B87" s="27">
-        <v>61</v>
-      </c>
-      <c r="C87" s="27">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
-        <v>35</v>
-      </c>
-      <c r="D87">
-        <v>38</v>
-      </c>
-      <c r="F87" s="28">
-        <v>109</v>
-      </c>
-      <c r="G87" s="23" t="s">
-        <v>704</v>
-      </c>
-      <c r="H87" s="27" t="s">
-        <v>684</v>
-      </c>
-      <c r="I87" s="28"/>
-    </row>
-    <row r="88" ht="10.5">
-      <c r="A88" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="B88" s="27">
-        <v>78</v>
-      </c>
-      <c r="C88" s="27">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
-        <v>14</v>
-      </c>
-      <c r="D88">
-        <v>38</v>
-      </c>
-      <c r="F88" s="28">
-        <v>110</v>
-      </c>
-      <c r="G88" s="23" t="s">
-        <v>743</v>
-      </c>
-      <c r="H88" s="27" t="s">
-        <v>686</v>
-      </c>
-      <c r="I88" s="28"/>
-    </row>
-    <row r="89" ht="10.5">
-      <c r="A89" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="B89" s="27">
-        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
-        <v>78</v>
-      </c>
-      <c r="C89" s="27">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
-        <v>12</v>
-      </c>
-      <c r="D89">
-        <v>38</v>
-      </c>
-      <c r="F89" s="28">
-        <v>111</v>
-      </c>
-      <c r="G89" s="23" t="s">
-        <v>727</v>
-      </c>
-      <c r="H89" s="27" t="s">
-        <v>669</v>
-      </c>
-      <c r="I89" s="28"/>
-    </row>
-    <row r="90" ht="10.5">
-      <c r="A90" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="B90" s="27">
-        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
-        <v>118</v>
-      </c>
-      <c r="C90" s="27">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
-        <v>12</v>
-      </c>
-      <c r="D90">
-        <v>38</v>
-      </c>
-      <c r="F90" s="28">
-        <v>112</v>
-      </c>
-      <c r="G90" s="23" t="s">
-        <v>672</v>
-      </c>
-      <c r="H90" s="27" t="s">
-        <v>691</v>
-      </c>
-      <c r="I90" s="28"/>
-    </row>
-    <row r="91" ht="10.5">
-      <c r="A91" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="B91" s="27">
-        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
-        <v>88</v>
-      </c>
-      <c r="C91" s="27">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
-        <v>12</v>
-      </c>
-      <c r="D91">
-        <v>38</v>
-      </c>
-      <c r="F91" s="28">
-        <v>113</v>
-      </c>
-      <c r="G91" s="23" t="s">
-        <v>609</v>
-      </c>
-      <c r="H91" s="27" t="s">
-        <v>693</v>
-      </c>
-      <c r="I91" s="28"/>
-    </row>
-    <row r="92" ht="10.5">
-      <c r="A92" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="B92" s="27">
-        <v>95</v>
-      </c>
-      <c r="C92" s="27">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
-        <v>5</v>
-      </c>
-      <c r="D92">
-        <v>40</v>
-      </c>
-      <c r="F92" s="28">
-        <v>116</v>
-      </c>
-      <c r="G92" s="23" t="s">
-        <v>513</v>
-      </c>
-      <c r="H92" s="27" t="s">
-        <v>696</v>
-      </c>
-      <c r="I92" s="28"/>
-    </row>
-    <row r="93" ht="10.5">
-      <c r="A93" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="B93" s="27">
-        <v>98</v>
-      </c>
-      <c r="C93" s="27">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
-        <v>5</v>
-      </c>
-      <c r="D93">
-        <v>40</v>
-      </c>
-      <c r="F93" s="28">
-        <v>117</v>
-      </c>
-      <c r="G93" s="23" t="s">
-        <v>754</v>
-      </c>
-      <c r="H93" s="27" t="s">
-        <v>699</v>
-      </c>
-      <c r="I93" s="28"/>
-    </row>
-    <row r="94" ht="10.5">
-      <c r="A94" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="B94" s="27">
-        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
-        <v>91</v>
-      </c>
-      <c r="C94" s="27">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
-        <v>6</v>
-      </c>
-      <c r="D94">
-        <v>40</v>
-      </c>
-      <c r="F94" s="28">
-        <v>118</v>
-      </c>
-      <c r="G94" s="23" t="s">
-        <v>691</v>
-      </c>
-      <c r="H94" s="27" t="s">
-        <v>701</v>
-      </c>
-      <c r="I94" s="28"/>
-    </row>
-    <row r="95" ht="10.5">
-      <c r="A95" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="B95" s="27">
-        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
-        <v>92</v>
-      </c>
-      <c r="C95" s="27">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
-        <v>5</v>
-      </c>
-      <c r="D95">
-        <v>41</v>
-      </c>
-      <c r="H95" s="27" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="96" ht="10.5">
-      <c r="A96" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="B96" s="27">
-        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
-        <v>93</v>
-      </c>
-      <c r="C96" s="27">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
-        <v>5</v>
-      </c>
-      <c r="D96">
-        <v>41</v>
-      </c>
-      <c r="H96" s="27" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="97" ht="10.5">
-      <c r="A97" s="27" t="s">
-        <v>167</v>
-      </c>
-      <c r="B97" s="27">
-        <v>101</v>
-      </c>
-      <c r="C97" s="27">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
-        <v>17</v>
-      </c>
-      <c r="D97">
-        <v>42</v>
-      </c>
-      <c r="H97" s="27" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="98" ht="10.5">
-      <c r="A98" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="B98" s="27">
-        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
-        <v>95</v>
-      </c>
-      <c r="C98" s="27">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
-        <v>11</v>
-      </c>
-      <c r="D98">
-        <v>42</v>
-      </c>
-      <c r="H98" s="27" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="99" ht="10.5">
-      <c r="A99" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="B99" s="27">
-        <v>104</v>
-      </c>
-      <c r="C99" s="27">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
-        <v>6</v>
-      </c>
-      <c r="D99">
-        <v>42</v>
-      </c>
-      <c r="H99" s="27" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="100" ht="10.5">
-      <c r="A100" s="27" t="s">
-        <v>378</v>
-      </c>
-      <c r="B100" s="27">
-        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
-        <v>97</v>
-      </c>
-      <c r="C100" s="27">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
-        <v>37</v>
-      </c>
-      <c r="D100">
-        <v>42</v>
-      </c>
-      <c r="H100" s="27" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="101" ht="10.5">
-      <c r="A101" s="27" t="s">
-        <v>384</v>
-      </c>
-      <c r="B101" s="27">
-        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
-        <v>88</v>
-      </c>
-      <c r="C101" s="27">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
-        <v>38</v>
-      </c>
-      <c r="D101">
-        <v>44</v>
-      </c>
-      <c r="H101" s="27" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="102" ht="10.5">
-      <c r="A102" s="27" t="s">
-        <v>384</v>
-      </c>
-      <c r="B102" s="27">
-        <v>99</v>
-      </c>
-      <c r="C102" s="27">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
-        <v>38</v>
-      </c>
-      <c r="D102">
-        <v>44</v>
-      </c>
-      <c r="H102" s="27" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="103" ht="10.5">
-      <c r="A103" s="27" t="s">
-        <v>384</v>
-      </c>
-      <c r="B103" s="27">
-        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
-        <v>100</v>
-      </c>
-      <c r="C103" s="27">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
-        <v>38</v>
-      </c>
-      <c r="D103">
-        <v>44</v>
-      </c>
-      <c r="H103" s="27" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="104" ht="10.5">
-      <c r="A104" s="27" t="s">
-        <v>384</v>
-      </c>
-      <c r="B104" s="27">
-        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
-        <v>101</v>
-      </c>
-      <c r="C104" s="27">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
-        <v>38</v>
-      </c>
-      <c r="D104">
-        <v>44</v>
-      </c>
-      <c r="H104" s="27" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="105" ht="10.5">
-      <c r="A105" s="27" t="s">
-        <v>396</v>
-      </c>
-      <c r="B105" s="27">
-        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
-        <v>102</v>
-      </c>
-      <c r="C105" s="27">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
-        <v>39</v>
-      </c>
-      <c r="D105">
-        <v>44</v>
-      </c>
-      <c r="H105" s="27" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="106" ht="10.5">
-      <c r="A106" s="27" t="s">
-        <v>400</v>
-      </c>
-      <c r="B106" s="27">
-        <v>105</v>
-      </c>
-      <c r="C106" s="27">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
-        <v>40</v>
-      </c>
-      <c r="D106">
-        <v>44</v>
-      </c>
-      <c r="H106" s="27" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="107" ht="10.5">
-      <c r="A107" s="27" t="s">
-        <v>404</v>
-      </c>
-      <c r="B107" s="27">
-        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
-        <v>104</v>
-      </c>
-      <c r="C107" s="27">
-        <v>38</v>
-      </c>
-      <c r="D107">
-        <v>44</v>
-      </c>
-      <c r="H107" s="27" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="108" ht="10.5">
-      <c r="A108" s="27" t="s">
-        <v>408</v>
-      </c>
-      <c r="B108" s="27">
-        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
-        <v>37</v>
-      </c>
-      <c r="C108" s="27">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
-        <v>42</v>
-      </c>
-      <c r="D108">
-        <v>44</v>
-      </c>
-      <c r="H108" s="27" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="109" ht="10.5">
-      <c r="A109" s="27" t="s">
-        <v>408</v>
-      </c>
-      <c r="B109" s="27">
-        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
-        <v>106</v>
-      </c>
-      <c r="C109" s="27">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
-        <v>42</v>
-      </c>
-      <c r="D109">
-        <v>44</v>
-      </c>
-      <c r="H109" s="27" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="110" ht="10.5">
-      <c r="A110" s="27" t="s">
-        <v>416</v>
-      </c>
-      <c r="B110" s="27">
-        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
-        <v>107</v>
-      </c>
-      <c r="C110" s="27">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
-        <v>43</v>
-      </c>
-      <c r="D110">
-        <v>46</v>
-      </c>
-      <c r="H110" s="27" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="111" ht="10.5">
-      <c r="A111" s="27" t="s">
-        <v>416</v>
-      </c>
-      <c r="B111" s="27">
-        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
-        <v>7</v>
-      </c>
-      <c r="C111" s="27">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
-        <v>43</v>
-      </c>
-      <c r="D111">
-        <v>46</v>
-      </c>
-      <c r="H111" s="27" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="112" ht="10.5">
-      <c r="A112" s="27" t="s">
-        <v>416</v>
-      </c>
-      <c r="B112" s="27">
-        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
-        <v>93</v>
-      </c>
-      <c r="C112" s="27">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
-        <v>43</v>
-      </c>
-      <c r="D112">
-        <v>46</v>
-      </c>
-      <c r="H112" s="27" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="113" ht="10.5">
-      <c r="A113" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B113" s="27">
-        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
-        <v>110</v>
-      </c>
-      <c r="C113" s="27">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
-        <v>3</v>
-      </c>
-      <c r="D113">
-        <v>47</v>
-      </c>
-      <c r="H113" s="27" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="114" ht="10.5">
-      <c r="A114" s="27" t="s">
-        <v>428</v>
-      </c>
-      <c r="B114" s="27">
-        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
-        <v>102</v>
-      </c>
-      <c r="C114" s="27">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
-        <v>44</v>
-      </c>
-      <c r="D114">
-        <v>47</v>
-      </c>
-      <c r="H114" s="27" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="115" ht="10.5">
-      <c r="A115" s="27" t="s">
-        <v>416</v>
-      </c>
-      <c r="B115" s="27">
-        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
-        <v>112</v>
-      </c>
-      <c r="C115" s="27">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
-        <v>43</v>
-      </c>
-      <c r="D115">
-        <v>47</v>
-      </c>
-      <c r="H115" s="27" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="116" ht="10.5">
-      <c r="A116" s="27" t="s">
-        <v>416</v>
-      </c>
-      <c r="B116" s="27">
-        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
-        <v>53</v>
-      </c>
-      <c r="C116" s="27">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
-        <v>43</v>
-      </c>
-      <c r="D116">
-        <v>47</v>
-      </c>
-      <c r="H116" s="27" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="117" ht="10.5">
-      <c r="A117" s="27" t="s">
-        <v>436</v>
-      </c>
-      <c r="B117" s="27">
-        <v>118</v>
-      </c>
-      <c r="C117" s="27">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
-        <v>45</v>
-      </c>
-      <c r="D117">
-        <v>48</v>
-      </c>
-      <c r="H117" s="27" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="118" ht="10.5">
-      <c r="A118" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="B118" s="27">
-        <v>117</v>
-      </c>
-      <c r="C118" s="27">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
-        <v>6</v>
-      </c>
-      <c r="D118">
-        <v>48</v>
-      </c>
-      <c r="H118" s="27" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="119" ht="10.5">
-      <c r="A119" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="B119" s="27">
-        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
-        <v>19</v>
-      </c>
-      <c r="C119" s="27">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
-        <v>11</v>
-      </c>
-      <c r="D119">
-        <v>50</v>
-      </c>
-      <c r="H119" s="27" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="120" ht="10.5">
-      <c r="A120" s="27" t="s">
-        <v>327</v>
-      </c>
-      <c r="B120" s="27">
-        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
-        <v>117</v>
-      </c>
-      <c r="C120" s="27">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
-        <v>35</v>
-      </c>
-      <c r="D120">
-        <v>51</v>
-      </c>
-      <c r="H120" s="27" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="121" ht="10.5">
-      <c r="A121" s="27" t="s">
-        <v>240</v>
-      </c>
-      <c r="B121" s="27">
-        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
-        <v>118</v>
-      </c>
-      <c r="C121" s="27">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
-        <v>30</v>
-      </c>
       <c r="D121">
         <v>51</v>
       </c>
-      <c r="H121" s="27" t="s">
+      <c r="H121" s="24" t="s">
         <v>691</v>
       </c>
     </row>

--- a/task01.31/Сессия 1/Орг.структура.xlsx
+++ b/task01.31/Сессия 1/Орг.структура.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr date1904="0"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="5"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TDSheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -2465,10 +2465,10 @@
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
       <protection hidden="0" locked="1"/>
     </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -9580,6 +9580,21 @@
       <c r="F2">
         <v>2</v>
       </c>
+      <c r="H2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>2</v>
+      </c>
+      <c r="M2" s="19">
+        <v>1</v>
+      </c>
+      <c r="N2" s="19">
+        <v>2</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="18">
@@ -9598,6 +9613,18 @@
       <c r="F3">
         <v>3</v>
       </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>3</v>
+      </c>
+      <c r="M3" s="19">
+        <v>1</v>
+      </c>
+      <c r="N3" s="19">
+        <v>3</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="18">
@@ -9616,6 +9643,18 @@
       <c r="F4">
         <v>4</v>
       </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>4</v>
+      </c>
+      <c r="M4" s="19">
+        <v>1</v>
+      </c>
+      <c r="N4" s="19">
+        <v>4</v>
+      </c>
     </row>
     <row r="5" ht="21">
       <c r="A5" s="18">
@@ -9634,6 +9673,18 @@
       <c r="F5">
         <v>5</v>
       </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>5</v>
+      </c>
+      <c r="M5" s="19">
+        <v>1</v>
+      </c>
+      <c r="N5" s="19">
+        <v>5</v>
+      </c>
     </row>
     <row r="6" ht="21">
       <c r="A6" s="18">
@@ -9652,6 +9703,18 @@
       <c r="F6">
         <v>6</v>
       </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>6</v>
+      </c>
+      <c r="M6" s="19">
+        <v>1</v>
+      </c>
+      <c r="N6" s="19">
+        <v>6</v>
+      </c>
     </row>
     <row r="7" ht="21">
       <c r="A7" s="18">
@@ -9670,6 +9733,18 @@
       <c r="F7">
         <v>7</v>
       </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>7</v>
+      </c>
+      <c r="M7" s="19">
+        <v>1</v>
+      </c>
+      <c r="N7" s="19">
+        <v>7</v>
+      </c>
     </row>
     <row r="8" ht="21">
       <c r="A8" s="18">
@@ -9688,6 +9763,18 @@
       <c r="F8">
         <v>8</v>
       </c>
+      <c r="I8">
+        <v>7</v>
+      </c>
+      <c r="J8">
+        <v>8</v>
+      </c>
+      <c r="M8" s="19">
+        <v>7</v>
+      </c>
+      <c r="N8" s="19">
+        <v>8</v>
+      </c>
     </row>
     <row r="9" ht="21">
       <c r="A9" s="18">
@@ -9706,6 +9793,18 @@
       <c r="F9">
         <v>9</v>
       </c>
+      <c r="I9">
+        <v>7</v>
+      </c>
+      <c r="J9">
+        <v>9</v>
+      </c>
+      <c r="M9" s="19">
+        <v>7</v>
+      </c>
+      <c r="N9" s="19">
+        <v>9</v>
+      </c>
     </row>
     <row r="10" ht="21">
       <c r="A10" s="18">
@@ -9724,6 +9823,18 @@
       <c r="F10">
         <v>10</v>
       </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>10</v>
+      </c>
+      <c r="M10" s="19">
+        <v>1</v>
+      </c>
+      <c r="N10" s="19">
+        <v>10</v>
+      </c>
     </row>
     <row r="11" ht="21">
       <c r="A11" s="18">
@@ -9742,6 +9853,18 @@
       <c r="F11">
         <v>11</v>
       </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>11</v>
+      </c>
+      <c r="M11" s="19">
+        <v>1</v>
+      </c>
+      <c r="N11" s="19">
+        <v>11</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="18">
@@ -9760,6 +9883,12 @@
       <c r="F12">
         <v>13</v>
       </c>
+      <c r="M12" s="19">
+        <v>12</v>
+      </c>
+      <c r="N12" s="19">
+        <v>13</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="18">
@@ -9778,6 +9907,18 @@
       <c r="F13">
         <v>14</v>
       </c>
+      <c r="I13">
+        <v>12</v>
+      </c>
+      <c r="J13">
+        <v>13</v>
+      </c>
+      <c r="M13" s="19">
+        <v>12</v>
+      </c>
+      <c r="N13" s="19">
+        <v>14</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="18">
@@ -9796,6 +9937,18 @@
       <c r="F14">
         <v>15</v>
       </c>
+      <c r="I14">
+        <v>12</v>
+      </c>
+      <c r="J14">
+        <v>14</v>
+      </c>
+      <c r="M14" s="19">
+        <v>12</v>
+      </c>
+      <c r="N14" s="19">
+        <v>15</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="18">
@@ -9814,6 +9967,18 @@
       <c r="F15">
         <v>16</v>
       </c>
+      <c r="I15">
+        <v>12</v>
+      </c>
+      <c r="J15">
+        <v>15</v>
+      </c>
+      <c r="M15" s="19">
+        <v>12</v>
+      </c>
+      <c r="N15" s="19">
+        <v>16</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="18">
@@ -9832,6 +9997,18 @@
       <c r="F16">
         <v>17</v>
       </c>
+      <c r="I16">
+        <v>12</v>
+      </c>
+      <c r="J16">
+        <v>16</v>
+      </c>
+      <c r="M16" s="19">
+        <v>17</v>
+      </c>
+      <c r="N16" s="19">
+        <v>17</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="18">
@@ -9850,6 +10027,18 @@
       <c r="F17">
         <v>19</v>
       </c>
+      <c r="I17">
+        <v>17</v>
+      </c>
+      <c r="J17">
+        <v>17</v>
+      </c>
+      <c r="M17" s="19">
+        <v>18</v>
+      </c>
+      <c r="N17" s="19">
+        <v>19</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="18">
@@ -9868,6 +10057,12 @@
       <c r="F18">
         <v>20</v>
       </c>
+      <c r="M18" s="19">
+        <v>18</v>
+      </c>
+      <c r="N18" s="19">
+        <v>20</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="18">
@@ -9886,6 +10081,18 @@
       <c r="F19">
         <v>21</v>
       </c>
+      <c r="I19">
+        <v>18</v>
+      </c>
+      <c r="J19">
+        <v>19</v>
+      </c>
+      <c r="M19" s="19">
+        <v>20</v>
+      </c>
+      <c r="N19" s="19">
+        <v>21</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="18">
@@ -9904,6 +10111,18 @@
       <c r="F20">
         <v>22</v>
       </c>
+      <c r="I20">
+        <v>18</v>
+      </c>
+      <c r="J20">
+        <v>20</v>
+      </c>
+      <c r="M20" s="19">
+        <v>20</v>
+      </c>
+      <c r="N20" s="19">
+        <v>22</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="18">
@@ -9922,6 +10141,18 @@
       <c r="F21">
         <v>23</v>
       </c>
+      <c r="I21">
+        <v>20</v>
+      </c>
+      <c r="J21">
+        <v>21</v>
+      </c>
+      <c r="M21" s="19">
+        <v>18</v>
+      </c>
+      <c r="N21" s="19">
+        <v>23</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="18">
@@ -9940,6 +10171,18 @@
       <c r="F22">
         <v>24</v>
       </c>
+      <c r="I22">
+        <v>20</v>
+      </c>
+      <c r="J22">
+        <v>22</v>
+      </c>
+      <c r="M22" s="19">
+        <v>23</v>
+      </c>
+      <c r="N22" s="19">
+        <v>24</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="18">
@@ -9958,6 +10201,18 @@
       <c r="F23">
         <v>25</v>
       </c>
+      <c r="I23">
+        <v>18</v>
+      </c>
+      <c r="J23">
+        <v>23</v>
+      </c>
+      <c r="M23" s="19">
+        <v>23</v>
+      </c>
+      <c r="N23" s="19">
+        <v>25</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="18">
@@ -9976,6 +10231,18 @@
       <c r="F24">
         <v>26</v>
       </c>
+      <c r="I24">
+        <v>23</v>
+      </c>
+      <c r="J24">
+        <v>24</v>
+      </c>
+      <c r="M24" s="19">
+        <v>23</v>
+      </c>
+      <c r="N24" s="19">
+        <v>26</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="18">
@@ -9994,6 +10261,18 @@
       <c r="F25">
         <v>28</v>
       </c>
+      <c r="I25">
+        <v>23</v>
+      </c>
+      <c r="J25">
+        <v>25</v>
+      </c>
+      <c r="M25" s="19">
+        <v>27</v>
+      </c>
+      <c r="N25" s="19">
+        <v>28</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="18">
@@ -10012,6 +10291,18 @@
       <c r="F26">
         <v>29</v>
       </c>
+      <c r="I26">
+        <v>23</v>
+      </c>
+      <c r="J26">
+        <v>26</v>
+      </c>
+      <c r="M26" s="19">
+        <v>27</v>
+      </c>
+      <c r="N26" s="19">
+        <v>29</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="18">
@@ -10030,6 +10321,12 @@
       <c r="F27">
         <v>30</v>
       </c>
+      <c r="M27" s="19">
+        <v>29</v>
+      </c>
+      <c r="N27" s="19">
+        <v>30</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="18">
@@ -10048,6 +10345,18 @@
       <c r="F28">
         <v>31</v>
       </c>
+      <c r="I28">
+        <v>27</v>
+      </c>
+      <c r="J28">
+        <v>28</v>
+      </c>
+      <c r="M28" s="19">
+        <v>29</v>
+      </c>
+      <c r="N28" s="19">
+        <v>31</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="18">
@@ -10066,6 +10375,18 @@
       <c r="F29">
         <v>32</v>
       </c>
+      <c r="I29">
+        <v>27</v>
+      </c>
+      <c r="J29">
+        <v>29</v>
+      </c>
+      <c r="M29" s="19">
+        <v>27</v>
+      </c>
+      <c r="N29" s="19">
+        <v>32</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="18">
@@ -10084,6 +10405,18 @@
       <c r="F30">
         <v>33</v>
       </c>
+      <c r="I30">
+        <v>29</v>
+      </c>
+      <c r="J30">
+        <v>30</v>
+      </c>
+      <c r="M30" s="19">
+        <v>32</v>
+      </c>
+      <c r="N30" s="19">
+        <v>33</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="18">
@@ -10102,6 +10435,18 @@
       <c r="F31">
         <v>34</v>
       </c>
+      <c r="I31">
+        <v>29</v>
+      </c>
+      <c r="J31">
+        <v>31</v>
+      </c>
+      <c r="M31" s="19">
+        <v>32</v>
+      </c>
+      <c r="N31" s="19">
+        <v>34</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="18">
@@ -10120,6 +10465,18 @@
       <c r="F32">
         <v>35</v>
       </c>
+      <c r="I32">
+        <v>27</v>
+      </c>
+      <c r="J32">
+        <v>32</v>
+      </c>
+      <c r="M32" s="19">
+        <v>27</v>
+      </c>
+      <c r="N32" s="19">
+        <v>35</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="18">
@@ -10138,6 +10495,18 @@
       <c r="F33">
         <v>36</v>
       </c>
+      <c r="I33">
+        <v>32</v>
+      </c>
+      <c r="J33">
+        <v>33</v>
+      </c>
+      <c r="M33" s="19">
+        <v>36</v>
+      </c>
+      <c r="N33" s="19">
+        <v>36</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="18">
@@ -10156,6 +10525,18 @@
       <c r="F34">
         <v>37</v>
       </c>
+      <c r="I34">
+        <v>32</v>
+      </c>
+      <c r="J34">
+        <v>34</v>
+      </c>
+      <c r="M34" s="19">
+        <v>37</v>
+      </c>
+      <c r="N34" s="19">
+        <v>37</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="18">
@@ -10174,6 +10555,18 @@
       <c r="F35">
         <v>38</v>
       </c>
+      <c r="I35">
+        <v>27</v>
+      </c>
+      <c r="J35">
+        <v>35</v>
+      </c>
+      <c r="M35" s="19">
+        <v>38</v>
+      </c>
+      <c r="N35" s="19">
+        <v>38</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="18">
@@ -10192,6 +10585,18 @@
       <c r="F36">
         <v>40</v>
       </c>
+      <c r="I36">
+        <v>36</v>
+      </c>
+      <c r="J36">
+        <v>36</v>
+      </c>
+      <c r="M36" s="19">
+        <v>39</v>
+      </c>
+      <c r="N36" s="19">
+        <v>40</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="18">
@@ -10210,6 +10615,18 @@
       <c r="F37">
         <v>41</v>
       </c>
+      <c r="I37">
+        <v>37</v>
+      </c>
+      <c r="J37">
+        <v>37</v>
+      </c>
+      <c r="M37" s="19">
+        <v>39</v>
+      </c>
+      <c r="N37" s="19">
+        <v>41</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="18">
@@ -10228,6 +10645,18 @@
       <c r="F38">
         <v>42</v>
       </c>
+      <c r="I38">
+        <v>38</v>
+      </c>
+      <c r="J38">
+        <v>38</v>
+      </c>
+      <c r="M38" s="19">
+        <v>42</v>
+      </c>
+      <c r="N38" s="19">
+        <v>42</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="18">
@@ -10246,6 +10675,12 @@
       <c r="F39">
         <v>44</v>
       </c>
+      <c r="M39" s="19">
+        <v>43</v>
+      </c>
+      <c r="N39" s="19">
+        <v>44</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="18">
@@ -10264,6 +10699,18 @@
       <c r="F40">
         <v>45</v>
       </c>
+      <c r="I40">
+        <v>39</v>
+      </c>
+      <c r="J40">
+        <v>40</v>
+      </c>
+      <c r="M40" s="19">
+        <v>43</v>
+      </c>
+      <c r="N40" s="19">
+        <v>45</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="18">
@@ -10282,6 +10729,18 @@
       <c r="F41">
         <v>46</v>
       </c>
+      <c r="I41">
+        <v>39</v>
+      </c>
+      <c r="J41">
+        <v>41</v>
+      </c>
+      <c r="M41" s="19">
+        <v>45</v>
+      </c>
+      <c r="N41" s="19">
+        <v>46</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="18">
@@ -10300,6 +10759,18 @@
       <c r="F42">
         <v>47</v>
       </c>
+      <c r="I42">
+        <v>42</v>
+      </c>
+      <c r="J42">
+        <v>42</v>
+      </c>
+      <c r="M42" s="19">
+        <v>43</v>
+      </c>
+      <c r="N42" s="19">
+        <v>47</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="18">
@@ -10318,6 +10789,12 @@
       <c r="F43">
         <v>48</v>
       </c>
+      <c r="M43" s="19">
+        <v>43</v>
+      </c>
+      <c r="N43" s="19">
+        <v>48</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="18">
@@ -10336,6 +10813,18 @@
       <c r="F44">
         <v>50</v>
       </c>
+      <c r="I44">
+        <v>43</v>
+      </c>
+      <c r="J44">
+        <v>44</v>
+      </c>
+      <c r="M44" s="19">
+        <v>49</v>
+      </c>
+      <c r="N44" s="19">
+        <v>50</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="18">
@@ -10354,6 +10843,18 @@
       <c r="F45">
         <v>51</v>
       </c>
+      <c r="I45">
+        <v>43</v>
+      </c>
+      <c r="J45">
+        <v>45</v>
+      </c>
+      <c r="M45" s="19">
+        <v>49</v>
+      </c>
+      <c r="N45" s="19">
+        <v>51</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="18">
@@ -10363,6 +10864,12 @@
         <v>415</v>
       </c>
       <c r="C46" s="14"/>
+      <c r="I46">
+        <v>45</v>
+      </c>
+      <c r="J46">
+        <v>46</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="18">
@@ -10372,6 +10879,12 @@
         <v>424</v>
       </c>
       <c r="C47" s="14"/>
+      <c r="I47">
+        <v>43</v>
+      </c>
+      <c r="J47">
+        <v>47</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="18">
@@ -10381,6 +10894,12 @@
         <v>435</v>
       </c>
       <c r="C48" s="14"/>
+      <c r="I48">
+        <v>43</v>
+      </c>
+      <c r="J48">
+        <v>48</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="18">
@@ -10399,6 +10918,12 @@
         <v>444</v>
       </c>
       <c r="C50" s="14"/>
+      <c r="I50">
+        <v>49</v>
+      </c>
+      <c r="J50">
+        <v>50</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="18">
@@ -10408,6 +10933,12 @@
         <v>447</v>
       </c>
       <c r="C51" s="14"/>
+      <c r="I51">
+        <v>49</v>
+      </c>
+      <c r="J51">
+        <v>51</v>
+      </c>
     </row>
     <row r="52"/>
     <row r="53"/>
@@ -11155,13 +11686,13 @@
       <c r="A1" t="s">
         <v>454</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="20" t="s">
         <v>455</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="20" t="s">
         <v>456</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="20" t="s">
         <v>457</v>
       </c>
       <c r="E1" t="s">
@@ -11176,12 +11707,12 @@
       <c r="H1" t="s">
         <v>461</v>
       </c>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
     </row>
     <row r="2" ht="10.5">
-      <c r="A2" s="20">
+      <c r="A2" s="19">
         <v>1</v>
       </c>
       <c r="B2" s="21" t="s">
@@ -11206,14 +11737,14 @@
       <c r="H2" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
       <c r="M2" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="20">
+      <c r="N2" s="19">
         <v>1</v>
       </c>
       <c r="O2" s="23" t="s">
@@ -11221,7 +11752,7 @@
       </c>
     </row>
     <row r="3" ht="10.5">
-      <c r="A3" s="20">
+      <c r="A3" s="19">
         <v>2</v>
       </c>
       <c r="B3" s="21" t="s">
@@ -11246,14 +11777,14 @@
       <c r="H3" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
       <c r="M3" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="N3" s="20">
+      <c r="N3" s="19">
         <v>2</v>
       </c>
       <c r="O3" s="23">
@@ -11261,7 +11792,7 @@
       </c>
     </row>
     <row r="4" ht="10.5">
-      <c r="A4" s="20">
+      <c r="A4" s="19">
         <v>3</v>
       </c>
       <c r="B4" s="21" t="s">
@@ -11286,14 +11817,14 @@
       <c r="H4" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
       <c r="M4" s="13">
         <v>482</v>
       </c>
-      <c r="N4" s="20">
+      <c r="N4" s="19">
         <v>3</v>
       </c>
       <c r="O4" s="23">
@@ -11301,7 +11832,7 @@
       </c>
     </row>
     <row r="5" ht="10.5">
-      <c r="A5" s="20">
+      <c r="A5" s="19">
         <v>4</v>
       </c>
       <c r="B5" s="21" t="s">
@@ -11326,14 +11857,14 @@
       <c r="H5" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
       <c r="M5" s="13">
         <v>482</v>
       </c>
-      <c r="N5" s="20">
+      <c r="N5" s="19">
         <v>4</v>
       </c>
       <c r="O5" s="23">
@@ -11341,7 +11872,7 @@
       </c>
     </row>
     <row r="6" ht="10.5">
-      <c r="A6" s="20">
+      <c r="A6" s="19">
         <v>5</v>
       </c>
       <c r="B6" s="21" t="s">
@@ -11366,14 +11897,14 @@
       <c r="H6" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
       <c r="M6" s="13">
         <v>482</v>
       </c>
-      <c r="N6" s="20">
+      <c r="N6" s="19">
         <v>5</v>
       </c>
       <c r="O6" s="23">
@@ -11381,7 +11912,7 @@
       </c>
     </row>
     <row r="7" ht="10.5">
-      <c r="A7" s="20">
+      <c r="A7" s="19">
         <v>6</v>
       </c>
       <c r="B7" s="21" t="s">
@@ -11406,14 +11937,14 @@
       <c r="H7" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
       <c r="M7" s="13">
         <v>479</v>
       </c>
-      <c r="N7" s="20">
+      <c r="N7" s="19">
         <v>6</v>
       </c>
       <c r="O7" s="23">
@@ -11421,7 +11952,7 @@
       </c>
     </row>
     <row r="8" ht="10.5">
-      <c r="A8" s="20">
+      <c r="A8" s="19">
         <v>7</v>
       </c>
       <c r="B8" s="21" t="s">
@@ -11446,14 +11977,14 @@
       <c r="H8" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
       <c r="M8" s="13">
         <v>479</v>
       </c>
-      <c r="N8" s="20">
+      <c r="N8" s="19">
         <v>7</v>
       </c>
       <c r="O8" s="23">
@@ -11461,7 +11992,7 @@
       </c>
     </row>
     <row r="9" ht="10.5">
-      <c r="A9" s="20">
+      <c r="A9" s="19">
         <v>8</v>
       </c>
       <c r="B9" s="21" t="s">
@@ -11486,14 +12017,14 @@
       <c r="H9" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
       <c r="M9" s="13">
         <v>479</v>
       </c>
-      <c r="N9" s="20">
+      <c r="N9" s="19">
         <v>8</v>
       </c>
       <c r="O9" s="23">
@@ -11501,7 +12032,7 @@
       </c>
     </row>
     <row r="10" ht="10.5">
-      <c r="A10" s="20">
+      <c r="A10" s="19">
         <v>9</v>
       </c>
       <c r="B10" s="21" t="s">
@@ -11510,7 +12041,7 @@
       <c r="C10" t="s">
         <v>487</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="19" t="s">
         <v>488</v>
       </c>
       <c r="E10" s="22">
@@ -11526,14 +12057,14 @@
       <c r="H10" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
       <c r="M10" s="13">
         <v>479</v>
       </c>
-      <c r="N10" s="20">
+      <c r="N10" s="19">
         <v>9</v>
       </c>
       <c r="O10" s="23">
@@ -11541,7 +12072,7 @@
       </c>
     </row>
     <row r="11" ht="10.5">
-      <c r="A11" s="20">
+      <c r="A11" s="19">
         <v>10</v>
       </c>
       <c r="B11" s="21" t="s">
@@ -11550,7 +12081,7 @@
       <c r="C11" t="s">
         <v>490</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="19" t="s">
         <v>491</v>
       </c>
       <c r="E11" s="22">
@@ -11566,14 +12097,14 @@
       <c r="H11" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
       <c r="M11" s="13">
         <v>479</v>
       </c>
-      <c r="N11" s="20">
+      <c r="N11" s="19">
         <v>10</v>
       </c>
       <c r="O11" s="23">
@@ -11581,7 +12112,7 @@
       </c>
     </row>
     <row r="12" ht="10.5">
-      <c r="A12" s="20">
+      <c r="A12" s="19">
         <v>11</v>
       </c>
       <c r="B12" s="21" t="s">
@@ -11609,7 +12140,7 @@
       <c r="M12" s="13">
         <v>482</v>
       </c>
-      <c r="N12" s="20">
+      <c r="N12" s="19">
         <v>11</v>
       </c>
       <c r="O12" s="23" t="s">
@@ -11617,7 +12148,7 @@
       </c>
     </row>
     <row r="13" ht="10.5">
-      <c r="A13" s="20">
+      <c r="A13" s="19">
         <v>12</v>
       </c>
       <c r="B13" s="21" t="s">
@@ -11645,7 +12176,7 @@
       <c r="M13" s="13">
         <v>482</v>
       </c>
-      <c r="N13" s="20">
+      <c r="N13" s="19">
         <v>12</v>
       </c>
       <c r="O13" s="23" t="s">
@@ -11653,7 +12184,7 @@
       </c>
     </row>
     <row r="14" ht="10.5">
-      <c r="A14" s="20">
+      <c r="A14" s="19">
         <v>13</v>
       </c>
       <c r="B14" s="21" t="s">
@@ -11681,7 +12212,7 @@
       <c r="M14" s="13">
         <v>483</v>
       </c>
-      <c r="N14" s="20">
+      <c r="N14" s="19">
         <v>13</v>
       </c>
       <c r="O14" s="23">
@@ -11689,7 +12220,7 @@
       </c>
     </row>
     <row r="15" ht="10.5">
-      <c r="A15" s="20">
+      <c r="A15" s="19">
         <v>14</v>
       </c>
       <c r="B15" s="21" t="s">
@@ -11717,7 +12248,7 @@
       <c r="M15" s="13">
         <v>483</v>
       </c>
-      <c r="N15" s="20">
+      <c r="N15" s="19">
         <v>14</v>
       </c>
       <c r="O15" s="23" t="s">
@@ -11725,7 +12256,7 @@
       </c>
     </row>
     <row r="16" ht="10.5">
-      <c r="A16" s="20">
+      <c r="A16" s="19">
         <v>15</v>
       </c>
       <c r="B16" s="21" t="s">
@@ -11753,7 +12284,7 @@
       <c r="M16" s="13">
         <v>483</v>
       </c>
-      <c r="N16" s="20">
+      <c r="N16" s="19">
         <v>15</v>
       </c>
       <c r="O16" s="23" t="s">
@@ -11761,7 +12292,7 @@
       </c>
     </row>
     <row r="17" ht="10.5">
-      <c r="A17" s="20">
+      <c r="A17" s="19">
         <v>16</v>
       </c>
       <c r="B17" s="21" t="s">
@@ -11789,7 +12320,7 @@
       <c r="M17" s="13">
         <v>483</v>
       </c>
-      <c r="N17" s="20">
+      <c r="N17" s="19">
         <v>16</v>
       </c>
       <c r="O17" s="23" t="s">
@@ -11797,7 +12328,7 @@
       </c>
     </row>
     <row r="18" ht="10.5">
-      <c r="A18" s="20">
+      <c r="A18" s="19">
         <v>17</v>
       </c>
       <c r="B18" s="21" t="s">
@@ -11825,7 +12356,7 @@
       <c r="M18" s="13">
         <v>525</v>
       </c>
-      <c r="N18" s="20">
+      <c r="N18" s="19">
         <v>17</v>
       </c>
       <c r="O18" s="23">
@@ -11833,7 +12364,7 @@
       </c>
     </row>
     <row r="19" ht="10.5">
-      <c r="A19" s="20">
+      <c r="A19" s="19">
         <v>18</v>
       </c>
       <c r="B19" s="21" t="s">
@@ -11861,7 +12392,7 @@
       <c r="M19" s="13">
         <v>525</v>
       </c>
-      <c r="N19" s="20">
+      <c r="N19" s="19">
         <v>18</v>
       </c>
       <c r="O19" s="23">
@@ -11869,7 +12400,7 @@
       </c>
     </row>
     <row r="20" ht="10.5">
-      <c r="A20" s="20">
+      <c r="A20" s="19">
         <v>19</v>
       </c>
       <c r="B20" s="21" t="s">
@@ -11897,7 +12428,7 @@
       <c r="M20" s="13">
         <v>525</v>
       </c>
-      <c r="N20" s="20">
+      <c r="N20" s="19">
         <v>19</v>
       </c>
       <c r="O20" s="23">
@@ -11905,7 +12436,7 @@
       </c>
     </row>
     <row r="21" ht="10.5">
-      <c r="A21" s="20">
+      <c r="A21" s="19">
         <v>20</v>
       </c>
       <c r="B21" s="21" t="s">
@@ -11933,7 +12464,7 @@
       <c r="M21" s="13">
         <v>525</v>
       </c>
-      <c r="N21" s="20">
+      <c r="N21" s="19">
         <v>20</v>
       </c>
       <c r="O21" s="23">
@@ -11941,7 +12472,7 @@
       </c>
     </row>
     <row r="22" ht="10.5">
-      <c r="A22" s="20">
+      <c r="A22" s="19">
         <v>21</v>
       </c>
       <c r="B22" s="21" t="s">
@@ -11969,7 +12500,7 @@
       <c r="M22" s="13">
         <v>525</v>
       </c>
-      <c r="N22" s="20">
+      <c r="N22" s="19">
         <v>21</v>
       </c>
       <c r="O22" s="23">
@@ -11977,7 +12508,7 @@
       </c>
     </row>
     <row r="23" ht="10.5">
-      <c r="A23" s="20">
+      <c r="A23" s="19">
         <v>22</v>
       </c>
       <c r="B23" s="21" t="s">
@@ -12005,7 +12536,7 @@
       <c r="M23" s="13">
         <v>525</v>
       </c>
-      <c r="N23" s="20">
+      <c r="N23" s="19">
         <v>22</v>
       </c>
       <c r="O23" s="23">
@@ -12013,7 +12544,7 @@
       </c>
     </row>
     <row r="24" ht="10.5">
-      <c r="A24" s="20">
+      <c r="A24" s="19">
         <v>23</v>
       </c>
       <c r="B24" s="21" t="s">
@@ -12041,7 +12572,7 @@
       <c r="M24" s="13">
         <v>525</v>
       </c>
-      <c r="N24" s="20">
+      <c r="N24" s="19">
         <v>23</v>
       </c>
       <c r="O24" s="23">
@@ -12049,7 +12580,7 @@
       </c>
     </row>
     <row r="25" ht="10.5">
-      <c r="A25" s="20">
+      <c r="A25" s="19">
         <v>24</v>
       </c>
       <c r="B25" s="21" t="s">
@@ -12079,7 +12610,7 @@
       </c>
     </row>
     <row r="26" ht="10.5">
-      <c r="A26" s="20">
+      <c r="A26" s="19">
         <v>25</v>
       </c>
       <c r="B26" s="21" t="s">
@@ -12109,7 +12640,7 @@
       </c>
     </row>
     <row r="27" ht="10.5">
-      <c r="A27" s="20">
+      <c r="A27" s="19">
         <v>26</v>
       </c>
       <c r="B27" s="21" t="s">
@@ -12139,7 +12670,7 @@
       </c>
     </row>
     <row r="28" ht="10.5">
-      <c r="A28" s="20">
+      <c r="A28" s="19">
         <v>27</v>
       </c>
       <c r="B28" s="21" t="s">
@@ -12169,7 +12700,7 @@
       </c>
     </row>
     <row r="29" ht="10.5">
-      <c r="A29" s="20">
+      <c r="A29" s="19">
         <v>28</v>
       </c>
       <c r="B29" s="21" t="s">
@@ -12199,7 +12730,7 @@
       </c>
     </row>
     <row r="30" ht="10.5">
-      <c r="A30" s="20">
+      <c r="A30" s="19">
         <v>29</v>
       </c>
       <c r="B30" s="21" t="s">
@@ -12229,7 +12760,7 @@
       </c>
     </row>
     <row r="31" ht="10.5">
-      <c r="A31" s="20">
+      <c r="A31" s="19">
         <v>30</v>
       </c>
       <c r="B31" s="21" t="s">
@@ -12259,7 +12790,7 @@
       </c>
     </row>
     <row r="32" ht="10.5">
-      <c r="A32" s="20">
+      <c r="A32" s="19">
         <v>31</v>
       </c>
       <c r="B32" s="21" t="s">
@@ -12289,7 +12820,7 @@
       </c>
     </row>
     <row r="33" ht="10.5">
-      <c r="A33" s="20">
+      <c r="A33" s="19">
         <v>32</v>
       </c>
       <c r="B33" s="21" t="s">
@@ -12319,7 +12850,7 @@
       </c>
     </row>
     <row r="34" ht="10.5">
-      <c r="A34" s="20">
+      <c r="A34" s="19">
         <v>33</v>
       </c>
       <c r="B34" s="21" t="s">
@@ -12349,7 +12880,7 @@
       </c>
     </row>
     <row r="35" ht="10.5">
-      <c r="A35" s="20">
+      <c r="A35" s="19">
         <v>34</v>
       </c>
       <c r="B35" s="21" t="s">
@@ -12379,7 +12910,7 @@
       </c>
     </row>
     <row r="36" ht="10.5">
-      <c r="A36" s="20">
+      <c r="A36" s="19">
         <v>35</v>
       </c>
       <c r="B36" s="21" t="s">
@@ -12409,7 +12940,7 @@
       </c>
     </row>
     <row r="37" ht="10.5">
-      <c r="A37" s="20">
+      <c r="A37" s="19">
         <v>36</v>
       </c>
       <c r="B37" s="21" t="s">
@@ -12439,7 +12970,7 @@
       </c>
     </row>
     <row r="38" ht="10.5">
-      <c r="A38" s="20">
+      <c r="A38" s="19">
         <v>37</v>
       </c>
       <c r="B38" s="21" t="s">
@@ -12469,7 +13000,7 @@
       </c>
     </row>
     <row r="39" ht="10.5">
-      <c r="A39" s="20">
+      <c r="A39" s="19">
         <v>38</v>
       </c>
       <c r="B39" s="21" t="s">
@@ -12499,7 +13030,7 @@
       </c>
     </row>
     <row r="40" ht="10.5">
-      <c r="A40" s="20">
+      <c r="A40" s="19">
         <v>39</v>
       </c>
       <c r="B40" s="21" t="s">
@@ -12529,7 +13060,7 @@
       </c>
     </row>
     <row r="41" ht="10.5">
-      <c r="A41" s="20">
+      <c r="A41" s="19">
         <v>40</v>
       </c>
       <c r="B41" s="21" t="s">
@@ -12559,7 +13090,7 @@
       </c>
     </row>
     <row r="42" ht="10.5">
-      <c r="A42" s="20">
+      <c r="A42" s="19">
         <v>41</v>
       </c>
       <c r="B42" s="21" t="s">
@@ -12589,7 +13120,7 @@
       </c>
     </row>
     <row r="43" ht="10.5">
-      <c r="A43" s="20">
+      <c r="A43" s="19">
         <v>42</v>
       </c>
       <c r="B43" s="21" t="s">
@@ -12619,7 +13150,7 @@
       </c>
     </row>
     <row r="44" ht="10.5">
-      <c r="A44" s="20">
+      <c r="A44" s="19">
         <v>43</v>
       </c>
       <c r="B44" s="21" t="s">
@@ -12649,7 +13180,7 @@
       </c>
     </row>
     <row r="45" ht="10.5">
-      <c r="A45" s="20">
+      <c r="A45" s="19">
         <v>44</v>
       </c>
       <c r="B45" s="21" t="s">
@@ -12679,7 +13210,7 @@
       </c>
     </row>
     <row r="46" ht="10.5">
-      <c r="A46" s="20">
+      <c r="A46" s="19">
         <v>45</v>
       </c>
       <c r="B46" s="21" t="s">
@@ -12709,7 +13240,7 @@
       </c>
     </row>
     <row r="47" ht="10.5">
-      <c r="A47" s="20">
+      <c r="A47" s="19">
         <v>46</v>
       </c>
       <c r="B47" s="21" t="s">
@@ -12739,7 +13270,7 @@
       </c>
     </row>
     <row r="48" ht="10.5">
-      <c r="A48" s="20">
+      <c r="A48" s="19">
         <v>47</v>
       </c>
       <c r="B48" s="21" t="s">
@@ -12769,7 +13300,7 @@
       </c>
     </row>
     <row r="49" ht="10.5">
-      <c r="A49" s="20">
+      <c r="A49" s="19">
         <v>48</v>
       </c>
       <c r="B49" s="21" t="s">
@@ -12799,7 +13330,7 @@
       </c>
     </row>
     <row r="50" ht="10.5">
-      <c r="A50" s="20">
+      <c r="A50" s="19">
         <v>49</v>
       </c>
       <c r="B50" s="21" t="s">
@@ -12829,7 +13360,7 @@
       </c>
     </row>
     <row r="51" ht="10.5">
-      <c r="A51" s="20">
+      <c r="A51" s="19">
         <v>50</v>
       </c>
       <c r="B51" s="21" t="s">
@@ -12859,7 +13390,7 @@
       </c>
     </row>
     <row r="52" ht="10.5">
-      <c r="A52" s="20">
+      <c r="A52" s="19">
         <v>51</v>
       </c>
       <c r="B52" s="21" t="s">
@@ -12889,7 +13420,7 @@
       </c>
     </row>
     <row r="53" ht="10.5">
-      <c r="A53" s="20">
+      <c r="A53" s="19">
         <v>52</v>
       </c>
       <c r="B53" s="21" t="s">
@@ -12919,7 +13450,7 @@
       </c>
     </row>
     <row r="54" ht="10.5">
-      <c r="A54" s="20">
+      <c r="A54" s="19">
         <v>53</v>
       </c>
       <c r="B54" s="21" t="s">
@@ -12949,7 +13480,7 @@
       </c>
     </row>
     <row r="55" ht="10.5">
-      <c r="A55" s="20">
+      <c r="A55" s="19">
         <v>54</v>
       </c>
       <c r="B55" s="21" t="s">
@@ -12979,7 +13510,7 @@
       </c>
     </row>
     <row r="56" ht="10.5">
-      <c r="A56" s="20">
+      <c r="A56" s="19">
         <v>55</v>
       </c>
       <c r="B56" s="21" t="s">
@@ -13009,7 +13540,7 @@
       </c>
     </row>
     <row r="57" ht="10.5">
-      <c r="A57" s="20">
+      <c r="A57" s="19">
         <v>56</v>
       </c>
       <c r="B57" s="21" t="s">
@@ -13039,7 +13570,7 @@
       </c>
     </row>
     <row r="58" ht="10.5">
-      <c r="A58" s="20">
+      <c r="A58" s="19">
         <v>57</v>
       </c>
       <c r="B58" s="21" t="s">
@@ -13069,7 +13600,7 @@
       </c>
     </row>
     <row r="59" ht="10.5">
-      <c r="A59" s="20">
+      <c r="A59" s="19">
         <v>58</v>
       </c>
       <c r="B59" s="21" t="s">
@@ -13099,7 +13630,7 @@
       </c>
     </row>
     <row r="60" ht="10.5">
-      <c r="A60" s="20">
+      <c r="A60" s="19">
         <v>59</v>
       </c>
       <c r="B60" s="21" t="s">
@@ -13129,7 +13660,7 @@
       </c>
     </row>
     <row r="61" ht="10.5">
-      <c r="A61" s="20">
+      <c r="A61" s="19">
         <v>60</v>
       </c>
       <c r="B61" s="21" t="s">
@@ -13159,7 +13690,7 @@
       </c>
     </row>
     <row r="62" ht="10.5">
-      <c r="A62" s="20">
+      <c r="A62" s="19">
         <v>61</v>
       </c>
       <c r="B62" s="21" t="s">
@@ -13189,7 +13720,7 @@
       </c>
     </row>
     <row r="63" ht="10.5">
-      <c r="A63" s="20">
+      <c r="A63" s="19">
         <v>62</v>
       </c>
       <c r="B63" s="21" t="s">
@@ -13219,7 +13750,7 @@
       </c>
     </row>
     <row r="64" ht="10.5">
-      <c r="A64" s="20">
+      <c r="A64" s="19">
         <v>63</v>
       </c>
       <c r="B64" s="21" t="s">
@@ -13249,7 +13780,7 @@
       </c>
     </row>
     <row r="65" ht="10.5">
-      <c r="A65" s="20">
+      <c r="A65" s="19">
         <v>64</v>
       </c>
       <c r="B65" s="21" t="s">
@@ -13279,7 +13810,7 @@
       </c>
     </row>
     <row r="66" ht="10.5">
-      <c r="A66" s="20">
+      <c r="A66" s="19">
         <v>65</v>
       </c>
       <c r="B66" s="21" t="s">
@@ -13309,7 +13840,7 @@
       </c>
     </row>
     <row r="67" ht="10.5">
-      <c r="A67" s="20">
+      <c r="A67" s="19">
         <v>66</v>
       </c>
       <c r="B67" s="21" t="s">
@@ -13339,7 +13870,7 @@
       </c>
     </row>
     <row r="68" ht="10.5">
-      <c r="A68" s="20">
+      <c r="A68" s="19">
         <v>67</v>
       </c>
       <c r="B68" s="21" t="s">
@@ -13369,7 +13900,7 @@
       </c>
     </row>
     <row r="69" ht="10.5">
-      <c r="A69" s="20">
+      <c r="A69" s="19">
         <v>68</v>
       </c>
       <c r="B69" s="21" t="s">
@@ -13399,7 +13930,7 @@
       </c>
     </row>
     <row r="70" ht="10.5">
-      <c r="A70" s="20">
+      <c r="A70" s="19">
         <v>69</v>
       </c>
       <c r="B70" s="21" t="s">
@@ -13429,7 +13960,7 @@
       </c>
     </row>
     <row r="71" ht="10.5">
-      <c r="A71" s="20">
+      <c r="A71" s="19">
         <v>70</v>
       </c>
       <c r="B71" s="21" t="s">
@@ -13459,7 +13990,7 @@
       </c>
     </row>
     <row r="72" ht="10.5">
-      <c r="A72" s="20">
+      <c r="A72" s="19">
         <v>71</v>
       </c>
       <c r="B72" s="21" t="s">
@@ -13489,7 +14020,7 @@
       </c>
     </row>
     <row r="73" ht="10.5">
-      <c r="A73" s="20">
+      <c r="A73" s="19">
         <v>72</v>
       </c>
       <c r="B73" s="21" t="s">
@@ -13519,7 +14050,7 @@
       </c>
     </row>
     <row r="74" ht="10.5">
-      <c r="A74" s="20">
+      <c r="A74" s="19">
         <v>73</v>
       </c>
       <c r="B74" s="21" t="s">
@@ -13549,7 +14080,7 @@
       </c>
     </row>
     <row r="75" ht="10.5">
-      <c r="A75" s="20">
+      <c r="A75" s="19">
         <v>74</v>
       </c>
       <c r="B75" s="21" t="s">
@@ -13579,7 +14110,7 @@
       </c>
     </row>
     <row r="76" ht="10.5">
-      <c r="A76" s="20">
+      <c r="A76" s="19">
         <v>75</v>
       </c>
       <c r="B76" s="21" t="s">
@@ -13609,7 +14140,7 @@
       </c>
     </row>
     <row r="77" ht="10.5">
-      <c r="A77" s="20">
+      <c r="A77" s="19">
         <v>76</v>
       </c>
       <c r="B77" s="21" t="s">
@@ -13639,7 +14170,7 @@
       </c>
     </row>
     <row r="78" ht="10.5">
-      <c r="A78" s="20">
+      <c r="A78" s="19">
         <v>77</v>
       </c>
       <c r="B78" s="21" t="s">
@@ -13669,7 +14200,7 @@
       </c>
     </row>
     <row r="79" ht="10.5">
-      <c r="A79" s="20">
+      <c r="A79" s="19">
         <v>78</v>
       </c>
       <c r="B79" s="21" t="s">
@@ -13699,7 +14230,7 @@
       </c>
     </row>
     <row r="80" ht="10.5">
-      <c r="A80" s="20">
+      <c r="A80" s="19">
         <v>79</v>
       </c>
       <c r="B80" s="21" t="s">
@@ -13729,7 +14260,7 @@
       </c>
     </row>
     <row r="81" ht="10.5">
-      <c r="A81" s="20">
+      <c r="A81" s="19">
         <v>80</v>
       </c>
       <c r="B81" s="21" t="s">
@@ -13759,7 +14290,7 @@
       </c>
     </row>
     <row r="82" ht="10.5">
-      <c r="A82" s="20">
+      <c r="A82" s="19">
         <v>81</v>
       </c>
       <c r="B82" s="21" t="s">
@@ -13789,7 +14320,7 @@
       </c>
     </row>
     <row r="83" ht="10.5">
-      <c r="A83" s="20">
+      <c r="A83" s="19">
         <v>82</v>
       </c>
       <c r="B83" s="21" t="s">
@@ -13819,7 +14350,7 @@
       </c>
     </row>
     <row r="84" ht="10.5">
-      <c r="A84" s="20">
+      <c r="A84" s="19">
         <v>83</v>
       </c>
       <c r="B84" s="21" t="s">
@@ -13849,7 +14380,7 @@
       </c>
     </row>
     <row r="85" ht="10.5">
-      <c r="A85" s="20">
+      <c r="A85" s="19">
         <v>84</v>
       </c>
       <c r="B85" s="21" t="s">
@@ -13879,7 +14410,7 @@
       </c>
     </row>
     <row r="86" ht="10.5">
-      <c r="A86" s="20">
+      <c r="A86" s="19">
         <v>85</v>
       </c>
       <c r="B86" s="21" t="s">
@@ -13909,7 +14440,7 @@
       </c>
     </row>
     <row r="87" ht="10.5">
-      <c r="A87" s="20">
+      <c r="A87" s="19">
         <v>86</v>
       </c>
       <c r="B87" s="21" t="s">
@@ -13939,7 +14470,7 @@
       </c>
     </row>
     <row r="88" ht="10.5">
-      <c r="A88" s="20">
+      <c r="A88" s="19">
         <v>87</v>
       </c>
       <c r="B88" s="21" t="s">
@@ -13969,7 +14500,7 @@
       </c>
     </row>
     <row r="89" ht="10.5">
-      <c r="A89" s="20">
+      <c r="A89" s="19">
         <v>88</v>
       </c>
       <c r="B89" s="21" t="s">
@@ -13999,7 +14530,7 @@
       </c>
     </row>
     <row r="90" ht="10.5">
-      <c r="A90" s="20">
+      <c r="A90" s="19">
         <v>89</v>
       </c>
       <c r="B90" s="21" t="s">
@@ -14029,7 +14560,7 @@
       </c>
     </row>
     <row r="91" ht="10.5">
-      <c r="A91" s="20">
+      <c r="A91" s="19">
         <v>90</v>
       </c>
       <c r="B91" s="21" t="s">
@@ -14059,7 +14590,7 @@
       </c>
     </row>
     <row r="92" ht="10.5">
-      <c r="A92" s="20">
+      <c r="A92" s="19">
         <v>91</v>
       </c>
       <c r="B92" s="21" t="s">
@@ -14089,7 +14620,7 @@
       </c>
     </row>
     <row r="93" ht="10.5">
-      <c r="A93" s="20">
+      <c r="A93" s="19">
         <v>92</v>
       </c>
       <c r="B93" s="21" t="s">
@@ -14119,7 +14650,7 @@
       </c>
     </row>
     <row r="94" ht="10.5">
-      <c r="A94" s="20">
+      <c r="A94" s="19">
         <v>93</v>
       </c>
       <c r="B94" s="21" t="s">
@@ -14149,7 +14680,7 @@
       </c>
     </row>
     <row r="95" ht="10.5">
-      <c r="A95" s="20">
+      <c r="A95" s="19">
         <v>94</v>
       </c>
       <c r="B95" s="21" t="s">
@@ -14179,7 +14710,7 @@
       </c>
     </row>
     <row r="96" ht="10.5">
-      <c r="A96" s="20">
+      <c r="A96" s="19">
         <v>95</v>
       </c>
       <c r="B96" s="21" t="s">
@@ -14209,7 +14740,7 @@
       </c>
     </row>
     <row r="97" ht="10.5">
-      <c r="A97" s="20">
+      <c r="A97" s="19">
         <v>96</v>
       </c>
       <c r="B97" s="21" t="s">
@@ -14239,7 +14770,7 @@
       </c>
     </row>
     <row r="98" ht="10.5">
-      <c r="A98" s="20">
+      <c r="A98" s="19">
         <v>97</v>
       </c>
       <c r="B98" s="21" t="s">
@@ -14269,7 +14800,7 @@
       </c>
     </row>
     <row r="99" ht="10.5">
-      <c r="A99" s="20">
+      <c r="A99" s="19">
         <v>98</v>
       </c>
       <c r="B99" s="21" t="s">
@@ -14299,7 +14830,7 @@
       </c>
     </row>
     <row r="100" ht="10.5">
-      <c r="A100" s="20">
+      <c r="A100" s="19">
         <v>99</v>
       </c>
       <c r="B100" s="21" t="s">
@@ -14329,7 +14860,7 @@
       </c>
     </row>
     <row r="101" ht="10.5">
-      <c r="A101" s="20">
+      <c r="A101" s="19">
         <v>100</v>
       </c>
       <c r="B101" s="21" t="s">
@@ -14359,7 +14890,7 @@
       </c>
     </row>
     <row r="102" ht="10.5">
-      <c r="A102" s="20">
+      <c r="A102" s="19">
         <v>101</v>
       </c>
       <c r="B102" s="21" t="s">
@@ -14389,7 +14920,7 @@
       </c>
     </row>
     <row r="103" ht="10.5">
-      <c r="A103" s="20">
+      <c r="A103" s="19">
         <v>102</v>
       </c>
       <c r="B103" s="21" t="s">
@@ -14419,7 +14950,7 @@
       </c>
     </row>
     <row r="104" ht="10.5">
-      <c r="A104" s="20">
+      <c r="A104" s="19">
         <v>103</v>
       </c>
       <c r="B104" s="21" t="s">
@@ -14449,7 +14980,7 @@
       </c>
     </row>
     <row r="105" ht="10.5">
-      <c r="A105" s="20">
+      <c r="A105" s="19">
         <v>104</v>
       </c>
       <c r="B105" s="21" t="s">
@@ -14479,7 +15010,7 @@
       </c>
     </row>
     <row r="106" ht="10.5">
-      <c r="A106" s="20">
+      <c r="A106" s="19">
         <v>105</v>
       </c>
       <c r="B106" s="21" t="s">
@@ -14509,7 +15040,7 @@
       </c>
     </row>
     <row r="107" ht="10.5">
-      <c r="A107" s="20">
+      <c r="A107" s="19">
         <v>106</v>
       </c>
       <c r="B107" s="21" t="s">
@@ -14539,7 +15070,7 @@
       </c>
     </row>
     <row r="108" ht="10.5">
-      <c r="A108" s="20">
+      <c r="A108" s="19">
         <v>107</v>
       </c>
       <c r="B108" s="21" t="s">
@@ -14569,7 +15100,7 @@
       </c>
     </row>
     <row r="109" ht="10.5">
-      <c r="A109" s="20">
+      <c r="A109" s="19">
         <v>108</v>
       </c>
       <c r="B109" s="21" t="s">
@@ -14599,7 +15130,7 @@
       </c>
     </row>
     <row r="110" ht="10.5">
-      <c r="A110" s="20">
+      <c r="A110" s="19">
         <v>109</v>
       </c>
       <c r="B110" s="21" t="s">
@@ -14629,7 +15160,7 @@
       </c>
     </row>
     <row r="111" ht="10.5">
-      <c r="A111" s="20">
+      <c r="A111" s="19">
         <v>110</v>
       </c>
       <c r="B111" s="21" t="s">
@@ -14659,7 +15190,7 @@
       </c>
     </row>
     <row r="112" ht="10.5">
-      <c r="A112" s="20">
+      <c r="A112" s="19">
         <v>111</v>
       </c>
       <c r="B112" s="21" t="s">
@@ -14689,7 +15220,7 @@
       </c>
     </row>
     <row r="113" ht="10.5">
-      <c r="A113" s="20">
+      <c r="A113" s="19">
         <v>112</v>
       </c>
       <c r="B113" s="21" t="s">
@@ -14719,7 +15250,7 @@
       </c>
     </row>
     <row r="114" ht="10.5">
-      <c r="A114" s="20">
+      <c r="A114" s="19">
         <v>113</v>
       </c>
       <c r="B114" s="21" t="s">
@@ -14749,7 +15280,7 @@
       </c>
     </row>
     <row r="115" ht="10.5">
-      <c r="A115" s="20">
+      <c r="A115" s="19">
         <v>114</v>
       </c>
       <c r="B115" s="21" t="s">
@@ -14779,7 +15310,7 @@
       </c>
     </row>
     <row r="116" ht="10.5">
-      <c r="A116" s="20">
+      <c r="A116" s="19">
         <v>115</v>
       </c>
       <c r="B116" s="21" t="s">
@@ -14809,7 +15340,7 @@
       </c>
     </row>
     <row r="117" ht="10.5">
-      <c r="A117" s="20">
+      <c r="A117" s="19">
         <v>116</v>
       </c>
       <c r="B117" s="21" t="s">
@@ -14839,7 +15370,7 @@
       </c>
     </row>
     <row r="118" ht="10.5">
-      <c r="A118" s="20">
+      <c r="A118" s="19">
         <v>117</v>
       </c>
       <c r="B118" s="21" t="s">
@@ -14869,7 +15400,7 @@
       </c>
     </row>
     <row r="119" ht="10.5">
-      <c r="A119" s="20">
+      <c r="A119" s="19">
         <v>118</v>
       </c>
       <c r="B119" s="21" t="s">
@@ -15274,7 +15805,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A37" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -15311,7 +15842,7 @@
         <v>13</v>
       </c>
       <c r="B3" s="24">
-        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <f t="shared" ref="B3:B66" si="2">_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
         <v>1</v>
       </c>
       <c r="C3" s="24">
@@ -15342,11 +15873,11 @@
         <v>18</v>
       </c>
       <c r="B4" s="24">
-        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="C4" s="24">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <f t="shared" ref="C4:C67" si="3">_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
         <v>2</v>
       </c>
       <c r="D4">
@@ -15373,11 +15904,11 @@
         <v>24</v>
       </c>
       <c r="B5" s="24">
-        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="C5" s="24">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="D5">
@@ -15404,11 +15935,11 @@
         <v>28</v>
       </c>
       <c r="B6" s="24">
-        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="C6" s="24">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="D6">
@@ -15435,11 +15966,11 @@
         <v>28</v>
       </c>
       <c r="B7" s="24">
-        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="C7" s="24">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="D7">
@@ -15466,11 +15997,11 @@
         <v>24</v>
       </c>
       <c r="B8" s="24">
-        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="C8" s="24">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="D8">
@@ -15497,11 +16028,11 @@
         <v>39</v>
       </c>
       <c r="B9" s="24">
-        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="C9" s="24">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="D9">
@@ -15528,11 +16059,11 @@
         <v>43</v>
       </c>
       <c r="B10" s="24">
-        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="C10" s="24">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="D10">
@@ -15559,11 +16090,11 @@
         <v>28</v>
       </c>
       <c r="B11" s="24">
-        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="C11" s="24">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="D11">
@@ -15590,11 +16121,11 @@
         <v>28</v>
       </c>
       <c r="B12" s="24">
-        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="C12" s="24">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="D12">
@@ -15621,11 +16152,11 @@
         <v>24</v>
       </c>
       <c r="B13" s="24">
-        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="C13" s="24">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="D13">
@@ -15652,11 +16183,11 @@
         <v>28</v>
       </c>
       <c r="B14" s="24">
-        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="C14" s="24">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="D14">
@@ -15683,11 +16214,11 @@
         <v>61</v>
       </c>
       <c r="B15" s="24">
-        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="C15" s="24">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="D15">
@@ -15714,11 +16245,11 @@
         <v>24</v>
       </c>
       <c r="B16" s="24">
-        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="C16" s="24">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="D16">
@@ -15745,11 +16276,11 @@
         <v>24</v>
       </c>
       <c r="B17" s="24">
-        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="C17" s="24">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="D17">
@@ -15776,11 +16307,11 @@
         <v>28</v>
       </c>
       <c r="B18" s="24">
-        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="C18" s="24">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="D18">
@@ -15807,11 +16338,11 @@
         <v>78</v>
       </c>
       <c r="B19" s="24">
-        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="C19" s="24">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="D19">
@@ -15838,11 +16369,11 @@
         <v>82</v>
       </c>
       <c r="B20" s="24">
-        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="C20" s="24">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="D20">
@@ -15869,11 +16400,11 @@
         <v>82</v>
       </c>
       <c r="B21" s="24">
-        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="C21" s="24">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="D21">
@@ -15900,11 +16431,11 @@
         <v>82</v>
       </c>
       <c r="B22" s="24">
-        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="C22" s="24">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="D22">
@@ -15931,11 +16462,11 @@
         <v>92</v>
       </c>
       <c r="B23" s="24">
-        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="C23" s="24">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="D23">
@@ -15965,11 +16496,11 @@
         <v>96</v>
       </c>
       <c r="B24" s="24">
-        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="C24" s="24">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="D24">
@@ -15996,11 +16527,11 @@
         <v>99</v>
       </c>
       <c r="B25" s="24">
-        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="C25" s="24">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="D25">
@@ -16027,11 +16558,11 @@
         <v>43</v>
       </c>
       <c r="B26" s="24">
-        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="C26" s="24">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="D26">
@@ -16058,11 +16589,11 @@
         <v>106</v>
       </c>
       <c r="B27" s="24">
-        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="C27" s="24">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="D27">
@@ -16089,11 +16620,11 @@
         <v>96</v>
       </c>
       <c r="B28" s="24">
-        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="C28" s="24">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="D28">
@@ -16120,11 +16651,11 @@
         <v>43</v>
       </c>
       <c r="B29" s="24">
-        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="C29" s="24">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="D29">
@@ -16151,11 +16682,11 @@
         <v>96</v>
       </c>
       <c r="B30" s="24">
-        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
       <c r="C30" s="24">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="D30">
@@ -16182,11 +16713,11 @@
         <v>121</v>
       </c>
       <c r="B31" s="24">
-        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
       <c r="C31" s="24">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="D31">
@@ -16213,11 +16744,11 @@
         <v>121</v>
       </c>
       <c r="B32" s="24">
-        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="C32" s="24">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="D32">
@@ -16244,11 +16775,11 @@
         <v>121</v>
       </c>
       <c r="B33" s="24">
-        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <f t="shared" si="2"/>
         <v>31</v>
       </c>
       <c r="C33" s="24">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="D33">
@@ -16275,11 +16806,11 @@
         <v>121</v>
       </c>
       <c r="B34" s="24">
-        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
       <c r="C34" s="24">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="D34">
@@ -16306,11 +16837,11 @@
         <v>121</v>
       </c>
       <c r="B35" s="24">
-        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <f t="shared" si="2"/>
         <v>33</v>
       </c>
       <c r="C35" s="24">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="D35">
@@ -16337,11 +16868,11 @@
         <v>121</v>
       </c>
       <c r="B36" s="24">
-        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
       <c r="C36" s="24">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="D36">
@@ -16368,11 +16899,11 @@
         <v>142</v>
       </c>
       <c r="B37" s="24">
-        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
       <c r="C37" s="24">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="D37">
@@ -16399,11 +16930,11 @@
         <v>146</v>
       </c>
       <c r="B38" s="24">
-        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
       <c r="C38" s="24">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="D38">
@@ -16430,14 +16961,14 @@
         <v>78</v>
       </c>
       <c r="B39" s="24">
-        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <f t="shared" si="2"/>
         <v>37</v>
       </c>
       <c r="C39" s="24">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="D39" s="19">
+      <c r="D39" s="20">
         <v>13</v>
       </c>
       <c r="F39" s="25">
@@ -16461,11 +16992,11 @@
         <v>24</v>
       </c>
       <c r="B40" s="24">
-        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <f t="shared" si="2"/>
         <v>38</v>
       </c>
       <c r="C40" s="24">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="D40">
@@ -16492,11 +17023,11 @@
         <v>43</v>
       </c>
       <c r="B41" s="24">
-        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <f t="shared" si="2"/>
         <v>39</v>
       </c>
       <c r="C41" s="24">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="D41">
@@ -16523,11 +17054,11 @@
         <v>43</v>
       </c>
       <c r="B42" s="24">
-        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="C42" s="24">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="D42">
@@ -16554,11 +17085,10 @@
         <v>78</v>
       </c>
       <c r="B43" s="24">
-        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C43" s="24">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="D43">
@@ -16585,11 +17115,11 @@
         <v>167</v>
       </c>
       <c r="B44" s="24">
-        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <f t="shared" si="2"/>
         <v>42</v>
       </c>
       <c r="C44" s="24">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="D44">
@@ -16616,11 +17146,11 @@
         <v>24</v>
       </c>
       <c r="B45" s="24">
-        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <f t="shared" si="2"/>
         <v>43</v>
       </c>
       <c r="C45" s="24">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="D45">
@@ -16647,11 +17177,11 @@
         <v>43</v>
       </c>
       <c r="B46" s="24">
-        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <f t="shared" si="2"/>
         <v>44</v>
       </c>
       <c r="C46" s="24">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="D46">
@@ -16678,11 +17208,11 @@
         <v>178</v>
       </c>
       <c r="B47" s="24">
-        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <f t="shared" si="2"/>
         <v>45</v>
       </c>
       <c r="C47" s="24">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="D47">
@@ -16704,11 +17234,10 @@
         <v>24</v>
       </c>
       <c r="B48" s="24">
-        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C48" s="24">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="D48">
@@ -16730,11 +17259,11 @@
         <v>43</v>
       </c>
       <c r="B49" s="24">
-        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <f t="shared" si="2"/>
         <v>47</v>
       </c>
       <c r="C49" s="24">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="D49">
@@ -16756,11 +17285,11 @@
         <v>43</v>
       </c>
       <c r="B50" s="24">
-        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <f t="shared" si="2"/>
         <v>48</v>
       </c>
       <c r="C50" s="24">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="D50">
@@ -16782,11 +17311,11 @@
         <v>192</v>
       </c>
       <c r="B51" s="24">
-        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <f t="shared" si="2"/>
         <v>49</v>
       </c>
       <c r="C51" s="24">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="D51">
@@ -16808,11 +17337,11 @@
         <v>197</v>
       </c>
       <c r="B52" s="24">
-        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="C52" s="24">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="D52">
@@ -16834,11 +17363,11 @@
         <v>202</v>
       </c>
       <c r="B53" s="24">
-        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <f t="shared" si="2"/>
         <v>52</v>
       </c>
       <c r="C53" s="24">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
       <c r="D53">
@@ -16860,11 +17389,10 @@
         <v>206</v>
       </c>
       <c r="B54" s="24">
-        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C54" s="24">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="D54">
@@ -16886,11 +17414,11 @@
         <v>210</v>
       </c>
       <c r="B55" s="24">
-        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <f t="shared" si="2"/>
         <v>53</v>
       </c>
       <c r="C55" s="24">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <f t="shared" si="3"/>
         <v>23</v>
       </c>
       <c r="D55">
@@ -16912,11 +17440,11 @@
         <v>214</v>
       </c>
       <c r="B56" s="24">
-        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <f t="shared" si="2"/>
         <v>54</v>
       </c>
       <c r="C56" s="24">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="D56">
@@ -16938,11 +17466,11 @@
         <v>218</v>
       </c>
       <c r="B57" s="24">
-        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <f t="shared" si="2"/>
         <v>55</v>
       </c>
       <c r="C57" s="24">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="D57">
@@ -16964,11 +17492,11 @@
         <v>222</v>
       </c>
       <c r="B58" s="24">
-        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <f t="shared" si="2"/>
         <v>56</v>
       </c>
       <c r="C58" s="24">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <f t="shared" si="3"/>
         <v>26</v>
       </c>
       <c r="D58">
@@ -16990,11 +17518,11 @@
         <v>226</v>
       </c>
       <c r="B59" s="24">
-        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <f t="shared" si="2"/>
         <v>57</v>
       </c>
       <c r="C59" s="24">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="D59">
@@ -17016,11 +17544,11 @@
         <v>230</v>
       </c>
       <c r="B60" s="24">
-        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <f t="shared" si="2"/>
         <v>58</v>
       </c>
       <c r="C60" s="24">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
       <c r="D60">
@@ -17042,11 +17570,11 @@
         <v>234</v>
       </c>
       <c r="B61" s="24">
-        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <f t="shared" si="2"/>
         <v>59</v>
       </c>
       <c r="C61" s="24">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <f t="shared" si="3"/>
         <v>29</v>
       </c>
       <c r="D61">
@@ -17068,11 +17596,11 @@
         <v>240</v>
       </c>
       <c r="B62" s="24">
-        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="C62" s="24">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="D62">
@@ -17094,11 +17622,11 @@
         <v>121</v>
       </c>
       <c r="B63" s="24">
-        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="C63" s="24">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="D63">
@@ -17120,11 +17648,11 @@
         <v>121</v>
       </c>
       <c r="B64" s="24">
-        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <f t="shared" si="2"/>
         <v>39</v>
       </c>
       <c r="C64" s="24">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="D64">
@@ -17146,11 +17674,11 @@
         <v>24</v>
       </c>
       <c r="B65" s="24">
-        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <f t="shared" si="2"/>
         <v>39</v>
       </c>
       <c r="C65" s="24">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="D65">
@@ -17172,11 +17700,10 @@
         <v>121</v>
       </c>
       <c r="B66" s="24">
-        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C66" s="24">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="D66">
@@ -17198,11 +17725,10 @@
         <v>121</v>
       </c>
       <c r="B67" s="24">
-        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C67" s="24">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="D67">
@@ -17224,11 +17750,11 @@
         <v>43</v>
       </c>
       <c r="B68" s="24">
-        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <f t="shared" ref="B67:B121" si="4">_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
         <v>65</v>
       </c>
       <c r="C68" s="24">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <f t="shared" ref="C68:C121" si="5">_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
         <v>6</v>
       </c>
       <c r="D68">
@@ -17250,11 +17776,11 @@
         <v>268</v>
       </c>
       <c r="B69" s="24">
-        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <f t="shared" si="4"/>
         <v>36</v>
       </c>
       <c r="C69" s="24">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <f t="shared" si="5"/>
         <v>31</v>
       </c>
       <c r="D69">
@@ -17276,11 +17802,11 @@
         <v>273</v>
       </c>
       <c r="B70" s="24">
-        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <f t="shared" si="4"/>
         <v>65</v>
       </c>
       <c r="C70" s="24">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <f t="shared" si="5"/>
         <v>32</v>
       </c>
       <c r="D70">
@@ -17302,11 +17828,11 @@
         <v>240</v>
       </c>
       <c r="B71" s="24">
-        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <f t="shared" si="4"/>
         <v>36</v>
       </c>
       <c r="C71" s="24">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
       <c r="D71">
@@ -17328,11 +17854,11 @@
         <v>121</v>
       </c>
       <c r="B72" s="24">
-        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <f t="shared" si="4"/>
         <v>70</v>
       </c>
       <c r="C72" s="24">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
       <c r="D72">
@@ -17354,11 +17880,11 @@
         <v>286</v>
       </c>
       <c r="B73" s="24">
-        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <f t="shared" si="4"/>
         <v>70</v>
       </c>
       <c r="C73" s="24">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <f t="shared" si="5"/>
         <v>33</v>
       </c>
       <c r="D73">
@@ -17380,11 +17906,11 @@
         <v>121</v>
       </c>
       <c r="B74" s="24">
-        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <f t="shared" si="4"/>
         <v>74</v>
       </c>
       <c r="C74" s="24">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
       <c r="D74">
@@ -17406,11 +17932,11 @@
         <v>296</v>
       </c>
       <c r="B75" s="24">
-        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <f t="shared" si="4"/>
         <v>61</v>
       </c>
       <c r="C75" s="24">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <f t="shared" si="5"/>
         <v>34</v>
       </c>
       <c r="D75">
@@ -17432,11 +17958,10 @@
         <v>99</v>
       </c>
       <c r="B76" s="24">
-        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="C76" s="24">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="D76">
@@ -17458,11 +17983,11 @@
         <v>121</v>
       </c>
       <c r="B77" s="24">
-        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="C77" s="24">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
       <c r="D77">
@@ -17484,11 +18009,11 @@
         <v>121</v>
       </c>
       <c r="B78" s="24">
-        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <f t="shared" si="4"/>
         <v>76</v>
       </c>
       <c r="C78" s="24">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
       <c r="D78">
@@ -17510,11 +18035,11 @@
         <v>121</v>
       </c>
       <c r="B79" s="24">
-        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <f t="shared" si="4"/>
         <v>61</v>
       </c>
       <c r="C79" s="24">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
       <c r="D79">
@@ -17536,11 +18061,11 @@
         <v>61</v>
       </c>
       <c r="B80" s="24">
-        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <f t="shared" si="4"/>
         <v>78</v>
       </c>
       <c r="C80" s="24">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="D80">
@@ -17562,11 +18087,11 @@
         <v>99</v>
       </c>
       <c r="B81" s="24">
-        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <f t="shared" si="4"/>
         <v>112</v>
       </c>
       <c r="C81" s="24">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="D81">
@@ -17588,11 +18113,11 @@
         <v>43</v>
       </c>
       <c r="B82" s="24">
-        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <f t="shared" si="4"/>
         <v>80</v>
       </c>
       <c r="C82" s="24">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="D82">
@@ -17614,11 +18139,10 @@
         <v>167</v>
       </c>
       <c r="B83" s="24">
-        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="C83" s="24">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="D83">
@@ -17640,11 +18164,11 @@
         <v>327</v>
       </c>
       <c r="B84" s="24">
-        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <f t="shared" si="4"/>
         <v>92</v>
       </c>
       <c r="C84" s="24">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <f t="shared" si="5"/>
         <v>35</v>
       </c>
       <c r="D84">
@@ -17666,11 +18190,11 @@
         <v>43</v>
       </c>
       <c r="B85" s="24">
-        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <f t="shared" si="4"/>
         <v>83</v>
       </c>
       <c r="C85" s="24">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="D85">
@@ -17692,11 +18216,10 @@
         <v>334</v>
       </c>
       <c r="B86" s="24">
-        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C86" s="24">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <f t="shared" si="5"/>
         <v>36</v>
       </c>
       <c r="D86">
@@ -17718,11 +18241,11 @@
         <v>327</v>
       </c>
       <c r="B87" s="24">
-        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <f t="shared" si="4"/>
         <v>83</v>
       </c>
       <c r="C87" s="24">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <f t="shared" si="5"/>
         <v>35</v>
       </c>
       <c r="D87">
@@ -17744,11 +18267,10 @@
         <v>121</v>
       </c>
       <c r="B88" s="24">
-        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="C88" s="24">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
       <c r="D88">
@@ -17770,11 +18292,11 @@
         <v>99</v>
       </c>
       <c r="B89" s="24">
-        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <f t="shared" si="4"/>
         <v>78</v>
       </c>
       <c r="C89" s="24">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="D89">
@@ -17796,11 +18318,11 @@
         <v>99</v>
       </c>
       <c r="B90" s="24">
-        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <f t="shared" si="4"/>
         <v>118</v>
       </c>
       <c r="C90" s="24">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="D90">
@@ -17822,11 +18344,11 @@
         <v>99</v>
       </c>
       <c r="B91" s="24">
-        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <f t="shared" si="4"/>
         <v>88</v>
       </c>
       <c r="C91" s="24">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="D91">
@@ -17848,11 +18370,11 @@
         <v>39</v>
       </c>
       <c r="B92" s="24">
-        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <f t="shared" si="4"/>
         <v>118</v>
       </c>
       <c r="C92" s="24">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="D92">
@@ -17874,11 +18396,11 @@
         <v>39</v>
       </c>
       <c r="B93" s="24">
-        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <f t="shared" si="4"/>
         <v>91</v>
       </c>
       <c r="C93" s="24">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="D93">
@@ -17900,11 +18422,10 @@
         <v>43</v>
       </c>
       <c r="B94" s="24">
-        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C94" s="24">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="D94">
@@ -17926,11 +18447,11 @@
         <v>39</v>
       </c>
       <c r="B95" s="24">
-        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <f t="shared" si="4"/>
         <v>92</v>
       </c>
       <c r="C95" s="24">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="D95">
@@ -17945,11 +18466,11 @@
         <v>39</v>
       </c>
       <c r="B96" s="24">
-        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <f t="shared" si="4"/>
         <v>93</v>
       </c>
       <c r="C96" s="24">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="D96">
@@ -17964,11 +18485,11 @@
         <v>167</v>
       </c>
       <c r="B97" s="24">
-        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <f t="shared" si="4"/>
         <v>93</v>
       </c>
       <c r="C97" s="24">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="D97">
@@ -17983,11 +18504,10 @@
         <v>96</v>
       </c>
       <c r="B98" s="24">
-        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C98" s="24">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="D98">
@@ -18002,11 +18522,11 @@
         <v>43</v>
       </c>
       <c r="B99" s="24">
-        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <f t="shared" si="4"/>
         <v>95</v>
       </c>
       <c r="C99" s="24">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="D99">
@@ -18021,11 +18541,11 @@
         <v>378</v>
       </c>
       <c r="B100" s="24">
-        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <f t="shared" si="4"/>
         <v>97</v>
       </c>
       <c r="C100" s="24">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <f t="shared" si="5"/>
         <v>37</v>
       </c>
       <c r="D100">
@@ -18040,11 +18560,11 @@
         <v>384</v>
       </c>
       <c r="B101" s="24">
-        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <f t="shared" si="4"/>
         <v>88</v>
       </c>
       <c r="C101" s="24">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <f t="shared" si="5"/>
         <v>38</v>
       </c>
       <c r="D101">
@@ -18059,11 +18579,11 @@
         <v>384</v>
       </c>
       <c r="B102" s="24">
-        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <f t="shared" si="4"/>
         <v>118</v>
       </c>
       <c r="C102" s="24">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <f t="shared" si="5"/>
         <v>38</v>
       </c>
       <c r="D102">
@@ -18078,11 +18598,11 @@
         <v>384</v>
       </c>
       <c r="B103" s="24">
-        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="C103" s="24">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <f t="shared" si="5"/>
         <v>38</v>
       </c>
       <c r="D103">
@@ -18097,11 +18617,11 @@
         <v>384</v>
       </c>
       <c r="B104" s="24">
-        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <f t="shared" si="4"/>
         <v>101</v>
       </c>
       <c r="C104" s="24">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <f t="shared" si="5"/>
         <v>38</v>
       </c>
       <c r="D104">
@@ -18116,11 +18636,11 @@
         <v>396</v>
       </c>
       <c r="B105" s="24">
-        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <f t="shared" si="4"/>
         <v>102</v>
       </c>
       <c r="C105" s="24">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <f t="shared" si="5"/>
         <v>39</v>
       </c>
       <c r="D105">
@@ -18135,11 +18655,10 @@
         <v>400</v>
       </c>
       <c r="B106" s="24">
-        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C106" s="24">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <f t="shared" si="5"/>
         <v>40</v>
       </c>
       <c r="D106">
@@ -18154,11 +18673,11 @@
         <v>384</v>
       </c>
       <c r="B107" s="24">
-        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <f t="shared" si="4"/>
         <v>104</v>
       </c>
       <c r="C107" s="24">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <f t="shared" si="5"/>
         <v>38</v>
       </c>
       <c r="D107">
@@ -18173,11 +18692,11 @@
         <v>408</v>
       </c>
       <c r="B108" s="24">
-        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <f t="shared" si="4"/>
         <v>37</v>
       </c>
       <c r="C108" s="24">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <f t="shared" si="5"/>
         <v>42</v>
       </c>
       <c r="D108">
@@ -18192,11 +18711,11 @@
         <v>408</v>
       </c>
       <c r="B109" s="24">
-        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <f t="shared" si="4"/>
         <v>106</v>
       </c>
       <c r="C109" s="24">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <f t="shared" si="5"/>
         <v>42</v>
       </c>
       <c r="D109">
@@ -18211,11 +18730,11 @@
         <v>416</v>
       </c>
       <c r="B110" s="24">
-        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <f t="shared" si="4"/>
         <v>107</v>
       </c>
       <c r="C110" s="24">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <f t="shared" si="5"/>
         <v>43</v>
       </c>
       <c r="D110">
@@ -18230,11 +18749,11 @@
         <v>416</v>
       </c>
       <c r="B111" s="24">
-        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="C111" s="24">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <f t="shared" si="5"/>
         <v>43</v>
       </c>
       <c r="D111">
@@ -18249,11 +18768,11 @@
         <v>416</v>
       </c>
       <c r="B112" s="24">
-        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <f t="shared" si="4"/>
         <v>93</v>
       </c>
       <c r="C112" s="24">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <f t="shared" si="5"/>
         <v>43</v>
       </c>
       <c r="D112">
@@ -18268,11 +18787,11 @@
         <v>24</v>
       </c>
       <c r="B113" s="24">
-        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <f t="shared" si="4"/>
         <v>110</v>
       </c>
       <c r="C113" s="24">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="D113">
@@ -18287,11 +18806,11 @@
         <v>428</v>
       </c>
       <c r="B114" s="24">
-        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <f t="shared" si="4"/>
         <v>102</v>
       </c>
       <c r="C114" s="24">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <f t="shared" si="5"/>
         <v>44</v>
       </c>
       <c r="D114">
@@ -18306,11 +18825,11 @@
         <v>416</v>
       </c>
       <c r="B115" s="24">
-        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <f t="shared" si="4"/>
         <v>112</v>
       </c>
       <c r="C115" s="24">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <f t="shared" si="5"/>
         <v>43</v>
       </c>
       <c r="D115">
@@ -18325,11 +18844,11 @@
         <v>416</v>
       </c>
       <c r="B116" s="24">
-        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <f t="shared" si="4"/>
         <v>53</v>
       </c>
       <c r="C116" s="24">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <f t="shared" si="5"/>
         <v>43</v>
       </c>
       <c r="D116">
@@ -18344,11 +18863,11 @@
         <v>436</v>
       </c>
       <c r="B117" s="24">
-        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <f t="shared" si="4"/>
         <v>112</v>
       </c>
       <c r="C117" s="24">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <f t="shared" si="5"/>
         <v>45</v>
       </c>
       <c r="D117">
@@ -18363,11 +18882,11 @@
         <v>43</v>
       </c>
       <c r="B118" s="24">
-        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <f t="shared" si="4"/>
         <v>53</v>
       </c>
       <c r="C118" s="24">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="D118">
@@ -18382,11 +18901,11 @@
         <v>96</v>
       </c>
       <c r="B119" s="24">
-        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
       <c r="C119" s="24">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="D119">
@@ -18401,11 +18920,11 @@
         <v>327</v>
       </c>
       <c r="B120" s="24">
-        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <f t="shared" si="4"/>
         <v>117</v>
       </c>
       <c r="C120" s="24">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <f t="shared" si="5"/>
         <v>35</v>
       </c>
       <c r="D120">
@@ -18420,11 +18939,11 @@
         <v>240</v>
       </c>
       <c r="B121" s="24">
-        <f>_xlfn.XLOOKUP(H:H,G:G,F:F)</f>
+        <f t="shared" si="4"/>
         <v>118</v>
       </c>
       <c r="C121" s="24">
-        <f>_xlfn.XLOOKUP(A:A,J:J,I:I)</f>
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
       <c r="D121">
